--- a/AAII_Financials/Quarterly/GTHP_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GTHP_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="92">
   <si>
     <t>GTHP</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,66 +665,77 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43738</v>
+      </c>
+      <c r="F7" s="2">
+        <v>43646</v>
+      </c>
+      <c r="G7" s="2">
         <v>43555</v>
       </c>
-      <c r="E7" s="2">
+      <c r="H7" s="2">
         <v>43465</v>
       </c>
-      <c r="F7" s="2">
+      <c r="I7" s="2">
         <v>43373</v>
       </c>
-      <c r="G7" s="2">
+      <c r="J7" s="2">
         <v>43281</v>
       </c>
-      <c r="H7" s="2">
+      <c r="K7" s="2">
         <v>43190</v>
       </c>
-      <c r="I7" s="2">
+      <c r="L7" s="2">
         <v>43100</v>
       </c>
-      <c r="J7" s="2">
+      <c r="M7" s="2">
         <v>43008</v>
       </c>
-      <c r="K7" s="2">
+      <c r="N7" s="2">
         <v>42916</v>
       </c>
-      <c r="L7" s="2">
+      <c r="O7" s="2">
         <v>42825</v>
       </c>
-      <c r="M7" s="2">
+      <c r="P7" s="2">
         <v>42735</v>
       </c>
-      <c r="N7" s="2">
+      <c r="Q7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -744,101 +755,128 @@
         <v>0</v>
       </c>
       <c r="I8" s="3">
+        <v>0</v>
+      </c>
+      <c r="J8" s="3">
+        <v>0</v>
+      </c>
+      <c r="K8" s="3">
+        <v>0</v>
+      </c>
+      <c r="L8" s="3">
         <v>100</v>
       </c>
-      <c r="J8" s="3">
-        <v>0</v>
-      </c>
-      <c r="K8" s="3">
-        <v>100</v>
-      </c>
-      <c r="L8" s="3">
-        <v>0</v>
-      </c>
       <c r="M8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N8" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3">
+        <v>0</v>
+      </c>
+      <c r="P8" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
         <v>0</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F9" s="3">
         <v>100</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="G9" s="3">
+        <v>0</v>
+      </c>
+      <c r="H9" s="3">
+        <v>100</v>
+      </c>
+      <c r="I9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G9" s="3">
-        <v>0</v>
-      </c>
-      <c r="H9" s="3">
-        <v>0</v>
-      </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
+        <v>0</v>
+      </c>
+      <c r="K9" s="3">
+        <v>0</v>
+      </c>
+      <c r="L9" s="3">
         <v>300</v>
       </c>
-      <c r="J9" s="3">
+      <c r="M9" s="3">
         <v>100</v>
-      </c>
-      <c r="K9" s="3">
-        <v>100</v>
-      </c>
-      <c r="L9" s="3">
-        <v>0</v>
-      </c>
-      <c r="M9" s="3">
-        <v>300</v>
       </c>
       <c r="N9" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3">
+        <v>0</v>
+      </c>
+      <c r="P9" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q9" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F10" s="3">
         <v>-100</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="G10" s="3">
+        <v>0</v>
+      </c>
+      <c r="H10" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G10" s="3">
-        <v>0</v>
-      </c>
-      <c r="H10" s="3">
-        <v>0</v>
-      </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
+        <v>0</v>
+      </c>
+      <c r="K10" s="3">
+        <v>0</v>
+      </c>
+      <c r="L10" s="3">
         <v>-200</v>
       </c>
-      <c r="J10" s="3">
+      <c r="M10" s="3">
         <v>-100</v>
       </c>
-      <c r="K10" s="3">
-        <v>0</v>
-      </c>
-      <c r="L10" s="3">
-        <v>0</v>
-      </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
+        <v>0</v>
+      </c>
+      <c r="O10" s="3">
+        <v>0</v>
+      </c>
+      <c r="P10" s="3">
         <v>-200</v>
       </c>
-      <c r="N10" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -853,8 +891,11 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -862,19 +903,19 @@
         <v>0</v>
       </c>
       <c r="E12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F12" s="3">
         <v>0</v>
       </c>
       <c r="G12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H12" s="3">
         <v>100</v>
       </c>
       <c r="I12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J12" s="3">
         <v>100</v>
@@ -886,13 +927,22 @@
         <v>100</v>
       </c>
       <c r="M12" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N12" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3">
+        <v>100</v>
+      </c>
+      <c r="P12" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q12" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -929,46 +979,64 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3" t="s">
         <v>4</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
-        <v>-1000</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>4</v>
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
+        <v>-1000</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
-      <c r="M14" s="3">
-        <v>0</v>
+      <c r="K14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1005,8 +1073,17 @@
       <c r="N15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1018,46 +1095,58 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E17" s="3">
+        <v>200</v>
+      </c>
+      <c r="F17" s="3">
         <v>300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
+        <v>300</v>
+      </c>
+      <c r="H17" s="3">
         <v>500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="I17" s="3">
         <v>-800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="J17" s="3">
         <v>500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="K17" s="3">
         <v>400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="L17" s="3">
         <v>800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="M17" s="3">
         <v>1400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="N17" s="3">
         <v>600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="O17" s="3">
         <v>500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="P17" s="3">
         <v>1200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="Q17" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1065,37 +1154,46 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="G18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="H18" s="3">
         <v>-500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="I18" s="3">
         <v>800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="J18" s="3">
         <v>-500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="K18" s="3">
         <v>-400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="L18" s="3">
         <v>-700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="M18" s="3">
         <v>-1400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="N18" s="3">
         <v>-500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="O18" s="3">
         <v>-500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="P18" s="3">
         <v>-1100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="Q18" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1110,8 +1208,11 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1119,37 +1220,46 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
+        <v>400</v>
+      </c>
+      <c r="F20" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="G20" s="3">
+        <v>400</v>
+      </c>
+      <c r="H20" s="3">
         <v>-1300</v>
       </c>
-      <c r="F20" s="3">
+      <c r="I20" s="3">
         <v>-1300</v>
       </c>
-      <c r="G20" s="3">
+      <c r="J20" s="3">
         <v>4200</v>
       </c>
-      <c r="H20" s="3">
+      <c r="K20" s="3">
         <v>1700</v>
       </c>
-      <c r="I20" s="3">
+      <c r="L20" s="3">
         <v>-6100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="M20" s="3">
         <v>-700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="N20" s="3">
         <v>-200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="O20" s="3">
         <v>600</v>
       </c>
-      <c r="M20" s="3">
+      <c r="P20" s="3">
         <v>-600</v>
       </c>
-      <c r="N20" s="3">
+      <c r="Q20" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1157,37 +1267,46 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>300</v>
+      </c>
+      <c r="F21" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="G21" s="3">
+        <v>200</v>
+      </c>
+      <c r="H21" s="3">
         <v>-1800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="I21" s="3">
         <v>-500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="J21" s="3">
         <v>3700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="K21" s="3">
         <v>1300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="L21" s="3">
         <v>-6700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="M21" s="3">
         <v>-2100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="N21" s="3">
         <v>-700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="O21" s="3">
         <v>100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="P21" s="3">
         <v>-1600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="Q21" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1195,75 +1314,93 @@
         <v>400</v>
       </c>
       <c r="E22" s="3">
+        <v>400</v>
+      </c>
+      <c r="F22" s="3">
+        <v>300</v>
+      </c>
+      <c r="G22" s="3">
+        <v>400</v>
+      </c>
+      <c r="H22" s="3">
         <v>1000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="I22" s="3">
         <v>200</v>
-      </c>
-      <c r="G22" s="3">
-        <v>300</v>
-      </c>
-      <c r="H22" s="3">
-        <v>200</v>
-      </c>
-      <c r="I22" s="3">
-        <v>300</v>
       </c>
       <c r="J22" s="3">
         <v>300</v>
       </c>
       <c r="K22" s="3">
+        <v>200</v>
+      </c>
+      <c r="L22" s="3">
         <v>300</v>
-      </c>
-      <c r="L22" s="3">
-        <v>200</v>
       </c>
       <c r="M22" s="3">
         <v>300</v>
       </c>
       <c r="N22" s="3">
+        <v>300</v>
+      </c>
+      <c r="O22" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="P22" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q22" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F23" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="G23" s="3">
         <v>-200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="H23" s="3">
         <v>-2700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="I23" s="3">
         <v>-700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="J23" s="3">
         <v>3400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="K23" s="3">
         <v>1100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="L23" s="3">
         <v>-7200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="M23" s="3">
         <v>-2400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="N23" s="3">
         <v>-1100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="O23" s="3">
         <v>-100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="P23" s="3">
         <v>-2000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="Q23" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1300,8 +1437,17 @@
       <c r="N24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3">
+        <v>0</v>
+      </c>
+      <c r="P24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1338,84 +1484,111 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F26" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="G26" s="3">
         <v>-200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="H26" s="3">
         <v>-2700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="I26" s="3">
         <v>-700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="J26" s="3">
         <v>3400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="K26" s="3">
         <v>1100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="L26" s="3">
         <v>-7200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="M26" s="3">
         <v>-2400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="N26" s="3">
         <v>-1100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="O26" s="3">
         <v>-100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="P26" s="3">
         <v>-2000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="Q26" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F27" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="G27" s="3">
         <v>-200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="H27" s="3">
         <v>-2800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="I27" s="3">
         <v>-800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="J27" s="3">
         <v>3400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="K27" s="3">
         <v>1000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="L27" s="3">
         <v>-7200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="M27" s="3">
         <v>-2400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="N27" s="3">
         <v>-1100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="O27" s="3">
         <v>-200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="P27" s="3">
         <v>-2100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="Q27" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1452,8 +1625,17 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1490,8 +1672,17 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1528,8 +1719,17 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1566,8 +1766,17 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1575,75 +1784,93 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F32" s="3">
+        <v>2100</v>
+      </c>
+      <c r="G32" s="3">
+        <v>-400</v>
+      </c>
+      <c r="H32" s="3">
         <v>1300</v>
       </c>
-      <c r="F32" s="3">
+      <c r="I32" s="3">
         <v>1300</v>
       </c>
-      <c r="G32" s="3">
+      <c r="J32" s="3">
         <v>-4200</v>
       </c>
-      <c r="H32" s="3">
+      <c r="K32" s="3">
         <v>-1700</v>
       </c>
-      <c r="I32" s="3">
+      <c r="L32" s="3">
         <v>6100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="M32" s="3">
         <v>700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="N32" s="3">
         <v>200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="O32" s="3">
         <v>-600</v>
       </c>
-      <c r="M32" s="3">
+      <c r="P32" s="3">
         <v>600</v>
       </c>
-      <c r="N32" s="3">
+      <c r="Q32" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F33" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="G33" s="3">
         <v>-200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="H33" s="3">
         <v>-2800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="I33" s="3">
         <v>-800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="J33" s="3">
         <v>3400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="K33" s="3">
         <v>1000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="L33" s="3">
         <v>-7200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="M33" s="3">
         <v>-2400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="N33" s="3">
         <v>-1100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="O33" s="3">
         <v>-200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="P33" s="3">
         <v>-2100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="Q33" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1680,89 +1907,116 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F35" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="G35" s="3">
         <v>-200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="H35" s="3">
         <v>-2800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="I35" s="3">
         <v>-800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="J35" s="3">
         <v>3400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="K35" s="3">
         <v>1000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="L35" s="3">
         <v>-7200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="M35" s="3">
         <v>-2400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="N35" s="3">
         <v>-1100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="O35" s="3">
         <v>-200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="P35" s="3">
         <v>-2100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="Q35" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43738</v>
+      </c>
+      <c r="F38" s="2">
+        <v>43646</v>
+      </c>
+      <c r="G38" s="2">
         <v>43555</v>
       </c>
-      <c r="E38" s="2">
+      <c r="H38" s="2">
         <v>43465</v>
       </c>
-      <c r="F38" s="2">
+      <c r="I38" s="2">
         <v>43373</v>
       </c>
-      <c r="G38" s="2">
+      <c r="J38" s="2">
         <v>43281</v>
       </c>
-      <c r="H38" s="2">
+      <c r="K38" s="2">
         <v>43190</v>
       </c>
-      <c r="I38" s="2">
+      <c r="L38" s="2">
         <v>43100</v>
       </c>
-      <c r="J38" s="2">
+      <c r="M38" s="2">
         <v>43008</v>
       </c>
-      <c r="K38" s="2">
+      <c r="N38" s="2">
         <v>42916</v>
       </c>
-      <c r="L38" s="2">
+      <c r="O38" s="2">
         <v>42825</v>
       </c>
-      <c r="M38" s="2">
+      <c r="P38" s="2">
         <v>42735</v>
       </c>
-      <c r="N38" s="2">
+      <c r="Q38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1777,8 +2031,11 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+      <c r="P39" s="3"/>
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1793,46 +2050,58 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+      <c r="P40" s="3"/>
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>0</v>
+        <v>900</v>
       </c>
       <c r="E41" s="3">
         <v>0</v>
       </c>
       <c r="F41" s="3">
+        <v>0</v>
+      </c>
+      <c r="G41" s="3">
+        <v>0</v>
+      </c>
+      <c r="H41" s="3">
+        <v>0</v>
+      </c>
+      <c r="I41" s="3">
         <v>100</v>
       </c>
-      <c r="G41" s="3">
-        <v>0</v>
-      </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
+        <v>0</v>
+      </c>
+      <c r="K41" s="3">
         <v>100</v>
       </c>
-      <c r="I41" s="3">
-        <v>0</v>
-      </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
+        <v>0</v>
+      </c>
+      <c r="M41" s="3">
         <v>100</v>
       </c>
-      <c r="K41" s="3">
-        <v>0</v>
-      </c>
-      <c r="L41" s="3">
-        <v>0</v>
-      </c>
-      <c r="M41" s="3">
-        <v>0</v>
-      </c>
       <c r="N41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3">
+        <v>0</v>
+      </c>
+      <c r="P41" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1869,8 +2138,17 @@
       <c r="N42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1905,59 +2183,77 @@
         <v>0</v>
       </c>
       <c r="N43" s="3">
+        <v>0</v>
+      </c>
+      <c r="O43" s="3">
+        <v>0</v>
+      </c>
+      <c r="P43" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q43" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>0</v>
+      </c>
+      <c r="E44" s="3">
+        <v>0</v>
+      </c>
+      <c r="F44" s="3">
+        <v>0</v>
+      </c>
+      <c r="G44" s="3">
         <v>100</v>
       </c>
-      <c r="E44" s="3">
+      <c r="H44" s="3">
         <v>100</v>
       </c>
-      <c r="F44" s="3">
+      <c r="I44" s="3">
         <v>300</v>
       </c>
-      <c r="G44" s="3">
+      <c r="J44" s="3">
         <v>300</v>
       </c>
-      <c r="H44" s="3">
+      <c r="K44" s="3">
         <v>300</v>
       </c>
-      <c r="I44" s="3">
+      <c r="L44" s="3">
         <v>200</v>
       </c>
-      <c r="J44" s="3">
+      <c r="M44" s="3">
         <v>600</v>
       </c>
-      <c r="K44" s="3">
+      <c r="N44" s="3">
         <v>800</v>
       </c>
-      <c r="L44" s="3">
+      <c r="O44" s="3">
         <v>800</v>
       </c>
-      <c r="M44" s="3">
+      <c r="P44" s="3">
         <v>800</v>
       </c>
-      <c r="N44" s="3">
+      <c r="Q44" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E45" s="3">
         <v>100</v>
       </c>
       <c r="F45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G45" s="3">
         <v>0</v>
@@ -1969,60 +2265,78 @@
         <v>100</v>
       </c>
       <c r="J45" s="3">
+        <v>0</v>
+      </c>
+      <c r="K45" s="3">
+        <v>100</v>
+      </c>
+      <c r="L45" s="3">
+        <v>100</v>
+      </c>
+      <c r="M45" s="3">
         <v>200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="N45" s="3">
         <v>400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="O45" s="3">
         <v>200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="P45" s="3">
         <v>300</v>
       </c>
-      <c r="N45" s="3">
+      <c r="Q45" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="E46" s="3">
         <v>200</v>
       </c>
       <c r="F46" s="3">
+        <v>100</v>
+      </c>
+      <c r="G46" s="3">
+        <v>200</v>
+      </c>
+      <c r="H46" s="3">
+        <v>200</v>
+      </c>
+      <c r="I46" s="3">
         <v>400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="J46" s="3">
         <v>400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="K46" s="3">
         <v>500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="L46" s="3">
         <v>300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="M46" s="3">
         <v>800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="N46" s="3">
         <v>1100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="O46" s="3">
         <v>1100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="P46" s="3">
         <v>1000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="Q46" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2059,22 +2373,31 @@
       <c r="N47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3">
+        <v>0</v>
+      </c>
+      <c r="P47" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>100</v>
+      </c>
+      <c r="E48" s="3">
         <v>200</v>
       </c>
-      <c r="E48" s="3">
-        <v>0</v>
-      </c>
       <c r="F48" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G48" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="H48" s="3">
         <v>0</v>
@@ -2083,22 +2406,31 @@
         <v>0</v>
       </c>
       <c r="J48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M48" s="3">
         <v>100</v>
       </c>
       <c r="N48" s="3">
+        <v>100</v>
+      </c>
+      <c r="O48" s="3">
+        <v>100</v>
+      </c>
+      <c r="P48" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q48" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2135,8 +2467,17 @@
       <c r="N49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3">
+        <v>0</v>
+      </c>
+      <c r="P49" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2173,8 +2514,17 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2211,8 +2561,17 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2232,25 +2591,34 @@
         <v>0</v>
       </c>
       <c r="I52" s="3">
+        <v>0</v>
+      </c>
+      <c r="J52" s="3">
+        <v>0</v>
+      </c>
+      <c r="K52" s="3">
+        <v>0</v>
+      </c>
+      <c r="L52" s="3">
         <v>100</v>
       </c>
-      <c r="J52" s="3">
-        <v>0</v>
-      </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
+        <v>0</v>
+      </c>
+      <c r="N52" s="3">
         <v>300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="O52" s="3">
         <v>300</v>
       </c>
-      <c r="M52" s="3">
+      <c r="P52" s="3">
         <v>300</v>
       </c>
-      <c r="N52" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2287,46 +2655,64 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>400</v>
+        <v>1200</v>
       </c>
       <c r="E54" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="F54" s="3">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="G54" s="3">
         <v>400</v>
       </c>
       <c r="H54" s="3">
+        <v>200</v>
+      </c>
+      <c r="I54" s="3">
         <v>500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
+        <v>500</v>
+      </c>
+      <c r="L54" s="3">
+        <v>400</v>
+      </c>
+      <c r="M54" s="3">
         <v>900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="N54" s="3">
         <v>1500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="O54" s="3">
         <v>1500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="P54" s="3">
         <v>1500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="Q54" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2341,8 +2727,11 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+      <c r="P55" s="3"/>
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2357,8 +2746,11 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+      <c r="P56" s="3"/>
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2366,7 +2758,7 @@
         <v>3000</v>
       </c>
       <c r="E57" s="3">
-        <v>3000</v>
+        <v>3100</v>
       </c>
       <c r="F57" s="3">
         <v>3000</v>
@@ -2384,153 +2776,189 @@
         <v>3000</v>
       </c>
       <c r="K57" s="3">
+        <v>3000</v>
+      </c>
+      <c r="L57" s="3">
+        <v>3000</v>
+      </c>
+      <c r="M57" s="3">
+        <v>3000</v>
+      </c>
+      <c r="N57" s="3">
         <v>2900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="O57" s="3">
         <v>2700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="P57" s="3">
         <v>2600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="Q57" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>5100</v>
+        <v>5300</v>
       </c>
       <c r="E58" s="3">
-        <v>4800</v>
+        <v>5300</v>
       </c>
       <c r="F58" s="3">
-        <v>4600</v>
+        <v>5000</v>
       </c>
       <c r="G58" s="3">
         <v>5100</v>
       </c>
       <c r="H58" s="3">
-        <v>4900</v>
+        <v>4800</v>
       </c>
       <c r="I58" s="3">
         <v>4600</v>
       </c>
       <c r="J58" s="3">
+        <v>5100</v>
+      </c>
+      <c r="K58" s="3">
+        <v>4900</v>
+      </c>
+      <c r="L58" s="3">
         <v>4600</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
+        <v>4600</v>
+      </c>
+      <c r="N58" s="3">
         <v>4500</v>
       </c>
-      <c r="L58" s="3">
+      <c r="O58" s="3">
         <v>4200</v>
       </c>
-      <c r="M58" s="3">
+      <c r="P58" s="3">
         <v>4000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="Q58" s="3">
         <v>3500</v>
       </c>
     </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>3600</v>
+        <v>3400</v>
       </c>
       <c r="E59" s="3">
         <v>3200</v>
       </c>
       <c r="F59" s="3">
+        <v>3700</v>
+      </c>
+      <c r="G59" s="3">
+        <v>3600</v>
+      </c>
+      <c r="H59" s="3">
+        <v>3200</v>
+      </c>
+      <c r="I59" s="3">
         <v>3100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="J59" s="3">
         <v>4500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="K59" s="3">
         <v>4400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="L59" s="3">
         <v>4200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="M59" s="3">
         <v>3800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="N59" s="3">
         <v>3400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="O59" s="3">
         <v>2800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="P59" s="3">
         <v>2700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="Q59" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>12400</v>
+      </c>
+      <c r="E60" s="3">
+        <v>11600</v>
+      </c>
+      <c r="F60" s="3">
         <v>11700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
+        <v>11700</v>
+      </c>
+      <c r="H60" s="3">
         <v>11000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="I60" s="3">
         <v>10700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="J60" s="3">
         <v>12600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="K60" s="3">
         <v>12200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="L60" s="3">
         <v>11800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="M60" s="3">
         <v>11400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="N60" s="3">
         <v>10800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="O60" s="3">
         <v>9700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="P60" s="3">
         <v>9300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="Q60" s="3">
         <v>8500</v>
       </c>
     </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="E61" s="3">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="F61" s="3">
         <v>600</v>
       </c>
       <c r="G61" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="H61" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="I61" s="3">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="J61" s="3">
         <v>0</v>
@@ -2547,46 +2975,64 @@
       <c r="N61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>5100</v>
+      </c>
+      <c r="E62" s="3">
+        <v>6200</v>
+      </c>
+      <c r="F62" s="3">
+        <v>6600</v>
+      </c>
+      <c r="G62" s="3">
         <v>4400</v>
       </c>
-      <c r="E62" s="3">
+      <c r="H62" s="3">
         <v>4700</v>
       </c>
-      <c r="F62" s="3">
+      <c r="I62" s="3">
         <v>3400</v>
       </c>
-      <c r="G62" s="3">
+      <c r="J62" s="3">
         <v>2100</v>
       </c>
-      <c r="H62" s="3">
+      <c r="K62" s="3">
         <v>6300</v>
       </c>
-      <c r="I62" s="3">
+      <c r="L62" s="3">
         <v>8000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="M62" s="3">
         <v>1800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="N62" s="3">
         <v>1100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="O62" s="3">
         <v>800</v>
       </c>
-      <c r="M62" s="3">
+      <c r="P62" s="3">
         <v>1400</v>
       </c>
-      <c r="N62" s="3">
+      <c r="Q62" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2623,8 +3069,17 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2661,8 +3116,17 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2699,46 +3163,64 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>18100</v>
+      </c>
+      <c r="E66" s="3">
+        <v>18400</v>
+      </c>
+      <c r="F66" s="3">
+        <v>18800</v>
+      </c>
+      <c r="G66" s="3">
         <v>16400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="H66" s="3">
         <v>16100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="I66" s="3">
         <v>14700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="J66" s="3">
         <v>14600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="K66" s="3">
         <v>18500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="L66" s="3">
         <v>19800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="M66" s="3">
         <v>13300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="N66" s="3">
         <v>11900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="O66" s="3">
         <v>10500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="P66" s="3">
         <v>10800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="Q66" s="3">
         <v>9400</v>
       </c>
     </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2753,8 +3235,11 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+      <c r="P67" s="3"/>
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2791,8 +3276,17 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2829,8 +3323,17 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2847,28 +3350,37 @@
         <v>800</v>
       </c>
       <c r="H70" s="3">
+        <v>800</v>
+      </c>
+      <c r="I70" s="3">
+        <v>800</v>
+      </c>
+      <c r="J70" s="3">
+        <v>800</v>
+      </c>
+      <c r="K70" s="3">
         <v>1000</v>
       </c>
-      <c r="I70" s="3">
+      <c r="L70" s="3">
         <v>1100</v>
       </c>
-      <c r="J70" s="3">
+      <c r="M70" s="3">
         <v>1100</v>
       </c>
-      <c r="K70" s="3">
+      <c r="N70" s="3">
         <v>1200</v>
       </c>
-      <c r="L70" s="3">
+      <c r="O70" s="3">
         <v>1200</v>
       </c>
-      <c r="M70" s="3">
+      <c r="P70" s="3">
         <v>1300</v>
       </c>
-      <c r="N70" s="3">
+      <c r="Q70" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2905,46 +3417,64 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-139600</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-140600</v>
+      </c>
+      <c r="F72" s="3">
+        <v>-140500</v>
+      </c>
+      <c r="G72" s="3">
         <v>-137900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="H72" s="3">
         <v>-137600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="I72" s="3">
         <v>-134900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="J72" s="3">
         <v>-134100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="K72" s="3">
         <v>-137500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="L72" s="3">
         <v>-138500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="M72" s="3">
         <v>-131300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="N72" s="3">
         <v>-128900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="O72" s="3">
         <v>-127800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="P72" s="3">
         <v>-127600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="Q72" s="3">
         <v>-125500</v>
       </c>
     </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2981,8 +3511,17 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3019,8 +3558,17 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3057,46 +3605,64 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-17700</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-18800</v>
+      </c>
+      <c r="F76" s="3">
+        <v>-19400</v>
+      </c>
+      <c r="G76" s="3">
         <v>-16800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="H76" s="3">
         <v>-16600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="I76" s="3">
         <v>-15000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="J76" s="3">
         <v>-15000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="K76" s="3">
         <v>-18900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="L76" s="3">
         <v>-20500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="M76" s="3">
         <v>-13500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="N76" s="3">
         <v>-11500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="O76" s="3">
         <v>-10300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="P76" s="3">
         <v>-10600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="Q76" s="3">
         <v>-8700</v>
       </c>
     </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3133,89 +3699,116 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43738</v>
+      </c>
+      <c r="F80" s="2">
+        <v>43646</v>
+      </c>
+      <c r="G80" s="2">
         <v>43555</v>
       </c>
-      <c r="E80" s="2">
+      <c r="H80" s="2">
         <v>43465</v>
       </c>
-      <c r="F80" s="2">
+      <c r="I80" s="2">
         <v>43373</v>
       </c>
-      <c r="G80" s="2">
+      <c r="J80" s="2">
         <v>43281</v>
       </c>
-      <c r="H80" s="2">
+      <c r="K80" s="2">
         <v>43190</v>
       </c>
-      <c r="I80" s="2">
+      <c r="L80" s="2">
         <v>43100</v>
       </c>
-      <c r="J80" s="2">
+      <c r="M80" s="2">
         <v>43008</v>
       </c>
-      <c r="K80" s="2">
+      <c r="N80" s="2">
         <v>42916</v>
       </c>
-      <c r="L80" s="2">
+      <c r="O80" s="2">
         <v>42825</v>
       </c>
-      <c r="M80" s="2">
+      <c r="P80" s="2">
         <v>42735</v>
       </c>
-      <c r="N80" s="2">
+      <c r="Q80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
+      <c r="D81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F81" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="G81" s="3">
         <v>-200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="H81" s="3">
         <v>-2800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="I81" s="3">
         <v>-800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="J81" s="3">
         <v>3400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="K81" s="3">
         <v>1000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="L81" s="3">
         <v>-7200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="M81" s="3">
         <v>-2400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="N81" s="3">
         <v>-1100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="O81" s="3">
         <v>-200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="P81" s="3">
         <v>-2100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="Q81" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3230,8 +3823,11 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+      <c r="P82" s="3"/>
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3251,25 +3847,34 @@
         <v>0</v>
       </c>
       <c r="I83" s="3">
+        <v>0</v>
+      </c>
+      <c r="J83" s="3">
+        <v>0</v>
+      </c>
+      <c r="K83" s="3">
+        <v>0</v>
+      </c>
+      <c r="L83" s="3">
         <v>100</v>
       </c>
-      <c r="J83" s="3">
-        <v>0</v>
-      </c>
-      <c r="K83" s="3">
-        <v>0</v>
-      </c>
-      <c r="L83" s="3">
-        <v>0</v>
-      </c>
       <c r="M83" s="3">
+        <v>0</v>
+      </c>
+      <c r="N83" s="3">
+        <v>0</v>
+      </c>
+      <c r="O83" s="3">
+        <v>0</v>
+      </c>
+      <c r="P83" s="3">
         <v>100</v>
       </c>
-      <c r="N83" s="3">
+      <c r="Q83" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3306,8 +3911,17 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3344,8 +3958,17 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3382,8 +4005,17 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3420,8 +4052,17 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3458,8 +4099,17 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -3467,37 +4117,46 @@
         <v>-200</v>
       </c>
       <c r="E89" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="F89" s="3">
-        <v>-400</v>
+        <v>-200</v>
       </c>
       <c r="G89" s="3">
         <v>-200</v>
       </c>
       <c r="H89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="I89" s="3">
         <v>-400</v>
-      </c>
-      <c r="I89" s="3">
-        <v>-700</v>
       </c>
       <c r="J89" s="3">
         <v>-200</v>
       </c>
       <c r="K89" s="3">
-        <v>100</v>
+        <v>-400</v>
       </c>
       <c r="L89" s="3">
-        <v>-400</v>
+        <v>-700</v>
       </c>
       <c r="M89" s="3">
         <v>-200</v>
       </c>
       <c r="N89" s="3">
+        <v>100</v>
+      </c>
+      <c r="O89" s="3">
+        <v>-400</v>
+      </c>
+      <c r="P89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Q89" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3512,8 +4171,11 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+      <c r="P90" s="3"/>
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3550,8 +4212,17 @@
       <c r="N91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3">
+        <v>0</v>
+      </c>
+      <c r="P91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3588,8 +4259,17 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3626,8 +4306,17 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3664,8 +4353,17 @@
       <c r="N94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3">
+        <v>0</v>
+      </c>
+      <c r="P94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3680,8 +4378,11 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+      <c r="P95" s="3"/>
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3718,8 +4419,17 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3756,8 +4466,17 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3794,8 +4513,17 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3832,46 +4560,64 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>200</v>
+        <v>1100</v>
       </c>
       <c r="E100" s="3">
         <v>200</v>
       </c>
       <c r="F100" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="G100" s="3">
         <v>200</v>
       </c>
       <c r="H100" s="3">
+        <v>200</v>
+      </c>
+      <c r="I100" s="3">
+        <v>400</v>
+      </c>
+      <c r="J100" s="3">
+        <v>200</v>
+      </c>
+      <c r="K100" s="3">
         <v>500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="L100" s="3">
         <v>600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="M100" s="3">
         <v>300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="N100" s="3">
         <v>-100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="O100" s="3">
         <v>400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="P100" s="3">
         <v>200</v>
       </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3908,42 +4654,60 @@
       <c r="N101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>0</v>
+        <v>900</v>
       </c>
       <c r="E102" s="3">
+        <v>0</v>
+      </c>
+      <c r="F102" s="3">
+        <v>0</v>
+      </c>
+      <c r="G102" s="3">
+        <v>0</v>
+      </c>
+      <c r="H102" s="3">
         <v>-100</v>
       </c>
-      <c r="F102" s="3">
-        <v>0</v>
-      </c>
-      <c r="G102" s="3">
-        <v>0</v>
-      </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
+        <v>0</v>
+      </c>
+      <c r="J102" s="3">
+        <v>0</v>
+      </c>
+      <c r="K102" s="3">
         <v>100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="L102" s="3">
         <v>-100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="M102" s="3">
         <v>100</v>
       </c>
-      <c r="K102" s="3">
-        <v>0</v>
-      </c>
-      <c r="L102" s="3">
-        <v>0</v>
-      </c>
-      <c r="M102" s="3">
-        <v>0</v>
-      </c>
       <c r="N102" s="3">
+        <v>0</v>
+      </c>
+      <c r="O102" s="3">
+        <v>0</v>
+      </c>
+      <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/GTHP_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GTHP_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="92">
   <si>
     <t>GTHP</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,77 +665,85 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43008</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42916</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42825</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42735</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -764,7 +772,7 @@
         <v>0</v>
       </c>
       <c r="L8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M8" s="3">
         <v>0</v>
@@ -779,10 +787,16 @@
         <v>100</v>
       </c>
       <c r="Q8" s="3">
+        <v>0</v>
+      </c>
+      <c r="R8" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S8" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -793,43 +807,49 @@
         <v>4</v>
       </c>
       <c r="F9" s="3">
-        <v>100</v>
-      </c>
-      <c r="G9" s="3">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H9" s="3">
         <v>100</v>
       </c>
-      <c r="I9" s="3" t="s">
+      <c r="I9" s="3">
+        <v>0</v>
+      </c>
+      <c r="J9" s="3">
+        <v>100</v>
+      </c>
+      <c r="K9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J9" s="3">
-        <v>0</v>
-      </c>
-      <c r="K9" s="3">
-        <v>0</v>
-      </c>
       <c r="L9" s="3">
+        <v>0</v>
+      </c>
+      <c r="M9" s="3">
+        <v>0</v>
+      </c>
+      <c r="N9" s="3">
         <v>300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>100</v>
       </c>
-      <c r="O9" s="3">
-        <v>0</v>
-      </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
+        <v>0</v>
+      </c>
+      <c r="R9" s="3">
         <v>300</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -840,43 +860,49 @@
         <v>4</v>
       </c>
       <c r="F10" s="3">
-        <v>-100</v>
-      </c>
-      <c r="G10" s="3">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H10" s="3">
         <v>-100</v>
       </c>
-      <c r="I10" s="3" t="s">
+      <c r="I10" s="3">
+        <v>0</v>
+      </c>
+      <c r="J10" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J10" s="3">
-        <v>0</v>
-      </c>
-      <c r="K10" s="3">
-        <v>0</v>
-      </c>
       <c r="L10" s="3">
+        <v>0</v>
+      </c>
+      <c r="M10" s="3">
+        <v>0</v>
+      </c>
+      <c r="N10" s="3">
         <v>-200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>-100</v>
       </c>
-      <c r="N10" s="3">
-        <v>0</v>
-      </c>
-      <c r="O10" s="3">
-        <v>0</v>
-      </c>
       <c r="P10" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="3">
+        <v>0</v>
+      </c>
+      <c r="R10" s="3">
         <v>-200</v>
       </c>
-      <c r="Q10" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -894,13 +920,15 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E12" s="3">
         <v>0</v>
@@ -912,7 +940,7 @@
         <v>0</v>
       </c>
       <c r="H12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I12" s="3">
         <v>0</v>
@@ -921,7 +949,7 @@
         <v>100</v>
       </c>
       <c r="K12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L12" s="3">
         <v>100</v>
@@ -936,13 +964,19 @@
         <v>100</v>
       </c>
       <c r="P12" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Q12" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3">
+        <v>200</v>
+      </c>
+      <c r="S12" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -988,34 +1022,40 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E14" s="3">
         <v>0</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G14" s="3" t="s">
+      <c r="I14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>-1000</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>4</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>4</v>
@@ -1023,11 +1063,11 @@
       <c r="M14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
-      <c r="O14" s="3">
-        <v>0</v>
+      <c r="N14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P14" s="3">
         <v>0</v>
@@ -1035,8 +1075,14 @@
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1082,8 +1128,14 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1098,55 +1150,63 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>4</v>
+      <c r="D17" s="3">
+        <v>700</v>
       </c>
       <c r="E17" s="3">
         <v>200</v>
       </c>
       <c r="F17" s="3">
+        <v>200</v>
+      </c>
+      <c r="G17" s="3">
+        <v>200</v>
+      </c>
+      <c r="H17" s="3">
         <v>300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>300</v>
-      </c>
-      <c r="H17" s="3">
-        <v>500</v>
-      </c>
-      <c r="I17" s="3">
-        <v>-800</v>
       </c>
       <c r="J17" s="3">
         <v>500</v>
       </c>
       <c r="K17" s="3">
+        <v>-800</v>
+      </c>
+      <c r="L17" s="3">
+        <v>500</v>
+      </c>
+      <c r="M17" s="3">
         <v>400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>1400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>1200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1157,43 +1217,49 @@
         <v>-200</v>
       </c>
       <c r="F18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="H18" s="3">
         <v>-300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-300</v>
-      </c>
-      <c r="H18" s="3">
-        <v>-500</v>
-      </c>
-      <c r="I18" s="3">
-        <v>800</v>
       </c>
       <c r="J18" s="3">
         <v>-500</v>
       </c>
       <c r="K18" s="3">
+        <v>800</v>
+      </c>
+      <c r="L18" s="3">
+        <v>-500</v>
+      </c>
+      <c r="M18" s="3">
         <v>-400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-1400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1211,8 +1277,10 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1220,46 +1288,52 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
-        <v>400</v>
+        <v>3200</v>
       </c>
       <c r="F20" s="3">
-        <v>-2100</v>
+        <v>1700</v>
       </c>
       <c r="G20" s="3">
         <v>400</v>
       </c>
       <c r="H20" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="I20" s="3">
+        <v>400</v>
+      </c>
+      <c r="J20" s="3">
         <v>-1300</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>-1300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>4200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>1700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>-6100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>-700</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>-200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>600</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>-600</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1267,69 +1341,75 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>3000</v>
+      </c>
+      <c r="F21" s="3">
+        <v>1500</v>
+      </c>
+      <c r="G21" s="3">
         <v>300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-2400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-1800</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>3700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>1300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-6700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-2100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>-700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>-1600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>300</v>
+      </c>
+      <c r="E22" s="3">
+        <v>300</v>
+      </c>
+      <c r="F22" s="3">
         <v>400</v>
-      </c>
-      <c r="E22" s="3">
-        <v>400</v>
-      </c>
-      <c r="F22" s="3">
-        <v>300</v>
       </c>
       <c r="G22" s="3">
         <v>400</v>
       </c>
       <c r="H22" s="3">
+        <v>300</v>
+      </c>
+      <c r="I22" s="3">
+        <v>400</v>
+      </c>
+      <c r="J22" s="3">
         <v>1000</v>
-      </c>
-      <c r="I22" s="3">
-        <v>200</v>
-      </c>
-      <c r="J22" s="3">
-        <v>300</v>
       </c>
       <c r="K22" s="3">
         <v>200</v>
@@ -1338,13 +1418,13 @@
         <v>300</v>
       </c>
       <c r="M22" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N22" s="3">
         <v>300</v>
       </c>
       <c r="O22" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="P22" s="3">
         <v>300</v>
@@ -1352,55 +1432,67 @@
       <c r="Q22" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3">
+        <v>300</v>
+      </c>
+      <c r="S22" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-6700</v>
+      </c>
+      <c r="E23" s="3">
+        <v>2700</v>
+      </c>
+      <c r="F23" s="3">
         <v>1100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-100</v>
-      </c>
-      <c r="F23" s="3">
-        <v>-2700</v>
-      </c>
-      <c r="G23" s="3">
-        <v>-200</v>
       </c>
       <c r="H23" s="3">
         <v>-2700</v>
       </c>
       <c r="I23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J23" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="K23" s="3">
         <v>-700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>3400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>1100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-7200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-2400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-1100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-2000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1446,8 +1538,14 @@
       <c r="Q24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1493,102 +1591,120 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>4</v>
+      <c r="D26" s="3">
+        <v>-6700</v>
       </c>
       <c r="E26" s="3">
+        <v>2700</v>
+      </c>
+      <c r="F26" s="3">
+        <v>1100</v>
+      </c>
+      <c r="G26" s="3">
         <v>-100</v>
-      </c>
-      <c r="F26" s="3">
-        <v>-2700</v>
-      </c>
-      <c r="G26" s="3">
-        <v>-200</v>
       </c>
       <c r="H26" s="3">
         <v>-2700</v>
       </c>
       <c r="I26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J26" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="K26" s="3">
         <v>-700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>3400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>1100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-7200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-2400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-1100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-2000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>4</v>
+      <c r="D27" s="3">
+        <v>-6800</v>
       </c>
       <c r="E27" s="3">
+        <v>2700</v>
+      </c>
+      <c r="F27" s="3">
+        <v>1100</v>
+      </c>
+      <c r="G27" s="3">
         <v>-100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-2700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-2800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>3400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>1000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-7200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-2400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-1100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-2100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1634,8 +1750,14 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1681,8 +1803,14 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1728,8 +1856,14 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1775,8 +1909,14 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1784,93 +1924,105 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
-        <v>-400</v>
+        <v>-3200</v>
       </c>
       <c r="F32" s="3">
-        <v>2100</v>
+        <v>-1700</v>
       </c>
       <c r="G32" s="3">
         <v>-400</v>
       </c>
       <c r="H32" s="3">
+        <v>2100</v>
+      </c>
+      <c r="I32" s="3">
+        <v>-400</v>
+      </c>
+      <c r="J32" s="3">
         <v>1300</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>1300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-4200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-1700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>6100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>700</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>-600</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>600</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>4</v>
+      <c r="D33" s="3">
+        <v>-6800</v>
       </c>
       <c r="E33" s="3">
+        <v>2700</v>
+      </c>
+      <c r="F33" s="3">
+        <v>1100</v>
+      </c>
+      <c r="G33" s="3">
         <v>-100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-2700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-2800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>3400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>1000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-7200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-2400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-1100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-2100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1916,107 +2068,125 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>4</v>
+      <c r="D35" s="3">
+        <v>-6800</v>
       </c>
       <c r="E35" s="3">
+        <v>2700</v>
+      </c>
+      <c r="F35" s="3">
+        <v>1100</v>
+      </c>
+      <c r="G35" s="3">
         <v>-100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-2700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-2800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>3400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>1000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-7200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-2400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-1100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-2100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43008</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42916</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42825</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42735</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2034,8 +2204,10 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2053,20 +2225,22 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>800</v>
+      </c>
+      <c r="E41" s="3">
+        <v>0</v>
+      </c>
+      <c r="F41" s="3">
         <v>900</v>
       </c>
-      <c r="E41" s="3">
-        <v>0</v>
-      </c>
-      <c r="F41" s="3">
-        <v>0</v>
-      </c>
       <c r="G41" s="3">
         <v>0</v>
       </c>
@@ -2074,7 +2248,7 @@
         <v>0</v>
       </c>
       <c r="I41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J41" s="3">
         <v>0</v>
@@ -2092,7 +2266,7 @@
         <v>0</v>
       </c>
       <c r="O41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P41" s="3">
         <v>0</v>
@@ -2100,8 +2274,14 @@
       <c r="Q41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R41" s="3">
+        <v>0</v>
+      </c>
+      <c r="S41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2147,8 +2327,14 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2156,7 +2342,7 @@
         <v>0</v>
       </c>
       <c r="E43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F43" s="3">
         <v>0</v>
@@ -2192,151 +2378,175 @@
         <v>0</v>
       </c>
       <c r="Q43" s="3">
+        <v>0</v>
+      </c>
+      <c r="R43" s="3">
+        <v>0</v>
+      </c>
+      <c r="S43" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E44" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F44" s="3">
         <v>0</v>
       </c>
       <c r="G44" s="3">
+        <v>0</v>
+      </c>
+      <c r="H44" s="3">
+        <v>0</v>
+      </c>
+      <c r="I44" s="3">
         <v>100</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>100</v>
-      </c>
-      <c r="I44" s="3">
-        <v>300</v>
-      </c>
-      <c r="J44" s="3">
-        <v>300</v>
       </c>
       <c r="K44" s="3">
         <v>300</v>
       </c>
       <c r="L44" s="3">
+        <v>300</v>
+      </c>
+      <c r="M44" s="3">
+        <v>300</v>
+      </c>
+      <c r="N44" s="3">
         <v>200</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>600</v>
-      </c>
-      <c r="N44" s="3">
-        <v>800</v>
-      </c>
-      <c r="O44" s="3">
-        <v>800</v>
       </c>
       <c r="P44" s="3">
         <v>800</v>
       </c>
       <c r="Q44" s="3">
+        <v>800</v>
+      </c>
+      <c r="R44" s="3">
+        <v>800</v>
+      </c>
+      <c r="S44" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>0</v>
+      </c>
+      <c r="E45" s="3">
+        <v>0</v>
+      </c>
+      <c r="F45" s="3">
         <v>100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>100</v>
       </c>
-      <c r="F45" s="3">
-        <v>0</v>
-      </c>
-      <c r="G45" s="3">
-        <v>0</v>
-      </c>
       <c r="H45" s="3">
+        <v>0</v>
+      </c>
+      <c r="I45" s="3">
+        <v>0</v>
+      </c>
+      <c r="J45" s="3">
         <v>100</v>
-      </c>
-      <c r="I45" s="3">
-        <v>100</v>
-      </c>
-      <c r="J45" s="3">
-        <v>0</v>
       </c>
       <c r="K45" s="3">
         <v>100</v>
       </c>
       <c r="L45" s="3">
+        <v>0</v>
+      </c>
+      <c r="M45" s="3">
         <v>100</v>
       </c>
-      <c r="M45" s="3">
-        <v>200</v>
-      </c>
       <c r="N45" s="3">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="O45" s="3">
         <v>200</v>
       </c>
       <c r="P45" s="3">
+        <v>400</v>
+      </c>
+      <c r="Q45" s="3">
+        <v>200</v>
+      </c>
+      <c r="R45" s="3">
         <v>300</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="E46" s="3">
         <v>200</v>
       </c>
       <c r="F46" s="3">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="G46" s="3">
         <v>200</v>
       </c>
       <c r="H46" s="3">
+        <v>100</v>
+      </c>
+      <c r="I46" s="3">
         <v>200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
+        <v>200</v>
+      </c>
+      <c r="K46" s="3">
         <v>400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>1100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>1100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>1000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2382,8 +2592,14 @@
       <c r="Q47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2391,19 +2607,19 @@
         <v>100</v>
       </c>
       <c r="E48" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F48" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G48" s="3">
         <v>200</v>
       </c>
       <c r="H48" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="I48" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="J48" s="3">
         <v>0</v>
@@ -2415,10 +2631,10 @@
         <v>0</v>
       </c>
       <c r="M48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O48" s="3">
         <v>100</v>
@@ -2427,10 +2643,16 @@
         <v>100</v>
       </c>
       <c r="Q48" s="3">
+        <v>100</v>
+      </c>
+      <c r="R48" s="3">
+        <v>100</v>
+      </c>
+      <c r="S48" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2476,8 +2698,14 @@
       <c r="Q49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2523,8 +2751,14 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2570,8 +2804,14 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2600,25 +2840,31 @@
         <v>0</v>
       </c>
       <c r="L52" s="3">
+        <v>0</v>
+      </c>
+      <c r="M52" s="3">
+        <v>0</v>
+      </c>
+      <c r="N52" s="3">
         <v>100</v>
       </c>
-      <c r="M52" s="3">
-        <v>0</v>
-      </c>
-      <c r="N52" s="3">
-        <v>300</v>
-      </c>
       <c r="O52" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="P52" s="3">
         <v>300</v>
       </c>
       <c r="Q52" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+        <v>300</v>
+      </c>
+      <c r="R52" s="3">
+        <v>300</v>
+      </c>
+      <c r="S52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2664,31 +2910,37 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>900</v>
+      </c>
+      <c r="E54" s="3">
+        <v>400</v>
+      </c>
+      <c r="F54" s="3">
         <v>1200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>200</v>
-      </c>
-      <c r="I54" s="3">
-        <v>500</v>
-      </c>
-      <c r="J54" s="3">
-        <v>400</v>
       </c>
       <c r="K54" s="3">
         <v>500</v>
@@ -2697,22 +2949,28 @@
         <v>400</v>
       </c>
       <c r="M54" s="3">
+        <v>500</v>
+      </c>
+      <c r="N54" s="3">
+        <v>400</v>
+      </c>
+      <c r="O54" s="3">
         <v>900</v>
-      </c>
-      <c r="N54" s="3">
-        <v>1500</v>
-      </c>
-      <c r="O54" s="3">
-        <v>1500</v>
       </c>
       <c r="P54" s="3">
         <v>1500</v>
       </c>
       <c r="Q54" s="3">
+        <v>1500</v>
+      </c>
+      <c r="R54" s="3">
+        <v>1500</v>
+      </c>
+      <c r="S54" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2730,8 +2988,10 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2749,22 +3009,24 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E57" s="3">
         <v>3000</v>
-      </c>
-      <c r="E57" s="3">
-        <v>3100</v>
       </c>
       <c r="F57" s="3">
         <v>3000</v>
       </c>
       <c r="G57" s="3">
-        <v>3000</v>
+        <v>3100</v>
       </c>
       <c r="H57" s="3">
         <v>3000</v>
@@ -2785,187 +3047,211 @@
         <v>3000</v>
       </c>
       <c r="N57" s="3">
+        <v>3000</v>
+      </c>
+      <c r="O57" s="3">
+        <v>3000</v>
+      </c>
+      <c r="P57" s="3">
         <v>2900</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>2700</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>2600</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E58" s="3">
+        <v>3100</v>
+      </c>
+      <c r="F58" s="3">
         <v>5300</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>5300</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>5000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>5100</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>4800</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>4600</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>5100</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>4900</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>4600</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>4600</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>4500</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>4200</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>4000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>3500</v>
       </c>
     </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E59" s="3">
+        <v>3100</v>
+      </c>
+      <c r="F59" s="3">
+        <v>4100</v>
+      </c>
+      <c r="G59" s="3">
+        <v>3200</v>
+      </c>
+      <c r="H59" s="3">
+        <v>3700</v>
+      </c>
+      <c r="I59" s="3">
+        <v>3600</v>
+      </c>
+      <c r="J59" s="3">
+        <v>3200</v>
+      </c>
+      <c r="K59" s="3">
+        <v>3100</v>
+      </c>
+      <c r="L59" s="3">
+        <v>4500</v>
+      </c>
+      <c r="M59" s="3">
+        <v>4400</v>
+      </c>
+      <c r="N59" s="3">
+        <v>4200</v>
+      </c>
+      <c r="O59" s="3">
+        <v>3800</v>
+      </c>
+      <c r="P59" s="3">
         <v>3400</v>
       </c>
-      <c r="E59" s="3">
-        <v>3200</v>
-      </c>
-      <c r="F59" s="3">
-        <v>3700</v>
-      </c>
-      <c r="G59" s="3">
-        <v>3600</v>
-      </c>
-      <c r="H59" s="3">
-        <v>3200</v>
-      </c>
-      <c r="I59" s="3">
-        <v>3100</v>
-      </c>
-      <c r="J59" s="3">
-        <v>4500</v>
-      </c>
-      <c r="K59" s="3">
-        <v>4400</v>
-      </c>
-      <c r="L59" s="3">
-        <v>4200</v>
-      </c>
-      <c r="M59" s="3">
-        <v>3800</v>
-      </c>
-      <c r="N59" s="3">
-        <v>3400</v>
-      </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>2800</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>2700</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>8600</v>
+      </c>
+      <c r="E60" s="3">
+        <v>9200</v>
+      </c>
+      <c r="F60" s="3">
         <v>12400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>11600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>11700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>11700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>11000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>10700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>12600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>12200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>11800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>11400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>10800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>9700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>9300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>8500</v>
       </c>
     </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>600</v>
+        <v>1200</v>
       </c>
       <c r="E61" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="F61" s="3">
         <v>600</v>
       </c>
       <c r="G61" s="3">
+        <v>600</v>
+      </c>
+      <c r="H61" s="3">
+        <v>600</v>
+      </c>
+      <c r="I61" s="3">
         <v>300</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>300</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>600</v>
       </c>
-      <c r="J61" s="3">
-        <v>0</v>
-      </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
       <c r="L61" s="3">
         <v>0</v>
       </c>
@@ -2984,55 +3270,67 @@
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>7600</v>
+      </c>
+      <c r="E62" s="3">
+        <v>1800</v>
+      </c>
+      <c r="F62" s="3">
         <v>5100</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>6200</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>6600</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>4400</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>4700</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>3400</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>2100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>6300</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>8000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>1800</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>1100</v>
-      </c>
-      <c r="O62" s="3">
-        <v>800</v>
-      </c>
-      <c r="P62" s="3">
-        <v>1400</v>
       </c>
       <c r="Q62" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3">
+        <v>1400</v>
+      </c>
+      <c r="S62" s="3">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3078,8 +3376,14 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3125,8 +3429,14 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3172,55 +3482,67 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>17400</v>
+      </c>
+      <c r="E66" s="3">
+        <v>11700</v>
+      </c>
+      <c r="F66" s="3">
         <v>18100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>18400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>18800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>16400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>16100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>14700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>14600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>18500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>19800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>13300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>11900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>10500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>10800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>9400</v>
       </c>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3238,8 +3560,10 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3285,8 +3609,14 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3332,16 +3662,22 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>800</v>
+        <v>1900</v>
       </c>
       <c r="E70" s="3">
-        <v>800</v>
+        <v>1100</v>
       </c>
       <c r="F70" s="3">
         <v>800</v>
@@ -3359,28 +3695,34 @@
         <v>800</v>
       </c>
       <c r="K70" s="3">
+        <v>800</v>
+      </c>
+      <c r="L70" s="3">
+        <v>800</v>
+      </c>
+      <c r="M70" s="3">
         <v>1000</v>
       </c>
-      <c r="L70" s="3">
+      <c r="N70" s="3">
         <v>1100</v>
       </c>
-      <c r="M70" s="3">
+      <c r="O70" s="3">
         <v>1100</v>
       </c>
-      <c r="N70" s="3">
+      <c r="P70" s="3">
         <v>1200</v>
       </c>
-      <c r="O70" s="3">
+      <c r="Q70" s="3">
         <v>1200</v>
       </c>
-      <c r="P70" s="3">
+      <c r="R70" s="3">
         <v>1300</v>
       </c>
-      <c r="Q70" s="3">
+      <c r="S70" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3426,55 +3768,67 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-143600</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-136800</v>
+      </c>
+      <c r="F72" s="3">
         <v>-139600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-140600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-140500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-137900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-137600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-134900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-134100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-137500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-138500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-131300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-128900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-127800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-127600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-125500</v>
       </c>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3520,8 +3874,14 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3567,8 +3927,14 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3614,55 +3980,67 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-18400</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-12400</v>
+      </c>
+      <c r="F76" s="3">
         <v>-17700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>-18800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>-19400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>-16800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>-16600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>-15000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>-15000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>-18900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>-20500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>-13500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>-11500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>-10300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>-10600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>-8700</v>
       </c>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3708,107 +4086,125 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43008</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42916</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42825</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42735</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>4</v>
+      <c r="D81" s="3">
+        <v>-6800</v>
       </c>
       <c r="E81" s="3">
+        <v>2700</v>
+      </c>
+      <c r="F81" s="3">
+        <v>1100</v>
+      </c>
+      <c r="G81" s="3">
         <v>-100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-2700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-2800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>3400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>1000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-7200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-2400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-1100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-2100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3826,8 +4222,10 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3856,25 +4254,31 @@
         <v>0</v>
       </c>
       <c r="L83" s="3">
+        <v>0</v>
+      </c>
+      <c r="M83" s="3">
+        <v>0</v>
+      </c>
+      <c r="N83" s="3">
         <v>100</v>
       </c>
-      <c r="M83" s="3">
-        <v>0</v>
-      </c>
-      <c r="N83" s="3">
-        <v>0</v>
-      </c>
       <c r="O83" s="3">
         <v>0</v>
       </c>
       <c r="P83" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+      <c r="R83" s="3">
         <v>100</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="S83" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3920,8 +4324,14 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3967,8 +4377,14 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4014,8 +4430,14 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4061,8 +4483,14 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4108,16 +4536,22 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-200</v>
+        <v>-400</v>
       </c>
       <c r="E89" s="3">
-        <v>-200</v>
+        <v>-500</v>
       </c>
       <c r="F89" s="3">
         <v>-200</v>
@@ -4126,37 +4560,43 @@
         <v>-200</v>
       </c>
       <c r="H89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J89" s="3">
         <v>-300</v>
-      </c>
-      <c r="I89" s="3">
-        <v>-400</v>
-      </c>
-      <c r="J89" s="3">
-        <v>-200</v>
       </c>
       <c r="K89" s="3">
         <v>-400</v>
       </c>
       <c r="L89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M89" s="3">
+        <v>-400</v>
+      </c>
+      <c r="N89" s="3">
         <v>-700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>-400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>-200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4174,8 +4614,10 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4221,8 +4663,14 @@
       <c r="Q91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4268,8 +4716,14 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4315,8 +4769,14 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4362,8 +4822,14 @@
       <c r="Q94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R94" s="3">
+        <v>0</v>
+      </c>
+      <c r="S94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4381,8 +4847,10 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4428,8 +4896,14 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4475,8 +4949,14 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4522,8 +5002,14 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4569,19 +5055,25 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F100" s="3">
         <v>1100</v>
-      </c>
-      <c r="E100" s="3">
-        <v>200</v>
-      </c>
-      <c r="F100" s="3">
-        <v>200</v>
       </c>
       <c r="G100" s="3">
         <v>200</v>
@@ -4590,34 +5082,40 @@
         <v>200</v>
       </c>
       <c r="I100" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="J100" s="3">
         <v>200</v>
       </c>
       <c r="K100" s="3">
+        <v>400</v>
+      </c>
+      <c r="L100" s="3">
+        <v>200</v>
+      </c>
+      <c r="M100" s="3">
         <v>500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>-100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>400</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>200</v>
       </c>
-      <c r="Q100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="S100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4663,51 +5161,63 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>700</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-900</v>
+      </c>
+      <c r="F102" s="3">
         <v>900</v>
       </c>
-      <c r="E102" s="3">
-        <v>0</v>
-      </c>
-      <c r="F102" s="3">
-        <v>0</v>
-      </c>
       <c r="G102" s="3">
         <v>0</v>
       </c>
       <c r="H102" s="3">
+        <v>0</v>
+      </c>
+      <c r="I102" s="3">
+        <v>0</v>
+      </c>
+      <c r="J102" s="3">
         <v>-100</v>
       </c>
-      <c r="I102" s="3">
-        <v>0</v>
-      </c>
-      <c r="J102" s="3">
-        <v>0</v>
-      </c>
       <c r="K102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M102" s="3">
         <v>100</v>
       </c>
       <c r="N102" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P102" s="3">
         <v>0</v>
       </c>
       <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/GTHP_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GTHP_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="92">
   <si>
     <t>GTHP</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,90 +665,94 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43008</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42916</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42825</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42735</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>4</v>
+      <c r="D8" s="3">
+        <v>100</v>
       </c>
       <c r="E8" s="3">
         <v>0</v>
@@ -778,131 +782,140 @@
         <v>0</v>
       </c>
       <c r="N8" s="3">
+        <v>0</v>
+      </c>
+      <c r="O8" s="3">
         <v>100</v>
       </c>
-      <c r="O8" s="3">
-        <v>0</v>
-      </c>
       <c r="P8" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="3">
         <v>100</v>
       </c>
-      <c r="Q8" s="3">
-        <v>0</v>
-      </c>
       <c r="R8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S8" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T8" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
         <v>0</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="3">
+        <v>0</v>
+      </c>
+      <c r="F9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F9" s="3">
-        <v>0</v>
-      </c>
-      <c r="G9" s="3" t="s">
+      <c r="G9" s="3">
+        <v>0</v>
+      </c>
+      <c r="H9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>100</v>
       </c>
-      <c r="I9" s="3">
-        <v>0</v>
-      </c>
       <c r="J9" s="3">
+        <v>0</v>
+      </c>
+      <c r="K9" s="3">
         <v>100</v>
       </c>
-      <c r="K9" s="3" t="s">
+      <c r="L9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L9" s="3">
-        <v>0</v>
-      </c>
       <c r="M9" s="3">
         <v>0</v>
       </c>
       <c r="N9" s="3">
+        <v>0</v>
+      </c>
+      <c r="O9" s="3">
         <v>300</v>
-      </c>
-      <c r="O9" s="3">
-        <v>100</v>
       </c>
       <c r="P9" s="3">
         <v>100</v>
       </c>
       <c r="Q9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R9" s="3">
+        <v>0</v>
+      </c>
+      <c r="S9" s="3">
         <v>300</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="3">
+        <v>100</v>
+      </c>
+      <c r="E10" s="3">
+        <v>0</v>
+      </c>
+      <c r="F10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="G10" s="3">
+        <v>0</v>
+      </c>
+      <c r="H10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F10" s="3">
-        <v>0</v>
-      </c>
-      <c r="G10" s="3" t="s">
+      <c r="I10" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J10" s="3">
+        <v>0</v>
+      </c>
+      <c r="K10" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H10" s="3">
+      <c r="M10" s="3">
+        <v>0</v>
+      </c>
+      <c r="N10" s="3">
+        <v>0</v>
+      </c>
+      <c r="O10" s="3">
+        <v>-200</v>
+      </c>
+      <c r="P10" s="3">
         <v>-100</v>
       </c>
-      <c r="I10" s="3">
-        <v>0</v>
-      </c>
-      <c r="J10" s="3">
-        <v>-100</v>
-      </c>
-      <c r="K10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L10" s="3">
-        <v>0</v>
-      </c>
-      <c r="M10" s="3">
-        <v>0</v>
-      </c>
-      <c r="N10" s="3">
+      <c r="Q10" s="3">
+        <v>0</v>
+      </c>
+      <c r="R10" s="3">
+        <v>0</v>
+      </c>
+      <c r="S10" s="3">
         <v>-200</v>
       </c>
-      <c r="O10" s="3">
-        <v>-100</v>
-      </c>
-      <c r="P10" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="3">
-        <v>0</v>
-      </c>
-      <c r="R10" s="3">
-        <v>-200</v>
-      </c>
-      <c r="S10" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -922,17 +935,18 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>0</v>
+      </c>
+      <c r="E12" s="3">
         <v>100</v>
       </c>
-      <c r="E12" s="3">
-        <v>0</v>
-      </c>
       <c r="F12" s="3">
         <v>0</v>
       </c>
@@ -946,13 +960,13 @@
         <v>0</v>
       </c>
       <c r="J12" s="3">
+        <v>0</v>
+      </c>
+      <c r="K12" s="3">
         <v>100</v>
       </c>
-      <c r="K12" s="3">
-        <v>0</v>
-      </c>
       <c r="L12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M12" s="3">
         <v>100</v>
@@ -970,13 +984,16 @@
         <v>100</v>
       </c>
       <c r="R12" s="3">
+        <v>100</v>
+      </c>
+      <c r="S12" s="3">
         <v>200</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1028,37 +1045,40 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
         <v>300</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
       <c r="F14" s="3">
         <v>0</v>
       </c>
       <c r="G14" s="3">
         <v>0</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>4</v>
+      <c r="H14" s="3">
+        <v>0</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
+      <c r="J14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
         <v>-1000</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>4</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>4</v>
@@ -1069,8 +1089,8 @@
       <c r="O14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
+      <c r="P14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q14" s="3">
         <v>0</v>
@@ -1081,8 +1101,11 @@
       <c r="S14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1134,8 +1157,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,16 +1178,17 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>200</v>
+      </c>
+      <c r="E17" s="3">
         <v>700</v>
-      </c>
-      <c r="E17" s="3">
-        <v>200</v>
       </c>
       <c r="F17" s="3">
         <v>200</v>
@@ -1170,51 +1197,54 @@
         <v>200</v>
       </c>
       <c r="H17" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="I17" s="3">
         <v>300</v>
       </c>
       <c r="J17" s="3">
+        <v>300</v>
+      </c>
+      <c r="K17" s="3">
         <v>500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>-800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1200</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>4</v>
+      <c r="D18" s="3">
+        <v>-100</v>
       </c>
       <c r="E18" s="3">
-        <v>-200</v>
+        <v>-700</v>
       </c>
       <c r="F18" s="3">
         <v>-200</v>
@@ -1223,43 +1253,46 @@
         <v>-200</v>
       </c>
       <c r="H18" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="I18" s="3">
         <v>-300</v>
       </c>
       <c r="J18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="K18" s="3">
         <v>-500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-1400</v>
-      </c>
-      <c r="P18" s="3">
-        <v>-500</v>
       </c>
       <c r="Q18" s="3">
         <v>-500</v>
       </c>
       <c r="R18" s="3">
+        <v>-500</v>
+      </c>
+      <c r="S18" s="3">
         <v>-1100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1279,114 +1312,121 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>4</v>
+      <c r="D20" s="3">
+        <v>2000</v>
       </c>
       <c r="E20" s="3">
+        <v>-5700</v>
+      </c>
+      <c r="F20" s="3">
         <v>3200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>1700</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>400</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-2100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>400</v>
-      </c>
-      <c r="J20" s="3">
-        <v>-1300</v>
       </c>
       <c r="K20" s="3">
         <v>-1300</v>
       </c>
       <c r="L20" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="M20" s="3">
         <v>4200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>1700</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-6100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-700</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-200</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>600</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-600</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>4</v>
+      <c r="D21" s="3">
+        <v>1900</v>
       </c>
       <c r="E21" s="3">
+        <v>-6400</v>
+      </c>
+      <c r="F21" s="3">
         <v>3000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>1500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-2400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-1800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>3700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-6700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-2100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-700</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>100</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-1600</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1397,31 +1437,31 @@
         <v>300</v>
       </c>
       <c r="F22" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="G22" s="3">
         <v>400</v>
       </c>
       <c r="H22" s="3">
+        <v>400</v>
+      </c>
+      <c r="I22" s="3">
         <v>300</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>400</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>1000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>200</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>300</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>200</v>
-      </c>
-      <c r="N22" s="3">
-        <v>300</v>
       </c>
       <c r="O22" s="3">
         <v>300</v>
@@ -1430,69 +1470,75 @@
         <v>300</v>
       </c>
       <c r="Q22" s="3">
+        <v>300</v>
+      </c>
+      <c r="R22" s="3">
         <v>200</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>300</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E23" s="3">
         <v>-6700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>2700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>1100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-2700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-2700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>3400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-7200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-2400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-2000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1544,8 +1590,11 @@
       <c r="S24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,114 +1646,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E26" s="3">
         <v>-6700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>2700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>1100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-2700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-2700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>3400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>1100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-7200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-2400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-2000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E27" s="3">
         <v>-6800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>2700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>1100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-2700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-2800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>3400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>1000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-7200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-2400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-2100</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,8 +1814,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1809,8 +1870,11 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1926,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,114 +1982,123 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>4</v>
+      <c r="D32" s="3">
+        <v>-2000</v>
       </c>
       <c r="E32" s="3">
+        <v>5700</v>
+      </c>
+      <c r="F32" s="3">
         <v>-3200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-1700</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-400</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>2100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-400</v>
-      </c>
-      <c r="J32" s="3">
-        <v>1300</v>
       </c>
       <c r="K32" s="3">
         <v>1300</v>
       </c>
       <c r="L32" s="3">
+        <v>1300</v>
+      </c>
+      <c r="M32" s="3">
         <v>-4200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-1700</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>6100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>700</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>200</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-600</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>600</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E33" s="3">
         <v>-6800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>2700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>1100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-2700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-2800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>3400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>1000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-7200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-2400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-2100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,119 +2150,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E35" s="3">
         <v>-6800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>2700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>1100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-2700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-2800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>3400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>1000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-7200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-2400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-2100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43008</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42916</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42825</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42735</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2291,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,23 +2313,24 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>600</v>
+      </c>
+      <c r="E41" s="3">
         <v>800</v>
       </c>
-      <c r="E41" s="3">
-        <v>0</v>
-      </c>
       <c r="F41" s="3">
+        <v>0</v>
+      </c>
+      <c r="G41" s="3">
         <v>900</v>
       </c>
-      <c r="G41" s="3">
-        <v>0</v>
-      </c>
       <c r="H41" s="3">
         <v>0</v>
       </c>
@@ -2254,23 +2341,23 @@
         <v>0</v>
       </c>
       <c r="K41" s="3">
+        <v>0</v>
+      </c>
+      <c r="L41" s="3">
         <v>100</v>
       </c>
-      <c r="L41" s="3">
-        <v>0</v>
-      </c>
       <c r="M41" s="3">
+        <v>0</v>
+      </c>
+      <c r="N41" s="3">
         <v>100</v>
       </c>
-      <c r="N41" s="3">
-        <v>0</v>
-      </c>
       <c r="O41" s="3">
+        <v>0</v>
+      </c>
+      <c r="P41" s="3">
         <v>100</v>
       </c>
-      <c r="P41" s="3">
-        <v>0</v>
-      </c>
       <c r="Q41" s="3">
         <v>0</v>
       </c>
@@ -2280,8 +2367,11 @@
       <c r="S41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2333,8 +2423,11 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2342,11 +2435,11 @@
         <v>0</v>
       </c>
       <c r="E43" s="3">
+        <v>0</v>
+      </c>
+      <c r="F43" s="3">
         <v>100</v>
       </c>
-      <c r="F43" s="3">
-        <v>0</v>
-      </c>
       <c r="G43" s="3">
         <v>0</v>
       </c>
@@ -2384,10 +2477,13 @@
         <v>0</v>
       </c>
       <c r="S43" s="3">
+        <v>0</v>
+      </c>
+      <c r="T43" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2398,7 +2494,7 @@
         <v>100</v>
       </c>
       <c r="F44" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G44" s="3">
         <v>0</v>
@@ -2407,13 +2503,13 @@
         <v>0</v>
       </c>
       <c r="I44" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J44" s="3">
         <v>100</v>
       </c>
       <c r="K44" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="L44" s="3">
         <v>300</v>
@@ -2422,13 +2518,13 @@
         <v>300</v>
       </c>
       <c r="N44" s="3">
+        <v>300</v>
+      </c>
+      <c r="O44" s="3">
         <v>200</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>600</v>
-      </c>
-      <c r="P44" s="3">
-        <v>800</v>
       </c>
       <c r="Q44" s="3">
         <v>800</v>
@@ -2437,116 +2533,125 @@
         <v>800</v>
       </c>
       <c r="S44" s="3">
+        <v>800</v>
+      </c>
+      <c r="T44" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="E45" s="3">
         <v>0</v>
       </c>
       <c r="F45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G45" s="3">
         <v>100</v>
       </c>
       <c r="H45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I45" s="3">
         <v>0</v>
       </c>
       <c r="J45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K45" s="3">
         <v>100</v>
       </c>
       <c r="L45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N45" s="3">
         <v>100</v>
       </c>
       <c r="O45" s="3">
+        <v>100</v>
+      </c>
+      <c r="P45" s="3">
         <v>200</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>400</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>200</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>300</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E46" s="3">
         <v>900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>100</v>
-      </c>
-      <c r="I46" s="3">
-        <v>200</v>
       </c>
       <c r="J46" s="3">
         <v>200</v>
       </c>
       <c r="K46" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="L46" s="3">
         <v>400</v>
       </c>
       <c r="M46" s="3">
+        <v>400</v>
+      </c>
+      <c r="N46" s="3">
         <v>500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>300</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>800</v>
-      </c>
-      <c r="P46" s="3">
-        <v>1100</v>
       </c>
       <c r="Q46" s="3">
         <v>1100</v>
       </c>
       <c r="R46" s="3">
+        <v>1100</v>
+      </c>
+      <c r="S46" s="3">
         <v>1000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2598,8 +2703,11 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2613,7 +2721,7 @@
         <v>100</v>
       </c>
       <c r="G48" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H48" s="3">
         <v>200</v>
@@ -2622,7 +2730,7 @@
         <v>200</v>
       </c>
       <c r="J48" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="K48" s="3">
         <v>0</v>
@@ -2637,7 +2745,7 @@
         <v>0</v>
       </c>
       <c r="O48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P48" s="3">
         <v>100</v>
@@ -2649,10 +2757,13 @@
         <v>100</v>
       </c>
       <c r="S48" s="3">
+        <v>100</v>
+      </c>
+      <c r="T48" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2704,8 +2815,11 @@
       <c r="S49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2871,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,8 +2927,11 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2846,13 +2966,13 @@
         <v>0</v>
       </c>
       <c r="N52" s="3">
+        <v>0</v>
+      </c>
+      <c r="O52" s="3">
         <v>100</v>
       </c>
-      <c r="O52" s="3">
-        <v>0</v>
-      </c>
       <c r="P52" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="Q52" s="3">
         <v>300</v>
@@ -2861,10 +2981,13 @@
         <v>300</v>
       </c>
       <c r="S52" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+        <v>300</v>
+      </c>
+      <c r="T52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,49 +3039,52 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E54" s="3">
         <v>900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1200</v>
-      </c>
-      <c r="G54" s="3">
-        <v>300</v>
       </c>
       <c r="H54" s="3">
         <v>300</v>
       </c>
       <c r="I54" s="3">
+        <v>300</v>
+      </c>
+      <c r="J54" s="3">
         <v>400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>900</v>
-      </c>
-      <c r="P54" s="3">
-        <v>1500</v>
       </c>
       <c r="Q54" s="3">
         <v>1500</v>
@@ -2967,10 +3093,13 @@
         <v>1500</v>
       </c>
       <c r="S54" s="3">
+        <v>1500</v>
+      </c>
+      <c r="T54" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3119,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,25 +3141,26 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E57" s="3">
         <v>2900</v>
-      </c>
-      <c r="E57" s="3">
-        <v>3000</v>
       </c>
       <c r="F57" s="3">
         <v>3000</v>
       </c>
       <c r="G57" s="3">
+        <v>3000</v>
+      </c>
+      <c r="H57" s="3">
         <v>3100</v>
-      </c>
-      <c r="H57" s="3">
-        <v>3000</v>
       </c>
       <c r="I57" s="3">
         <v>3000</v>
@@ -3053,189 +3184,201 @@
         <v>3000</v>
       </c>
       <c r="P57" s="3">
+        <v>3000</v>
+      </c>
+      <c r="Q57" s="3">
         <v>2900</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>2700</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>2600</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E58" s="3">
         <v>2700</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>3100</v>
-      </c>
-      <c r="F58" s="3">
-        <v>5300</v>
       </c>
       <c r="G58" s="3">
         <v>5300</v>
       </c>
       <c r="H58" s="3">
+        <v>5300</v>
+      </c>
+      <c r="I58" s="3">
         <v>5000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>5100</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>4800</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>4600</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>5100</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>4900</v>
-      </c>
-      <c r="N58" s="3">
-        <v>4600</v>
       </c>
       <c r="O58" s="3">
         <v>4600</v>
       </c>
       <c r="P58" s="3">
+        <v>4600</v>
+      </c>
+      <c r="Q58" s="3">
         <v>4500</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>4200</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>4000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>3500</v>
       </c>
     </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>3100</v>
+        <v>3000</v>
       </c>
       <c r="E59" s="3">
         <v>3100</v>
       </c>
       <c r="F59" s="3">
+        <v>3100</v>
+      </c>
+      <c r="G59" s="3">
         <v>4100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>3200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>3700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>3600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>3200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>3100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>4500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>4400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>4200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>3800</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>3400</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>2800</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>2700</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>8300</v>
+      </c>
+      <c r="E60" s="3">
         <v>8600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>9200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>12400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>11600</v>
-      </c>
-      <c r="H60" s="3">
-        <v>11700</v>
       </c>
       <c r="I60" s="3">
         <v>11700</v>
       </c>
       <c r="J60" s="3">
+        <v>11700</v>
+      </c>
+      <c r="K60" s="3">
         <v>11000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>10700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>12600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>12200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>11800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>11400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>10800</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>9700</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>9300</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>8500</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E61" s="3">
         <v>1200</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>700</v>
-      </c>
-      <c r="F61" s="3">
-        <v>600</v>
       </c>
       <c r="G61" s="3">
         <v>600</v>
@@ -3244,17 +3387,17 @@
         <v>600</v>
       </c>
       <c r="I61" s="3">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="J61" s="3">
         <v>300</v>
       </c>
       <c r="K61" s="3">
+        <v>300</v>
+      </c>
+      <c r="L61" s="3">
         <v>600</v>
       </c>
-      <c r="L61" s="3">
-        <v>0</v>
-      </c>
       <c r="M61" s="3">
         <v>0</v>
       </c>
@@ -3276,61 +3419,67 @@
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>5600</v>
+      </c>
+      <c r="E62" s="3">
         <v>7600</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1800</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>5100</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>6200</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>6600</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>4400</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>4700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>3400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>2100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>6300</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>8000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1800</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>1100</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>800</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>1400</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3531,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3587,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,61 +3643,67 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>15100</v>
+      </c>
+      <c r="E66" s="3">
         <v>17400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>11700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>18100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>18400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>18800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>16400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>16100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>14700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>14600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>18500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>19800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>13300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>11900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>10500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>10800</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>9400</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3723,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3777,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,19 +3833,22 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E70" s="3">
         <v>1900</v>
       </c>
-      <c r="E70" s="3">
+      <c r="F70" s="3">
         <v>1100</v>
-      </c>
-      <c r="F70" s="3">
-        <v>800</v>
       </c>
       <c r="G70" s="3">
         <v>800</v>
@@ -3701,28 +3869,31 @@
         <v>800</v>
       </c>
       <c r="M70" s="3">
+        <v>800</v>
+      </c>
+      <c r="N70" s="3">
         <v>1000</v>
-      </c>
-      <c r="N70" s="3">
-        <v>1100</v>
       </c>
       <c r="O70" s="3">
         <v>1100</v>
       </c>
       <c r="P70" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="Q70" s="3">
         <v>1200</v>
       </c>
       <c r="R70" s="3">
+        <v>1200</v>
+      </c>
+      <c r="S70" s="3">
         <v>1300</v>
       </c>
-      <c r="S70" s="3">
+      <c r="T70" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,61 +3945,67 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-142100</v>
+      </c>
+      <c r="E72" s="3">
         <v>-143600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-136800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-139600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-140600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-140500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-137900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-137600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-134900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-134100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-137500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-138500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-131300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-128900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-127800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-127600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-125500</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4057,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4113,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,61 +4169,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-16400</v>
+      </c>
+      <c r="E76" s="3">
         <v>-18400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-12400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-17700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-18800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-19400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-16800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-16600</v>
-      </c>
-      <c r="K76" s="3">
-        <v>-15000</v>
       </c>
       <c r="L76" s="3">
         <v>-15000</v>
       </c>
       <c r="M76" s="3">
+        <v>-15000</v>
+      </c>
+      <c r="N76" s="3">
         <v>-18900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-20500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-13500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-11500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-10300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-10600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-8700</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,119 +4281,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43008</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42916</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42825</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42735</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E81" s="3">
         <v>-6800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>2700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>1100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-2700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-2800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>3400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>1000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-7200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-2400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-2100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,8 +4422,9 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4260,11 +4459,11 @@
         <v>0</v>
       </c>
       <c r="N83" s="3">
+        <v>0</v>
+      </c>
+      <c r="O83" s="3">
         <v>100</v>
       </c>
-      <c r="O83" s="3">
-        <v>0</v>
-      </c>
       <c r="P83" s="3">
         <v>0</v>
       </c>
@@ -4272,13 +4471,16 @@
         <v>0</v>
       </c>
       <c r="R83" s="3">
+        <v>0</v>
+      </c>
+      <c r="S83" s="3">
         <v>100</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4532,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4588,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4644,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4700,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,19 +4756,22 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E89" s="3">
         <v>-400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-500</v>
-      </c>
-      <c r="F89" s="3">
-        <v>-200</v>
       </c>
       <c r="G89" s="3">
         <v>-200</v>
@@ -4566,37 +4783,40 @@
         <v>-200</v>
       </c>
       <c r="J89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K89" s="3">
         <v>-300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-400</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-200</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,8 +4836,9 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4669,8 +4890,11 @@
       <c r="S91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +4946,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,8 +5002,11 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4828,8 +5058,11 @@
       <c r="S94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,8 +5082,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4902,8 +5136,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5192,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5248,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,22 +5304,25 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>400</v>
+      </c>
+      <c r="E100" s="3">
         <v>1200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>1100</v>
-      </c>
-      <c r="G100" s="3">
-        <v>200</v>
       </c>
       <c r="H100" s="3">
         <v>200</v>
@@ -5088,34 +5334,37 @@
         <v>200</v>
       </c>
       <c r="K100" s="3">
+        <v>200</v>
+      </c>
+      <c r="L100" s="3">
         <v>400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>400</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>200</v>
       </c>
-      <c r="S100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5167,23 +5416,26 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E102" s="3">
         <v>700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-900</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>900</v>
       </c>
-      <c r="G102" s="3">
-        <v>0</v>
-      </c>
       <c r="H102" s="3">
         <v>0</v>
       </c>
@@ -5191,26 +5443,26 @@
         <v>0</v>
       </c>
       <c r="J102" s="3">
+        <v>0</v>
+      </c>
+      <c r="K102" s="3">
         <v>-100</v>
       </c>
-      <c r="K102" s="3">
-        <v>0</v>
-      </c>
       <c r="L102" s="3">
         <v>0</v>
       </c>
       <c r="M102" s="3">
+        <v>0</v>
+      </c>
+      <c r="N102" s="3">
         <v>100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>100</v>
       </c>
-      <c r="P102" s="3">
-        <v>0</v>
-      </c>
       <c r="Q102" s="3">
         <v>0</v>
       </c>
@@ -5218,6 +5470,9 @@
         <v>0</v>
       </c>
       <c r="S102" s="3">
+        <v>0</v>
+      </c>
+      <c r="T102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/GTHP_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GTHP_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="92">
   <si>
     <t>GTHP</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,101 +665,108 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43008</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>42916</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>42825</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>42735</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" s="3">
+        <v>0</v>
+      </c>
+      <c r="F8" s="3">
         <v>100</v>
       </c>
-      <c r="E8" s="3">
-        <v>0</v>
-      </c>
-      <c r="F8" s="3">
-        <v>0</v>
-      </c>
       <c r="G8" s="3">
         <v>0</v>
       </c>
@@ -785,7 +792,7 @@
         <v>0</v>
       </c>
       <c r="O8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P8" s="3">
         <v>0</v>
@@ -800,21 +807,27 @@
         <v>100</v>
       </c>
       <c r="T8" s="3">
+        <v>0</v>
+      </c>
+      <c r="U8" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="V8" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="3">
-        <v>0</v>
+      <c r="D9" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E9" s="3">
-        <v>0</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>4</v>
+        <v>-100</v>
+      </c>
+      <c r="F9" s="3">
+        <v>0</v>
       </c>
       <c r="G9" s="3">
         <v>0</v>
@@ -823,54 +836,60 @@
         <v>4</v>
       </c>
       <c r="I9" s="3">
-        <v>100</v>
-      </c>
-      <c r="J9" s="3">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K9" s="3">
         <v>100</v>
       </c>
-      <c r="L9" s="3" t="s">
+      <c r="L9" s="3">
+        <v>0</v>
+      </c>
+      <c r="M9" s="3">
+        <v>100</v>
+      </c>
+      <c r="N9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M9" s="3">
-        <v>0</v>
-      </c>
-      <c r="N9" s="3">
-        <v>0</v>
-      </c>
       <c r="O9" s="3">
+        <v>0</v>
+      </c>
+      <c r="P9" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="3">
         <v>300</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>100</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>100</v>
       </c>
-      <c r="R9" s="3">
-        <v>0</v>
-      </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
+        <v>0</v>
+      </c>
+      <c r="U9" s="3">
         <v>300</v>
       </c>
-      <c r="T9" s="3">
+      <c r="V9" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E10" s="3">
         <v>100</v>
       </c>
-      <c r="E10" s="3">
-        <v>0</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>4</v>
+      <c r="F10" s="3">
+        <v>100</v>
       </c>
       <c r="G10" s="3">
         <v>0</v>
@@ -879,43 +898,49 @@
         <v>4</v>
       </c>
       <c r="I10" s="3">
-        <v>-100</v>
-      </c>
-      <c r="J10" s="3">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K10" s="3">
         <v>-100</v>
       </c>
-      <c r="L10" s="3" t="s">
+      <c r="L10" s="3">
+        <v>0</v>
+      </c>
+      <c r="M10" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M10" s="3">
-        <v>0</v>
-      </c>
-      <c r="N10" s="3">
-        <v>0</v>
-      </c>
       <c r="O10" s="3">
+        <v>0</v>
+      </c>
+      <c r="P10" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="3">
         <v>-200</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>-100</v>
       </c>
-      <c r="Q10" s="3">
-        <v>0</v>
-      </c>
-      <c r="R10" s="3">
-        <v>0</v>
-      </c>
       <c r="S10" s="3">
+        <v>0</v>
+      </c>
+      <c r="T10" s="3">
+        <v>0</v>
+      </c>
+      <c r="U10" s="3">
         <v>-200</v>
       </c>
-      <c r="T10" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="V10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -936,8 +961,10 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -945,14 +972,14 @@
         <v>0</v>
       </c>
       <c r="E12" s="3">
+        <v>0</v>
+      </c>
+      <c r="F12" s="3">
+        <v>0</v>
+      </c>
+      <c r="G12" s="3">
         <v>100</v>
       </c>
-      <c r="F12" s="3">
-        <v>0</v>
-      </c>
-      <c r="G12" s="3">
-        <v>0</v>
-      </c>
       <c r="H12" s="3">
         <v>0</v>
       </c>
@@ -963,7 +990,7 @@
         <v>0</v>
       </c>
       <c r="K12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L12" s="3">
         <v>0</v>
@@ -972,7 +999,7 @@
         <v>100</v>
       </c>
       <c r="N12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O12" s="3">
         <v>100</v>
@@ -987,13 +1014,19 @@
         <v>100</v>
       </c>
       <c r="S12" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="T12" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3">
+        <v>200</v>
+      </c>
+      <c r="V12" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1048,43 +1081,49 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>300</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
       <c r="H14" s="3">
         <v>0</v>
       </c>
-      <c r="I14" s="3" t="s">
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J14" s="3" t="s">
+      <c r="L14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
         <v>-1000</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>4</v>
       </c>
       <c r="O14" s="3" t="s">
         <v>4</v>
@@ -1092,11 +1131,11 @@
       <c r="P14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
-      <c r="R14" s="3">
-        <v>0</v>
+      <c r="Q14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S14" s="3">
         <v>0</v>
@@ -1104,8 +1143,14 @@
       <c r="T14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1160,8 +1205,14 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,120 +1230,134 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3">
-        <v>200</v>
+      <c r="D17" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E17" s="3">
-        <v>700</v>
+        <v>300</v>
       </c>
       <c r="F17" s="3">
         <v>200</v>
       </c>
       <c r="G17" s="3">
-        <v>200</v>
+        <v>700</v>
       </c>
       <c r="H17" s="3">
         <v>200</v>
       </c>
       <c r="I17" s="3">
+        <v>200</v>
+      </c>
+      <c r="J17" s="3">
+        <v>200</v>
+      </c>
+      <c r="K17" s="3">
         <v>300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>300</v>
-      </c>
-      <c r="K17" s="3">
-        <v>500</v>
-      </c>
-      <c r="L17" s="3">
-        <v>-800</v>
       </c>
       <c r="M17" s="3">
         <v>500</v>
       </c>
       <c r="N17" s="3">
+        <v>-800</v>
+      </c>
+      <c r="O17" s="3">
+        <v>500</v>
+      </c>
+      <c r="P17" s="3">
         <v>400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>1400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>1200</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F18" s="3">
         <v>-100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>-700</v>
-      </c>
-      <c r="F18" s="3">
-        <v>-200</v>
-      </c>
-      <c r="G18" s="3">
-        <v>-200</v>
       </c>
       <c r="H18" s="3">
         <v>-200</v>
       </c>
       <c r="I18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K18" s="3">
         <v>-300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-300</v>
-      </c>
-      <c r="K18" s="3">
-        <v>-500</v>
-      </c>
-      <c r="L18" s="3">
-        <v>800</v>
       </c>
       <c r="M18" s="3">
         <v>-500</v>
       </c>
       <c r="N18" s="3">
+        <v>800</v>
+      </c>
+      <c r="O18" s="3">
+        <v>-500</v>
+      </c>
+      <c r="P18" s="3">
         <v>-400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-1400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>-500</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>-500</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>-1100</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1313,152 +1378,166 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E20" s="3">
+        <v>2600</v>
+      </c>
+      <c r="F20" s="3">
         <v>2000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>-5700</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>3200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>1700</v>
-      </c>
-      <c r="H20" s="3">
-        <v>400</v>
-      </c>
-      <c r="I20" s="3">
-        <v>-2100</v>
       </c>
       <c r="J20" s="3">
         <v>400</v>
       </c>
       <c r="K20" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="L20" s="3">
+        <v>400</v>
+      </c>
+      <c r="M20" s="3">
         <v>-1300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>-1300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>4200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>1700</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>-6100</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>-700</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>-200</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>600</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>-600</v>
       </c>
-      <c r="T20" s="3">
+      <c r="V20" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E21" s="3">
+        <v>2300</v>
+      </c>
+      <c r="F21" s="3">
         <v>1900</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>-6400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>3000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>1500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-2400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-1800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>3700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>1300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>-6700</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>-2100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>-700</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>100</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>-1600</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="E22" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="F22" s="3">
         <v>300</v>
       </c>
       <c r="G22" s="3">
+        <v>300</v>
+      </c>
+      <c r="H22" s="3">
+        <v>300</v>
+      </c>
+      <c r="I22" s="3">
         <v>400</v>
-      </c>
-      <c r="H22" s="3">
-        <v>400</v>
-      </c>
-      <c r="I22" s="3">
-        <v>300</v>
       </c>
       <c r="J22" s="3">
         <v>400</v>
       </c>
       <c r="K22" s="3">
+        <v>300</v>
+      </c>
+      <c r="L22" s="3">
+        <v>400</v>
+      </c>
+      <c r="M22" s="3">
         <v>1000</v>
-      </c>
-      <c r="L22" s="3">
-        <v>200</v>
-      </c>
-      <c r="M22" s="3">
-        <v>300</v>
       </c>
       <c r="N22" s="3">
         <v>200</v>
@@ -1467,13 +1546,13 @@
         <v>300</v>
       </c>
       <c r="P22" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="Q22" s="3">
         <v>300</v>
       </c>
       <c r="R22" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="S22" s="3">
         <v>300</v>
@@ -1481,64 +1560,76 @@
       <c r="T22" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3">
+        <v>300</v>
+      </c>
+      <c r="V22" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E23" s="3">
+        <v>2200</v>
+      </c>
+      <c r="F23" s="3">
         <v>1600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-6700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>2700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>1100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-100</v>
-      </c>
-      <c r="I23" s="3">
-        <v>-2700</v>
-      </c>
-      <c r="J23" s="3">
-        <v>-200</v>
       </c>
       <c r="K23" s="3">
         <v>-2700</v>
       </c>
       <c r="L23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M23" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="N23" s="3">
         <v>-700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>3400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>1100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-7200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-2400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-1100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>-100</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>-2000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1593,8 +1684,14 @@
       <c r="T24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+      <c r="V24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1649,120 +1746,138 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E26" s="3">
+        <v>2200</v>
+      </c>
+      <c r="F26" s="3">
         <v>1600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-6700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>2700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>1100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-100</v>
-      </c>
-      <c r="I26" s="3">
-        <v>-2700</v>
-      </c>
-      <c r="J26" s="3">
-        <v>-200</v>
       </c>
       <c r="K26" s="3">
         <v>-2700</v>
       </c>
       <c r="L26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M26" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="N26" s="3">
         <v>-700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>3400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>1100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-7200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-2400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-1100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>-100</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>-2000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E27" s="3">
+        <v>2100</v>
+      </c>
+      <c r="F27" s="3">
         <v>1500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-6800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>2700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>1100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-2700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-2800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>3400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>1000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-7200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-2400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-1100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>-200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>-2100</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1817,8 +1932,14 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1873,8 +1994,14 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +2056,14 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,120 +2118,138 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
+      <c r="D32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="F32" s="3">
         <v>-2000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>5700</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>-3200</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>-1700</v>
-      </c>
-      <c r="H32" s="3">
-        <v>-400</v>
-      </c>
-      <c r="I32" s="3">
-        <v>2100</v>
       </c>
       <c r="J32" s="3">
         <v>-400</v>
       </c>
       <c r="K32" s="3">
+        <v>2100</v>
+      </c>
+      <c r="L32" s="3">
+        <v>-400</v>
+      </c>
+      <c r="M32" s="3">
         <v>1300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>1300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-4200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>-1700</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>6100</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>700</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>200</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>-600</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>600</v>
       </c>
-      <c r="T32" s="3">
+      <c r="V32" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E33" s="3">
+        <v>2100</v>
+      </c>
+      <c r="F33" s="3">
         <v>1500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-6800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>2700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>1100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-2700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-2800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>3400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>1000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-7200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-2400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-1100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>-200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>-2100</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,125 +2304,143 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E35" s="3">
+        <v>2100</v>
+      </c>
+      <c r="F35" s="3">
         <v>1500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-6800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>2700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>1100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-2700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-2800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>3400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>1000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-7200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-2400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-1100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>-200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>-2100</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43008</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>42916</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>42825</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>42735</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2461,10 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,29 +2485,31 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E41" s="3">
+        <v>200</v>
+      </c>
+      <c r="F41" s="3">
         <v>600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>800</v>
       </c>
-      <c r="F41" s="3">
-        <v>0</v>
-      </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
+        <v>0</v>
+      </c>
+      <c r="I41" s="3">
         <v>900</v>
       </c>
-      <c r="H41" s="3">
-        <v>0</v>
-      </c>
-      <c r="I41" s="3">
-        <v>0</v>
-      </c>
       <c r="J41" s="3">
         <v>0</v>
       </c>
@@ -2344,7 +2517,7 @@
         <v>0</v>
       </c>
       <c r="L41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M41" s="3">
         <v>0</v>
@@ -2362,7 +2535,7 @@
         <v>0</v>
       </c>
       <c r="R41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S41" s="3">
         <v>0</v>
@@ -2370,8 +2543,14 @@
       <c r="T41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U41" s="3">
+        <v>0</v>
+      </c>
+      <c r="V41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2426,8 +2605,14 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2438,14 +2623,14 @@
         <v>0</v>
       </c>
       <c r="F43" s="3">
+        <v>0</v>
+      </c>
+      <c r="G43" s="3">
+        <v>0</v>
+      </c>
+      <c r="H43" s="3">
         <v>100</v>
       </c>
-      <c r="G43" s="3">
-        <v>0</v>
-      </c>
-      <c r="H43" s="3">
-        <v>0</v>
-      </c>
       <c r="I43" s="3">
         <v>0</v>
       </c>
@@ -2480,178 +2665,202 @@
         <v>0</v>
       </c>
       <c r="T43" s="3">
+        <v>0</v>
+      </c>
+      <c r="U43" s="3">
+        <v>0</v>
+      </c>
+      <c r="V43" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>100</v>
+        <v>600</v>
       </c>
       <c r="E44" s="3">
-        <v>100</v>
+        <v>600</v>
       </c>
       <c r="F44" s="3">
         <v>100</v>
       </c>
       <c r="G44" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H44" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I44" s="3">
         <v>0</v>
       </c>
       <c r="J44" s="3">
+        <v>0</v>
+      </c>
+      <c r="K44" s="3">
+        <v>0</v>
+      </c>
+      <c r="L44" s="3">
         <v>100</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>100</v>
-      </c>
-      <c r="L44" s="3">
-        <v>300</v>
-      </c>
-      <c r="M44" s="3">
-        <v>300</v>
       </c>
       <c r="N44" s="3">
         <v>300</v>
       </c>
       <c r="O44" s="3">
+        <v>300</v>
+      </c>
+      <c r="P44" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q44" s="3">
         <v>200</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>600</v>
-      </c>
-      <c r="Q44" s="3">
-        <v>800</v>
-      </c>
-      <c r="R44" s="3">
-        <v>800</v>
       </c>
       <c r="S44" s="3">
         <v>800</v>
       </c>
       <c r="T44" s="3">
+        <v>800</v>
+      </c>
+      <c r="U44" s="3">
+        <v>800</v>
+      </c>
+      <c r="V44" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>0</v>
+      </c>
+      <c r="E45" s="3">
+        <v>100</v>
+      </c>
+      <c r="F45" s="3">
         <v>600</v>
       </c>
-      <c r="E45" s="3">
-        <v>0</v>
-      </c>
-      <c r="F45" s="3">
-        <v>0</v>
-      </c>
       <c r="G45" s="3">
+        <v>0</v>
+      </c>
+      <c r="H45" s="3">
+        <v>0</v>
+      </c>
+      <c r="I45" s="3">
         <v>100</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>100</v>
       </c>
-      <c r="I45" s="3">
-        <v>0</v>
-      </c>
-      <c r="J45" s="3">
-        <v>0</v>
-      </c>
       <c r="K45" s="3">
+        <v>0</v>
+      </c>
+      <c r="L45" s="3">
+        <v>0</v>
+      </c>
+      <c r="M45" s="3">
         <v>100</v>
-      </c>
-      <c r="L45" s="3">
-        <v>100</v>
-      </c>
-      <c r="M45" s="3">
-        <v>0</v>
       </c>
       <c r="N45" s="3">
         <v>100</v>
       </c>
       <c r="O45" s="3">
+        <v>0</v>
+      </c>
+      <c r="P45" s="3">
         <v>100</v>
       </c>
-      <c r="P45" s="3">
-        <v>200</v>
-      </c>
       <c r="Q45" s="3">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="R45" s="3">
         <v>200</v>
       </c>
       <c r="S45" s="3">
+        <v>400</v>
+      </c>
+      <c r="T45" s="3">
+        <v>200</v>
+      </c>
+      <c r="U45" s="3">
         <v>300</v>
       </c>
-      <c r="T45" s="3">
+      <c r="V45" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1200</v>
+        <v>1900</v>
       </c>
       <c r="E46" s="3">
         <v>900</v>
       </c>
       <c r="F46" s="3">
-        <v>200</v>
+        <v>1200</v>
       </c>
       <c r="G46" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="H46" s="3">
         <v>200</v>
       </c>
       <c r="I46" s="3">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="J46" s="3">
         <v>200</v>
       </c>
       <c r="K46" s="3">
+        <v>100</v>
+      </c>
+      <c r="L46" s="3">
         <v>200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
+        <v>200</v>
+      </c>
+      <c r="N46" s="3">
         <v>400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>300</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>1100</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>1100</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>1000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2706,16 +2915,22 @@
       <c r="T47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="E48" s="3">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="F48" s="3">
         <v>100</v>
@@ -2724,19 +2939,19 @@
         <v>100</v>
       </c>
       <c r="H48" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="I48" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="J48" s="3">
         <v>200</v>
       </c>
       <c r="K48" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="L48" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="M48" s="3">
         <v>0</v>
@@ -2748,10 +2963,10 @@
         <v>0</v>
       </c>
       <c r="P48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R48" s="3">
         <v>100</v>
@@ -2760,10 +2975,16 @@
         <v>100</v>
       </c>
       <c r="T48" s="3">
+        <v>100</v>
+      </c>
+      <c r="U48" s="3">
+        <v>100</v>
+      </c>
+      <c r="V48" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2818,8 +3039,14 @@
       <c r="T49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3">
+        <v>0</v>
+      </c>
+      <c r="V49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +3101,14 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,8 +3163,14 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2969,25 +3208,31 @@
         <v>0</v>
       </c>
       <c r="O52" s="3">
+        <v>0</v>
+      </c>
+      <c r="P52" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q52" s="3">
         <v>100</v>
       </c>
-      <c r="P52" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q52" s="3">
-        <v>300</v>
-      </c>
       <c r="R52" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="S52" s="3">
         <v>300</v>
       </c>
       <c r="T52" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+        <v>300</v>
+      </c>
+      <c r="U52" s="3">
+        <v>300</v>
+      </c>
+      <c r="V52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,40 +3287,46 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E54" s="3">
+        <v>1400</v>
+      </c>
+      <c r="F54" s="3">
         <v>1300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>1200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>200</v>
-      </c>
-      <c r="L54" s="3">
-        <v>500</v>
-      </c>
-      <c r="M54" s="3">
-        <v>400</v>
       </c>
       <c r="N54" s="3">
         <v>500</v>
@@ -3084,22 +3335,28 @@
         <v>400</v>
       </c>
       <c r="P54" s="3">
+        <v>500</v>
+      </c>
+      <c r="Q54" s="3">
+        <v>400</v>
+      </c>
+      <c r="R54" s="3">
         <v>900</v>
-      </c>
-      <c r="Q54" s="3">
-        <v>1500</v>
-      </c>
-      <c r="R54" s="3">
-        <v>1500</v>
       </c>
       <c r="S54" s="3">
         <v>1500</v>
       </c>
       <c r="T54" s="3">
+        <v>1500</v>
+      </c>
+      <c r="U54" s="3">
+        <v>1500</v>
+      </c>
+      <c r="V54" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3377,10 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,31 +3401,33 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E57" s="3">
+        <v>2500</v>
+      </c>
+      <c r="F57" s="3">
         <v>2700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>2900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>3000</v>
-      </c>
-      <c r="G57" s="3">
-        <v>3000</v>
-      </c>
-      <c r="H57" s="3">
-        <v>3100</v>
       </c>
       <c r="I57" s="3">
         <v>3000</v>
       </c>
       <c r="J57" s="3">
-        <v>3000</v>
+        <v>3100</v>
       </c>
       <c r="K57" s="3">
         <v>3000</v>
@@ -3187,223 +3448,247 @@
         <v>3000</v>
       </c>
       <c r="Q57" s="3">
+        <v>3000</v>
+      </c>
+      <c r="R57" s="3">
+        <v>3000</v>
+      </c>
+      <c r="S57" s="3">
         <v>2900</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>2700</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>2600</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E58" s="3">
+        <v>3300</v>
+      </c>
+      <c r="F58" s="3">
         <v>2600</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>2700</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>3100</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>5300</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>5300</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>5000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>5100</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>4800</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>4600</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>5100</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>4900</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>4600</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>4600</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>4500</v>
       </c>
-      <c r="R58" s="3">
+      <c r="T58" s="3">
         <v>4200</v>
       </c>
-      <c r="S58" s="3">
+      <c r="U58" s="3">
         <v>4000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="V58" s="3">
         <v>3500</v>
       </c>
     </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>3000</v>
+        <v>1900</v>
       </c>
       <c r="E59" s="3">
         <v>3100</v>
       </c>
       <c r="F59" s="3">
+        <v>3000</v>
+      </c>
+      <c r="G59" s="3">
         <v>3100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
+        <v>3100</v>
+      </c>
+      <c r="I59" s="3">
         <v>4100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>3200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>3700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>3600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>3200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>3100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>4500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>4400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>4200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>3800</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>3400</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>2800</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>2700</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>6100</v>
+      </c>
+      <c r="E60" s="3">
+        <v>9000</v>
+      </c>
+      <c r="F60" s="3">
         <v>8300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>8600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>9200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>12400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>11600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>11700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>11700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>11000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>10700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>12600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>12200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>11800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>11400</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>10800</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>9700</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>9300</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>8500</v>
       </c>
     </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>600</v>
+      </c>
+      <c r="E61" s="3">
+        <v>600</v>
+      </c>
+      <c r="F61" s="3">
         <v>1300</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>1200</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>700</v>
-      </c>
-      <c r="G61" s="3">
-        <v>600</v>
-      </c>
-      <c r="H61" s="3">
-        <v>600</v>
       </c>
       <c r="I61" s="3">
         <v>600</v>
       </c>
       <c r="J61" s="3">
+        <v>600</v>
+      </c>
+      <c r="K61" s="3">
+        <v>600</v>
+      </c>
+      <c r="L61" s="3">
         <v>300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>300</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>600</v>
       </c>
-      <c r="M61" s="3">
-        <v>0</v>
-      </c>
-      <c r="N61" s="3">
-        <v>0</v>
-      </c>
       <c r="O61" s="3">
         <v>0</v>
       </c>
@@ -3422,64 +3707,76 @@
       <c r="T61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>500</v>
+      </c>
+      <c r="E62" s="3">
+        <v>2600</v>
+      </c>
+      <c r="F62" s="3">
         <v>5600</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>7600</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>1800</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>5100</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>6200</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>6600</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>4400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>4700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>3400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>2100</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>6300</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>8000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>1800</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>1100</v>
-      </c>
-      <c r="R62" s="3">
-        <v>800</v>
-      </c>
-      <c r="S62" s="3">
-        <v>1400</v>
       </c>
       <c r="T62" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U62" s="3">
+        <v>1400</v>
+      </c>
+      <c r="V62" s="3">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +3831,14 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3590,8 +3893,14 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,64 +3955,76 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>7200</v>
+      </c>
+      <c r="E66" s="3">
+        <v>12200</v>
+      </c>
+      <c r="F66" s="3">
         <v>15100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>17400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>11700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>18100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>18400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>18800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>16400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>16100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>14700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>14600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>18500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>19800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>13300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>11900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>10500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>10800</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>9400</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +4045,10 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +4103,14 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,25 +4165,31 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E70" s="3">
+        <v>2700</v>
+      </c>
+      <c r="F70" s="3">
         <v>2600</v>
       </c>
-      <c r="E70" s="3">
+      <c r="G70" s="3">
         <v>1900</v>
       </c>
-      <c r="F70" s="3">
+      <c r="H70" s="3">
         <v>1100</v>
-      </c>
-      <c r="G70" s="3">
-        <v>800</v>
-      </c>
-      <c r="H70" s="3">
-        <v>800</v>
       </c>
       <c r="I70" s="3">
         <v>800</v>
@@ -3872,28 +4207,34 @@
         <v>800</v>
       </c>
       <c r="N70" s="3">
+        <v>800</v>
+      </c>
+      <c r="O70" s="3">
+        <v>800</v>
+      </c>
+      <c r="P70" s="3">
         <v>1000</v>
       </c>
-      <c r="O70" s="3">
+      <c r="Q70" s="3">
         <v>1100</v>
       </c>
-      <c r="P70" s="3">
+      <c r="R70" s="3">
         <v>1100</v>
       </c>
-      <c r="Q70" s="3">
+      <c r="S70" s="3">
         <v>1200</v>
       </c>
-      <c r="R70" s="3">
+      <c r="T70" s="3">
         <v>1200</v>
       </c>
-      <c r="S70" s="3">
+      <c r="U70" s="3">
         <v>1300</v>
       </c>
-      <c r="T70" s="3">
+      <c r="V70" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,64 +4289,76 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-140500</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-140000</v>
+      </c>
+      <c r="F72" s="3">
         <v>-142100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-143600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-136800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-139600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-140600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-140500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-137900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-137600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-134900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-134100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-137500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-138500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-131300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-128900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-127800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-127600</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>-125500</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4413,14 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4475,14 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,64 +4537,76 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-7500</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-13600</v>
+      </c>
+      <c r="F76" s="3">
         <v>-16400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>-18400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>-12400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>-17700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>-18800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>-19400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>-16800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>-16600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>-15000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>-15000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>-18900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>-20500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>-13500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>-11500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>-10300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>-10600</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>-8700</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,125 +4661,143 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43008</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>42916</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>42825</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>42735</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
+      <c r="D81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E81" s="3">
+        <v>2100</v>
+      </c>
+      <c r="F81" s="3">
         <v>1500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-6800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>2700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>1100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-2700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-2800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>3400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>1000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-7200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-2400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-1100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>-200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>-2100</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,13 +4818,15 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3">
-        <v>0</v>
+      <c r="D83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E83" s="3">
         <v>0</v>
@@ -4462,25 +4859,31 @@
         <v>0</v>
       </c>
       <c r="O83" s="3">
+        <v>0</v>
+      </c>
+      <c r="P83" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q83" s="3">
         <v>100</v>
       </c>
-      <c r="P83" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q83" s="3">
-        <v>0</v>
-      </c>
       <c r="R83" s="3">
         <v>0</v>
       </c>
       <c r="S83" s="3">
+        <v>0</v>
+      </c>
+      <c r="T83" s="3">
+        <v>0</v>
+      </c>
+      <c r="U83" s="3">
         <v>100</v>
       </c>
-      <c r="T83" s="3">
+      <c r="V83" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +4938,14 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +5000,14 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +5062,14 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +5124,14 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,25 +5186,31 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F89" s="3">
         <v>-600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-500</v>
-      </c>
-      <c r="G89" s="3">
-        <v>-200</v>
-      </c>
-      <c r="H89" s="3">
-        <v>-200</v>
       </c>
       <c r="I89" s="3">
         <v>-200</v>
@@ -4786,37 +5219,43 @@
         <v>-200</v>
       </c>
       <c r="K89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M89" s="3">
         <v>-300</v>
-      </c>
-      <c r="L89" s="3">
-        <v>-400</v>
-      </c>
-      <c r="M89" s="3">
-        <v>-200</v>
       </c>
       <c r="N89" s="3">
         <v>-400</v>
       </c>
       <c r="O89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="P89" s="3">
+        <v>-400</v>
+      </c>
+      <c r="Q89" s="3">
         <v>-700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>-200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>-400</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>-200</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,8 +5276,10 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4851,17 +5292,17 @@
       <c r="F91" s="3">
         <v>0</v>
       </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
-      <c r="J91" s="3">
-        <v>0</v>
+      <c r="G91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K91" s="3">
         <v>0</v>
@@ -4893,8 +5334,14 @@
       <c r="T91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U91" s="3">
+        <v>0</v>
+      </c>
+      <c r="V91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5396,14 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,8 +5458,14 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5019,17 +5478,17 @@
       <c r="F94" s="3">
         <v>0</v>
       </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
-      <c r="J94" s="3">
-        <v>0</v>
+      <c r="G94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K94" s="3">
         <v>0</v>
@@ -5061,8 +5520,14 @@
       <c r="T94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U94" s="3">
+        <v>0</v>
+      </c>
+      <c r="V94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,8 +5548,10 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5139,8 +5606,14 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5668,14 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5730,14 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,28 +5792,34 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F100" s="3">
         <v>400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>1200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>-300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>1100</v>
-      </c>
-      <c r="H100" s="3">
-        <v>200</v>
-      </c>
-      <c r="I100" s="3">
-        <v>200</v>
       </c>
       <c r="J100" s="3">
         <v>200</v>
@@ -5337,34 +5828,40 @@
         <v>200</v>
       </c>
       <c r="L100" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="M100" s="3">
         <v>200</v>
       </c>
       <c r="N100" s="3">
+        <v>400</v>
+      </c>
+      <c r="O100" s="3">
+        <v>200</v>
+      </c>
+      <c r="P100" s="3">
         <v>500</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>300</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>-100</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>400</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>200</v>
       </c>
-      <c r="T100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="V100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5419,60 +5916,72 @@
       <c r="T101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F102" s="3">
         <v>-200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-900</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>900</v>
       </c>
-      <c r="H102" s="3">
-        <v>0</v>
-      </c>
-      <c r="I102" s="3">
-        <v>0</v>
-      </c>
       <c r="J102" s="3">
         <v>0</v>
       </c>
       <c r="K102" s="3">
+        <v>0</v>
+      </c>
+      <c r="L102" s="3">
+        <v>0</v>
+      </c>
+      <c r="M102" s="3">
         <v>-100</v>
       </c>
-      <c r="L102" s="3">
-        <v>0</v>
-      </c>
-      <c r="M102" s="3">
-        <v>0</v>
-      </c>
       <c r="N102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P102" s="3">
         <v>100</v>
       </c>
       <c r="Q102" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="R102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S102" s="3">
         <v>0</v>
       </c>
       <c r="T102" s="3">
+        <v>0</v>
+      </c>
+      <c r="U102" s="3">
+        <v>0</v>
+      </c>
+      <c r="V102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/GTHP_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GTHP_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="92">
   <si>
     <t>GTHP</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,96 +665,100 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43100</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43008</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42916</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42825</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42735</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -765,11 +769,11 @@
         <v>0</v>
       </c>
       <c r="F8" s="3">
+        <v>0</v>
+      </c>
+      <c r="G8" s="3">
         <v>100</v>
       </c>
-      <c r="G8" s="3">
-        <v>0</v>
-      </c>
       <c r="H8" s="3">
         <v>0</v>
       </c>
@@ -798,149 +802,158 @@
         <v>0</v>
       </c>
       <c r="Q8" s="3">
+        <v>0</v>
+      </c>
+      <c r="R8" s="3">
         <v>100</v>
       </c>
-      <c r="R8" s="3">
-        <v>0</v>
-      </c>
       <c r="S8" s="3">
+        <v>0</v>
+      </c>
+      <c r="T8" s="3">
         <v>100</v>
       </c>
-      <c r="T8" s="3">
-        <v>0</v>
-      </c>
       <c r="U8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V8" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W8" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F9" s="3">
         <v>-100</v>
       </c>
-      <c r="F9" s="3">
-        <v>0</v>
-      </c>
       <c r="G9" s="3">
         <v>0</v>
       </c>
-      <c r="H9" s="3" t="s">
+      <c r="H9" s="3">
+        <v>0</v>
+      </c>
+      <c r="I9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I9" s="3">
-        <v>0</v>
-      </c>
-      <c r="J9" s="3" t="s">
+      <c r="J9" s="3">
+        <v>0</v>
+      </c>
+      <c r="K9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>100</v>
       </c>
-      <c r="L9" s="3">
-        <v>0</v>
-      </c>
       <c r="M9" s="3">
+        <v>0</v>
+      </c>
+      <c r="N9" s="3">
         <v>100</v>
       </c>
-      <c r="N9" s="3" t="s">
+      <c r="O9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O9" s="3">
-        <v>0</v>
-      </c>
       <c r="P9" s="3">
         <v>0</v>
       </c>
       <c r="Q9" s="3">
+        <v>0</v>
+      </c>
+      <c r="R9" s="3">
         <v>300</v>
-      </c>
-      <c r="R9" s="3">
-        <v>100</v>
       </c>
       <c r="S9" s="3">
         <v>100</v>
       </c>
       <c r="T9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U9" s="3">
+        <v>0</v>
+      </c>
+      <c r="V9" s="3">
         <v>300</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E10" s="3">
-        <v>100</v>
+      <c r="E10" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F10" s="3">
         <v>100</v>
       </c>
       <c r="G10" s="3">
-        <v>0</v>
-      </c>
-      <c r="H10" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="H10" s="3">
+        <v>0</v>
+      </c>
+      <c r="I10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I10" s="3">
-        <v>0</v>
-      </c>
-      <c r="J10" s="3" t="s">
+      <c r="J10" s="3">
+        <v>0</v>
+      </c>
+      <c r="K10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>-100</v>
       </c>
-      <c r="L10" s="3">
-        <v>0</v>
-      </c>
       <c r="M10" s="3">
+        <v>0</v>
+      </c>
+      <c r="N10" s="3">
         <v>-100</v>
       </c>
-      <c r="N10" s="3" t="s">
+      <c r="O10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O10" s="3">
-        <v>0</v>
-      </c>
       <c r="P10" s="3">
         <v>0</v>
       </c>
       <c r="Q10" s="3">
+        <v>0</v>
+      </c>
+      <c r="R10" s="3">
         <v>-200</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>-100</v>
       </c>
-      <c r="S10" s="3">
-        <v>0</v>
-      </c>
       <c r="T10" s="3">
         <v>0</v>
       </c>
       <c r="U10" s="3">
+        <v>0</v>
+      </c>
+      <c r="V10" s="3">
         <v>-200</v>
       </c>
-      <c r="V10" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -963,8 +976,9 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -978,11 +992,11 @@
         <v>0</v>
       </c>
       <c r="G12" s="3">
+        <v>0</v>
+      </c>
+      <c r="H12" s="3">
         <v>100</v>
       </c>
-      <c r="H12" s="3">
-        <v>0</v>
-      </c>
       <c r="I12" s="3">
         <v>0</v>
       </c>
@@ -996,13 +1010,13 @@
         <v>0</v>
       </c>
       <c r="M12" s="3">
+        <v>0</v>
+      </c>
+      <c r="N12" s="3">
         <v>100</v>
       </c>
-      <c r="N12" s="3">
-        <v>0</v>
-      </c>
       <c r="O12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P12" s="3">
         <v>100</v>
@@ -1020,13 +1034,16 @@
         <v>100</v>
       </c>
       <c r="U12" s="3">
+        <v>100</v>
+      </c>
+      <c r="V12" s="3">
         <v>200</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1087,46 +1104,49 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>200</v>
+      </c>
+      <c r="E14" s="3">
         <v>-100</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
       <c r="F14" s="3">
         <v>0</v>
       </c>
       <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>300</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
       <c r="I14" s="3">
         <v>0</v>
       </c>
       <c r="J14" s="3">
         <v>0</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>4</v>
+      <c r="K14" s="3">
+        <v>0</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
+      <c r="M14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
         <v>-1000</v>
-      </c>
-      <c r="O14" s="3" t="s">
-        <v>4</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>4</v>
@@ -1137,8 +1157,8 @@
       <c r="R14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
+      <c r="S14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T14" s="3">
         <v>0</v>
@@ -1149,8 +1169,11 @@
       <c r="V14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1211,8 +1234,11 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1232,8 +1258,9 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1241,16 +1268,16 @@
         <v>4</v>
       </c>
       <c r="E17" s="3">
+        <v>700</v>
+      </c>
+      <c r="F17" s="3">
         <v>300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>700</v>
-      </c>
-      <c r="H17" s="3">
-        <v>200</v>
       </c>
       <c r="I17" s="3">
         <v>200</v>
@@ -1259,43 +1286,46 @@
         <v>200</v>
       </c>
       <c r="K17" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="L17" s="3">
         <v>300</v>
       </c>
       <c r="M17" s="3">
+        <v>300</v>
+      </c>
+      <c r="N17" s="3">
         <v>500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>-800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1400</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>600</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>500</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>1200</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1303,16 +1333,16 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F18" s="3">
         <v>-300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-700</v>
-      </c>
-      <c r="H18" s="3">
-        <v>-200</v>
       </c>
       <c r="I18" s="3">
         <v>-200</v>
@@ -1321,43 +1351,46 @@
         <v>-200</v>
       </c>
       <c r="K18" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="L18" s="3">
         <v>-300</v>
       </c>
       <c r="M18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="N18" s="3">
         <v>-500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-1400</v>
-      </c>
-      <c r="S18" s="3">
-        <v>-500</v>
       </c>
       <c r="T18" s="3">
         <v>-500</v>
       </c>
       <c r="U18" s="3">
+        <v>-500</v>
+      </c>
+      <c r="V18" s="3">
         <v>-1100</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1380,8 +1413,9 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1389,61 +1423,64 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
+        <v>400</v>
+      </c>
+      <c r="F20" s="3">
         <v>2600</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>2000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-5700</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>3200</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>1700</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-2100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>400</v>
-      </c>
-      <c r="M20" s="3">
-        <v>-1300</v>
       </c>
       <c r="N20" s="3">
         <v>-1300</v>
       </c>
       <c r="O20" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="P20" s="3">
         <v>4200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>1700</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-6100</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-700</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-200</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>600</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-600</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1451,72 +1488,75 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F21" s="3">
         <v>2300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>1900</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-6400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>3000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>1500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-2400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-1800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>3700</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>1300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-6700</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-2100</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-700</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>100</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-1600</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="E22" s="3">
         <v>100</v>
       </c>
       <c r="F22" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="G22" s="3">
         <v>300</v>
@@ -1525,31 +1565,31 @@
         <v>300</v>
       </c>
       <c r="I22" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="J22" s="3">
         <v>400</v>
       </c>
       <c r="K22" s="3">
+        <v>400</v>
+      </c>
+      <c r="L22" s="3">
         <v>300</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>400</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>1000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>200</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>300</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>200</v>
-      </c>
-      <c r="Q22" s="3">
-        <v>300</v>
       </c>
       <c r="R22" s="3">
         <v>300</v>
@@ -1558,78 +1598,84 @@
         <v>300</v>
       </c>
       <c r="T22" s="3">
+        <v>300</v>
+      </c>
+      <c r="U22" s="3">
         <v>200</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>300</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E23" s="3">
         <v>-500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>2200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>1600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-6700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>2700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>1100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-2700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-2700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>3400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>1100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-7200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-2400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-1100</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-100</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-2000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1690,8 +1736,11 @@
       <c r="V24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1752,8 +1801,11 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1761,61 +1813,64 @@
         <v>4</v>
       </c>
       <c r="E26" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F26" s="3">
         <v>2200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>1600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-6700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>2700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>1100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-2700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-2700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>3400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>1100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-7200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-2400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-1100</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-100</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-2000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1823,61 +1878,64 @@
         <v>4</v>
       </c>
       <c r="E27" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F27" s="3">
         <v>2100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>1500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-6800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>2700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>1100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-2700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-2800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>3400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>1000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-7200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-2400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-1100</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-200</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-2100</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1938,8 +1996,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2000,8 +2061,11 @@
       <c r="V29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2062,8 +2126,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2124,8 +2191,11 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2133,61 +2203,64 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F32" s="3">
         <v>-2600</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-2000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>5700</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-3200</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-1700</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>2100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-400</v>
-      </c>
-      <c r="M32" s="3">
-        <v>1300</v>
       </c>
       <c r="N32" s="3">
         <v>1300</v>
       </c>
       <c r="O32" s="3">
+        <v>1300</v>
+      </c>
+      <c r="P32" s="3">
         <v>-4200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-1700</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>6100</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>700</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>200</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-600</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>600</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -2195,61 +2268,64 @@
         <v>4</v>
       </c>
       <c r="E33" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F33" s="3">
         <v>2100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>1500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-6800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>2700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>1100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-2700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-2800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>3400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>1000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-7200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-2400</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-1100</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-200</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-2100</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2310,8 +2386,11 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2319,128 +2398,134 @@
         <v>4</v>
       </c>
       <c r="E35" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F35" s="3">
         <v>2100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>1500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-6800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>2700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>1100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-2700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-2800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>3400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>1000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-7200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-2400</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-1100</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-200</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-2100</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43100</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43008</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42916</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42825</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42735</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2463,8 +2548,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2487,32 +2573,33 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>900</v>
+      </c>
+      <c r="E41" s="3">
         <v>1200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>800</v>
       </c>
-      <c r="H41" s="3">
-        <v>0</v>
-      </c>
       <c r="I41" s="3">
+        <v>0</v>
+      </c>
+      <c r="J41" s="3">
         <v>900</v>
       </c>
-      <c r="J41" s="3">
-        <v>0</v>
-      </c>
       <c r="K41" s="3">
         <v>0</v>
       </c>
@@ -2523,23 +2610,23 @@
         <v>0</v>
       </c>
       <c r="N41" s="3">
+        <v>0</v>
+      </c>
+      <c r="O41" s="3">
         <v>100</v>
       </c>
-      <c r="O41" s="3">
-        <v>0</v>
-      </c>
       <c r="P41" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="3">
         <v>100</v>
       </c>
-      <c r="Q41" s="3">
-        <v>0</v>
-      </c>
       <c r="R41" s="3">
+        <v>0</v>
+      </c>
+      <c r="S41" s="3">
         <v>100</v>
       </c>
-      <c r="S41" s="3">
-        <v>0</v>
-      </c>
       <c r="T41" s="3">
         <v>0</v>
       </c>
@@ -2549,8 +2636,11 @@
       <c r="V41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2611,8 +2701,11 @@
       <c r="V42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2629,11 +2722,11 @@
         <v>0</v>
       </c>
       <c r="H43" s="3">
+        <v>0</v>
+      </c>
+      <c r="I43" s="3">
         <v>100</v>
       </c>
-      <c r="I43" s="3">
-        <v>0</v>
-      </c>
       <c r="J43" s="3">
         <v>0</v>
       </c>
@@ -2671,10 +2764,13 @@
         <v>0</v>
       </c>
       <c r="V43" s="3">
+        <v>0</v>
+      </c>
+      <c r="W43" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2685,7 +2781,7 @@
         <v>600</v>
       </c>
       <c r="F44" s="3">
-        <v>100</v>
+        <v>600</v>
       </c>
       <c r="G44" s="3">
         <v>100</v>
@@ -2694,7 +2790,7 @@
         <v>100</v>
       </c>
       <c r="I44" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J44" s="3">
         <v>0</v>
@@ -2703,13 +2799,13 @@
         <v>0</v>
       </c>
       <c r="L44" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M44" s="3">
         <v>100</v>
       </c>
       <c r="N44" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="O44" s="3">
         <v>300</v>
@@ -2718,13 +2814,13 @@
         <v>300</v>
       </c>
       <c r="Q44" s="3">
+        <v>300</v>
+      </c>
+      <c r="R44" s="3">
         <v>200</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>600</v>
-      </c>
-      <c r="S44" s="3">
-        <v>800</v>
       </c>
       <c r="T44" s="3">
         <v>800</v>
@@ -2733,134 +2829,143 @@
         <v>800</v>
       </c>
       <c r="V44" s="3">
+        <v>800</v>
+      </c>
+      <c r="W44" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E45" s="3">
+        <v>0</v>
+      </c>
+      <c r="F45" s="3">
         <v>100</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>600</v>
       </c>
-      <c r="G45" s="3">
-        <v>0</v>
-      </c>
       <c r="H45" s="3">
         <v>0</v>
       </c>
       <c r="I45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J45" s="3">
         <v>100</v>
       </c>
       <c r="K45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L45" s="3">
         <v>0</v>
       </c>
       <c r="M45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N45" s="3">
         <v>100</v>
       </c>
       <c r="O45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q45" s="3">
         <v>100</v>
       </c>
       <c r="R45" s="3">
+        <v>100</v>
+      </c>
+      <c r="S45" s="3">
         <v>200</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>400</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>200</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>300</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E46" s="3">
         <v>1900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>100</v>
-      </c>
-      <c r="L46" s="3">
-        <v>200</v>
       </c>
       <c r="M46" s="3">
         <v>200</v>
       </c>
       <c r="N46" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="O46" s="3">
         <v>400</v>
       </c>
       <c r="P46" s="3">
+        <v>400</v>
+      </c>
+      <c r="Q46" s="3">
         <v>500</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>300</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>800</v>
-      </c>
-      <c r="S46" s="3">
-        <v>1100</v>
       </c>
       <c r="T46" s="3">
         <v>1100</v>
       </c>
       <c r="U46" s="3">
+        <v>1100</v>
+      </c>
+      <c r="V46" s="3">
         <v>1000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2921,8 +3026,11 @@
       <c r="V47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2930,10 +3038,10 @@
         <v>400</v>
       </c>
       <c r="E48" s="3">
+        <v>400</v>
+      </c>
+      <c r="F48" s="3">
         <v>500</v>
-      </c>
-      <c r="F48" s="3">
-        <v>100</v>
       </c>
       <c r="G48" s="3">
         <v>100</v>
@@ -2945,7 +3053,7 @@
         <v>100</v>
       </c>
       <c r="J48" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K48" s="3">
         <v>200</v>
@@ -2954,7 +3062,7 @@
         <v>200</v>
       </c>
       <c r="M48" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="N48" s="3">
         <v>0</v>
@@ -2969,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="R48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S48" s="3">
         <v>100</v>
@@ -2981,10 +3089,13 @@
         <v>100</v>
       </c>
       <c r="V48" s="3">
+        <v>100</v>
+      </c>
+      <c r="W48" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3045,8 +3156,11 @@
       <c r="V49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3107,8 +3221,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3169,8 +3286,11 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3214,13 +3334,13 @@
         <v>0</v>
       </c>
       <c r="Q52" s="3">
+        <v>0</v>
+      </c>
+      <c r="R52" s="3">
         <v>100</v>
       </c>
-      <c r="R52" s="3">
-        <v>0</v>
-      </c>
       <c r="S52" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="T52" s="3">
         <v>300</v>
@@ -3229,10 +3349,13 @@
         <v>300</v>
       </c>
       <c r="V52" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+        <v>300</v>
+      </c>
+      <c r="W52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3293,58 +3416,61 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E54" s="3">
         <v>2400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1200</v>
-      </c>
-      <c r="J54" s="3">
-        <v>300</v>
       </c>
       <c r="K54" s="3">
         <v>300</v>
       </c>
       <c r="L54" s="3">
+        <v>300</v>
+      </c>
+      <c r="M54" s="3">
         <v>400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>900</v>
-      </c>
-      <c r="S54" s="3">
-        <v>1500</v>
       </c>
       <c r="T54" s="3">
         <v>1500</v>
@@ -3353,10 +3479,13 @@
         <v>1500</v>
       </c>
       <c r="V54" s="3">
+        <v>1500</v>
+      </c>
+      <c r="W54" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3379,8 +3508,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3403,34 +3533,35 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E57" s="3">
         <v>2600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>2500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>2700</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>2900</v>
-      </c>
-      <c r="H57" s="3">
-        <v>3000</v>
       </c>
       <c r="I57" s="3">
         <v>3000</v>
       </c>
       <c r="J57" s="3">
+        <v>3000</v>
+      </c>
+      <c r="K57" s="3">
         <v>3100</v>
-      </c>
-      <c r="K57" s="3">
-        <v>3000</v>
       </c>
       <c r="L57" s="3">
         <v>3000</v>
@@ -3454,81 +3585,87 @@
         <v>3000</v>
       </c>
       <c r="S57" s="3">
+        <v>3000</v>
+      </c>
+      <c r="T57" s="3">
         <v>2900</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>2700</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>2600</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E58" s="3">
         <v>1500</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>3300</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>2600</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>2700</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>3100</v>
-      </c>
-      <c r="I58" s="3">
-        <v>5300</v>
       </c>
       <c r="J58" s="3">
         <v>5300</v>
       </c>
       <c r="K58" s="3">
+        <v>5300</v>
+      </c>
+      <c r="L58" s="3">
         <v>5000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>5100</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>4800</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>4600</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>5100</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>4900</v>
-      </c>
-      <c r="Q58" s="3">
-        <v>4600</v>
       </c>
       <c r="R58" s="3">
         <v>4600</v>
       </c>
       <c r="S58" s="3">
+        <v>4600</v>
+      </c>
+      <c r="T58" s="3">
         <v>4500</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>4200</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>4000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>3500</v>
       </c>
     </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3536,143 +3673,149 @@
         <v>1900</v>
       </c>
       <c r="E59" s="3">
+        <v>2000</v>
+      </c>
+      <c r="F59" s="3">
         <v>3100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>3000</v>
-      </c>
-      <c r="G59" s="3">
-        <v>3100</v>
       </c>
       <c r="H59" s="3">
         <v>3100</v>
       </c>
       <c r="I59" s="3">
+        <v>3100</v>
+      </c>
+      <c r="J59" s="3">
         <v>4100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>3200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>3700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>3600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>3200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>3100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>4500</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>4400</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>4200</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>3800</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>3400</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>2800</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>2700</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>5700</v>
+      </c>
+      <c r="E60" s="3">
         <v>6100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>9000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>8300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>8600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>9200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>12400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>11600</v>
-      </c>
-      <c r="K60" s="3">
-        <v>11700</v>
       </c>
       <c r="L60" s="3">
         <v>11700</v>
       </c>
       <c r="M60" s="3">
+        <v>11700</v>
+      </c>
+      <c r="N60" s="3">
         <v>11000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>10700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>12600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>12200</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>11800</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>11400</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>10800</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>9700</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>9300</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>8500</v>
       </c>
     </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>600</v>
+        <v>1300</v>
       </c>
       <c r="E61" s="3">
         <v>600</v>
       </c>
       <c r="F61" s="3">
+        <v>600</v>
+      </c>
+      <c r="G61" s="3">
         <v>1300</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>1200</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>700</v>
-      </c>
-      <c r="I61" s="3">
-        <v>600</v>
       </c>
       <c r="J61" s="3">
         <v>600</v>
@@ -3681,17 +3824,17 @@
         <v>600</v>
       </c>
       <c r="L61" s="3">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="M61" s="3">
         <v>300</v>
       </c>
       <c r="N61" s="3">
+        <v>300</v>
+      </c>
+      <c r="O61" s="3">
         <v>600</v>
       </c>
-      <c r="O61" s="3">
-        <v>0</v>
-      </c>
       <c r="P61" s="3">
         <v>0</v>
       </c>
@@ -3713,70 +3856,76 @@
       <c r="V61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>400</v>
+      </c>
+      <c r="E62" s="3">
         <v>500</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>2600</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>5600</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>7600</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1800</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>5100</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>6200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>6600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>4400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>4700</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>3400</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>2100</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>6300</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>8000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>1800</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>1100</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>800</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>1400</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3837,8 +3986,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3899,8 +4051,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3961,70 +4116,76 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>7400</v>
+      </c>
+      <c r="E66" s="3">
         <v>7200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>12200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>15100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>17400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>11700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>18100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>18400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>18800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>16400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>16100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>14700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>14600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>18500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>19800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>13300</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>11900</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>10500</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>10800</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>9400</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4047,8 +4208,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4109,8 +4271,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4171,28 +4336,31 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
+        <v>0</v>
+      </c>
+      <c r="E70" s="3">
+        <v>6900</v>
+      </c>
+      <c r="F70" s="3">
         <v>2700</v>
       </c>
-      <c r="E70" s="3">
-        <v>2700</v>
-      </c>
-      <c r="F70" s="3">
+      <c r="G70" s="3">
         <v>2600</v>
       </c>
-      <c r="G70" s="3">
+      <c r="H70" s="3">
         <v>1900</v>
       </c>
-      <c r="H70" s="3">
+      <c r="I70" s="3">
         <v>1100</v>
-      </c>
-      <c r="I70" s="3">
-        <v>800</v>
       </c>
       <c r="J70" s="3">
         <v>800</v>
@@ -4213,28 +4381,31 @@
         <v>800</v>
       </c>
       <c r="P70" s="3">
+        <v>800</v>
+      </c>
+      <c r="Q70" s="3">
         <v>1000</v>
-      </c>
-      <c r="Q70" s="3">
-        <v>1100</v>
       </c>
       <c r="R70" s="3">
         <v>1100</v>
       </c>
       <c r="S70" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="T70" s="3">
         <v>1200</v>
       </c>
       <c r="U70" s="3">
+        <v>1200</v>
+      </c>
+      <c r="V70" s="3">
         <v>1300</v>
       </c>
-      <c r="V70" s="3">
+      <c r="W70" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4295,70 +4466,76 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D72" s="3">
+      <c r="D72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E72" s="3">
         <v>-140500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-140000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-142100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-143600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-136800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-139600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-140600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-140500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-137900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-137600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-134900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-134100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-137500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-138500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-131300</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-128900</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-127800</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-127600</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-125500</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4419,8 +4596,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4481,8 +4661,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4543,70 +4726,76 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D76" s="3">
-        <v>-7500</v>
+      <c r="D76" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E76" s="3">
+        <v>-11800</v>
+      </c>
+      <c r="F76" s="3">
         <v>-13600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-16400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-18400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-12400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-17700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-18800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-19400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-16800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-16600</v>
-      </c>
-      <c r="N76" s="3">
-        <v>-15000</v>
       </c>
       <c r="O76" s="3">
         <v>-15000</v>
       </c>
       <c r="P76" s="3">
+        <v>-15000</v>
+      </c>
+      <c r="Q76" s="3">
         <v>-18900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-20500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-13500</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-11500</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-10300</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>-10600</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>-8700</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4667,75 +4856,81 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43100</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43008</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42916</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42825</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42735</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -4743,61 +4938,64 @@
         <v>4</v>
       </c>
       <c r="E81" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F81" s="3">
         <v>2100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>1500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-6800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>2700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>1100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-2700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-2800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>3400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>1000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-7200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-2400</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-1100</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-200</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-2100</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4820,13 +5018,14 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3" t="s">
-        <v>4</v>
+      <c r="D83" s="3">
+        <v>0</v>
       </c>
       <c r="E83" s="3">
         <v>0</v>
@@ -4865,11 +5064,11 @@
         <v>0</v>
       </c>
       <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+      <c r="R83" s="3">
         <v>100</v>
       </c>
-      <c r="R83" s="3">
-        <v>0</v>
-      </c>
       <c r="S83" s="3">
         <v>0</v>
       </c>
@@ -4877,13 +5076,16 @@
         <v>0</v>
       </c>
       <c r="U83" s="3">
+        <v>0</v>
+      </c>
+      <c r="V83" s="3">
         <v>100</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4944,8 +5146,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5006,8 +5211,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5068,8 +5276,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5130,8 +5341,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5192,28 +5406,31 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-300</v>
+        <v>-700</v>
       </c>
       <c r="E89" s="3">
         <v>-300</v>
       </c>
       <c r="F89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="G89" s="3">
         <v>-600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-500</v>
-      </c>
-      <c r="I89" s="3">
-        <v>-200</v>
       </c>
       <c r="J89" s="3">
         <v>-200</v>
@@ -5225,37 +5442,40 @@
         <v>-200</v>
       </c>
       <c r="M89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="N89" s="3">
         <v>-300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-700</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-200</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>100</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-400</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-200</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5278,8 +5498,9 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5292,8 +5513,8 @@
       <c r="F91" s="3">
         <v>0</v>
       </c>
-      <c r="G91" s="3" t="s">
-        <v>4</v>
+      <c r="G91" s="3">
+        <v>0</v>
       </c>
       <c r="H91" s="3" t="s">
         <v>4</v>
@@ -5304,8 +5525,8 @@
       <c r="J91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
+      <c r="K91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L91" s="3">
         <v>0</v>
@@ -5340,8 +5561,11 @@
       <c r="V91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5402,8 +5626,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5464,8 +5691,11 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5478,8 +5708,8 @@
       <c r="F94" s="3">
         <v>0</v>
       </c>
-      <c r="G94" s="3" t="s">
-        <v>4</v>
+      <c r="G94" s="3">
+        <v>0</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>4</v>
@@ -5490,8 +5720,8 @@
       <c r="J94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K94" s="3">
-        <v>0</v>
+      <c r="K94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L94" s="3">
         <v>0</v>
@@ -5526,8 +5756,11 @@
       <c r="V94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5550,8 +5783,9 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5612,8 +5846,11 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5674,8 +5911,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5736,8 +5976,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5798,31 +6041,34 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>400</v>
+      </c>
+      <c r="E100" s="3">
         <v>1400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>1200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>1100</v>
-      </c>
-      <c r="J100" s="3">
-        <v>200</v>
       </c>
       <c r="K100" s="3">
         <v>200</v>
@@ -5834,34 +6080,37 @@
         <v>200</v>
       </c>
       <c r="N100" s="3">
+        <v>200</v>
+      </c>
+      <c r="O100" s="3">
         <v>400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>500</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>600</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>300</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-100</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>400</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>200</v>
       </c>
-      <c r="V100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5922,32 +6171,35 @@
       <c r="V101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E102" s="3">
         <v>1100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-900</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>900</v>
       </c>
-      <c r="J102" s="3">
-        <v>0</v>
-      </c>
       <c r="K102" s="3">
         <v>0</v>
       </c>
@@ -5955,26 +6207,26 @@
         <v>0</v>
       </c>
       <c r="M102" s="3">
+        <v>0</v>
+      </c>
+      <c r="N102" s="3">
         <v>-100</v>
       </c>
-      <c r="N102" s="3">
-        <v>0</v>
-      </c>
       <c r="O102" s="3">
         <v>0</v>
       </c>
       <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
         <v>100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>100</v>
       </c>
-      <c r="S102" s="3">
-        <v>0</v>
-      </c>
       <c r="T102" s="3">
         <v>0</v>
       </c>
@@ -5982,6 +6234,9 @@
         <v>0</v>
       </c>
       <c r="V102" s="3">
+        <v>0</v>
+      </c>
+      <c r="W102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/GTHP_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GTHP_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="92">
   <si>
     <t>GTHP</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,100 +665,104 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43008</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42916</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42825</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42735</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -772,11 +776,11 @@
         <v>0</v>
       </c>
       <c r="G8" s="3">
+        <v>0</v>
+      </c>
+      <c r="H8" s="3">
         <v>100</v>
       </c>
-      <c r="H8" s="3">
-        <v>0</v>
-      </c>
       <c r="I8" s="3">
         <v>0</v>
       </c>
@@ -805,90 +809,96 @@
         <v>0</v>
       </c>
       <c r="R8" s="3">
+        <v>0</v>
+      </c>
+      <c r="S8" s="3">
         <v>100</v>
       </c>
-      <c r="S8" s="3">
-        <v>0</v>
-      </c>
       <c r="T8" s="3">
+        <v>0</v>
+      </c>
+      <c r="U8" s="3">
         <v>100</v>
       </c>
-      <c r="U8" s="3">
-        <v>0</v>
-      </c>
       <c r="V8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W8" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X8" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>4</v>
+      <c r="D9" s="3">
+        <v>0</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G9" s="3">
         <v>-100</v>
       </c>
-      <c r="G9" s="3">
-        <v>0</v>
-      </c>
       <c r="H9" s="3">
         <v>0</v>
       </c>
-      <c r="I9" s="3" t="s">
+      <c r="I9" s="3">
+        <v>0</v>
+      </c>
+      <c r="J9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J9" s="3">
-        <v>0</v>
-      </c>
-      <c r="K9" s="3" t="s">
+      <c r="K9" s="3">
+        <v>0</v>
+      </c>
+      <c r="L9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>100</v>
       </c>
-      <c r="M9" s="3">
-        <v>0</v>
-      </c>
       <c r="N9" s="3">
+        <v>0</v>
+      </c>
+      <c r="O9" s="3">
         <v>100</v>
       </c>
-      <c r="O9" s="3" t="s">
+      <c r="P9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P9" s="3">
-        <v>0</v>
-      </c>
       <c r="Q9" s="3">
         <v>0</v>
       </c>
       <c r="R9" s="3">
+        <v>0</v>
+      </c>
+      <c r="S9" s="3">
         <v>300</v>
-      </c>
-      <c r="S9" s="3">
-        <v>100</v>
       </c>
       <c r="T9" s="3">
         <v>100</v>
       </c>
       <c r="U9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V9" s="3">
+        <v>0</v>
+      </c>
+      <c r="W9" s="3">
         <v>300</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -898,62 +908,65 @@
       <c r="E10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F10" s="3">
-        <v>100</v>
+      <c r="F10" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G10" s="3">
         <v>100</v>
       </c>
       <c r="H10" s="3">
-        <v>0</v>
-      </c>
-      <c r="I10" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="I10" s="3">
+        <v>0</v>
+      </c>
+      <c r="J10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J10" s="3">
-        <v>0</v>
-      </c>
-      <c r="K10" s="3" t="s">
+      <c r="K10" s="3">
+        <v>0</v>
+      </c>
+      <c r="L10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>-100</v>
       </c>
-      <c r="M10" s="3">
-        <v>0</v>
-      </c>
       <c r="N10" s="3">
+        <v>0</v>
+      </c>
+      <c r="O10" s="3">
         <v>-100</v>
       </c>
-      <c r="O10" s="3" t="s">
+      <c r="P10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P10" s="3">
-        <v>0</v>
-      </c>
       <c r="Q10" s="3">
         <v>0</v>
       </c>
       <c r="R10" s="3">
+        <v>0</v>
+      </c>
+      <c r="S10" s="3">
         <v>-200</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>-100</v>
       </c>
-      <c r="T10" s="3">
-        <v>0</v>
-      </c>
       <c r="U10" s="3">
         <v>0</v>
       </c>
       <c r="V10" s="3">
+        <v>0</v>
+      </c>
+      <c r="W10" s="3">
         <v>-200</v>
       </c>
-      <c r="W10" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -977,8 +990,9 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -995,11 +1009,11 @@
         <v>0</v>
       </c>
       <c r="H12" s="3">
+        <v>0</v>
+      </c>
+      <c r="I12" s="3">
         <v>100</v>
       </c>
-      <c r="I12" s="3">
-        <v>0</v>
-      </c>
       <c r="J12" s="3">
         <v>0</v>
       </c>
@@ -1013,13 +1027,13 @@
         <v>0</v>
       </c>
       <c r="N12" s="3">
+        <v>0</v>
+      </c>
+      <c r="O12" s="3">
         <v>100</v>
       </c>
-      <c r="O12" s="3">
-        <v>0</v>
-      </c>
       <c r="P12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q12" s="3">
         <v>100</v>
@@ -1037,13 +1051,16 @@
         <v>100</v>
       </c>
       <c r="V12" s="3">
+        <v>100</v>
+      </c>
+      <c r="W12" s="3">
         <v>200</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1107,17 +1124,20 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E14" s="3">
         <v>200</v>
       </c>
-      <c r="E14" s="3">
-        <v>-100</v>
-      </c>
       <c r="F14" s="3">
         <v>0</v>
       </c>
@@ -1125,31 +1145,31 @@
         <v>0</v>
       </c>
       <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
         <v>300</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
       <c r="J14" s="3">
         <v>0</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>4</v>
+      <c r="L14" s="3">
+        <v>0</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
+      <c r="N14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
         <v>-1000</v>
-      </c>
-      <c r="P14" s="3" t="s">
-        <v>4</v>
       </c>
       <c r="Q14" s="3" t="s">
         <v>4</v>
@@ -1160,8 +1180,8 @@
       <c r="S14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T14" s="3">
-        <v>0</v>
+      <c r="T14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U14" s="3">
         <v>0</v>
@@ -1172,8 +1192,11 @@
       <c r="W14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1237,8 +1260,11 @@
       <c r="W15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1259,28 +1285,29 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>4</v>
+      <c r="D17" s="3">
+        <v>-300</v>
       </c>
       <c r="E17" s="3">
         <v>700</v>
       </c>
       <c r="F17" s="3">
+        <v>900</v>
+      </c>
+      <c r="G17" s="3">
         <v>300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>700</v>
-      </c>
-      <c r="I17" s="3">
-        <v>200</v>
       </c>
       <c r="J17" s="3">
         <v>200</v>
@@ -1289,43 +1316,46 @@
         <v>200</v>
       </c>
       <c r="L17" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="M17" s="3">
         <v>300</v>
       </c>
       <c r="N17" s="3">
+        <v>300</v>
+      </c>
+      <c r="O17" s="3">
         <v>500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>-800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>400</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>800</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1400</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>600</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>500</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>1200</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1336,16 +1366,16 @@
         <v>-700</v>
       </c>
       <c r="F18" s="3">
+        <v>-900</v>
+      </c>
+      <c r="G18" s="3">
         <v>-300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-700</v>
-      </c>
-      <c r="I18" s="3">
-        <v>-200</v>
       </c>
       <c r="J18" s="3">
         <v>-200</v>
@@ -1354,43 +1384,46 @@
         <v>-200</v>
       </c>
       <c r="L18" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="M18" s="3">
         <v>-300</v>
       </c>
       <c r="N18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="O18" s="3">
         <v>-500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-700</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-1400</v>
-      </c>
-      <c r="T18" s="3">
-        <v>-500</v>
       </c>
       <c r="U18" s="3">
         <v>-500</v>
       </c>
       <c r="V18" s="3">
+        <v>-500</v>
+      </c>
+      <c r="W18" s="3">
         <v>-1100</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1414,8 +1447,9 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1423,64 +1457,67 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <v>400</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>2600</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>2000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-5700</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>3200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>1700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-2100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>400</v>
-      </c>
-      <c r="N20" s="3">
-        <v>-1300</v>
       </c>
       <c r="O20" s="3">
         <v>-1300</v>
       </c>
       <c r="P20" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="Q20" s="3">
         <v>4200</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>1700</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-6100</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-700</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-200</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>600</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-600</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1488,78 +1525,81 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
-        <v>-400</v>
+        <v>-700</v>
       </c>
       <c r="F21" s="3">
+        <v>-500</v>
+      </c>
+      <c r="G21" s="3">
         <v>2300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>1900</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-6400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>3000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>1500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-2400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-1800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>3700</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>1300</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-6700</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-2100</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-700</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>100</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-1600</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>600</v>
+      </c>
+      <c r="E22" s="3">
         <v>300</v>
-      </c>
-      <c r="E22" s="3">
-        <v>100</v>
       </c>
       <c r="F22" s="3">
         <v>100</v>
       </c>
       <c r="G22" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="H22" s="3">
         <v>300</v>
@@ -1568,31 +1608,31 @@
         <v>300</v>
       </c>
       <c r="J22" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K22" s="3">
         <v>400</v>
       </c>
       <c r="L22" s="3">
+        <v>400</v>
+      </c>
+      <c r="M22" s="3">
         <v>300</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>400</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>1000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>200</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>300</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>200</v>
-      </c>
-      <c r="R22" s="3">
-        <v>300</v>
       </c>
       <c r="S22" s="3">
         <v>300</v>
@@ -1601,81 +1641,87 @@
         <v>300</v>
       </c>
       <c r="U22" s="3">
+        <v>300</v>
+      </c>
+      <c r="V22" s="3">
         <v>200</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>300</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>100</v>
+      </c>
+      <c r="E23" s="3">
         <v>-1000</v>
       </c>
-      <c r="E23" s="3">
-        <v>-500</v>
-      </c>
       <c r="F23" s="3">
+        <v>-700</v>
+      </c>
+      <c r="G23" s="3">
         <v>2200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>1600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-6700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>2700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>1100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-2700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-2700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>3400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>1100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-7200</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-2400</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-1100</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-100</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-2000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1739,8 +1785,11 @@
       <c r="W24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1804,138 +1853,147 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>4</v>
+      <c r="D26" s="3">
+        <v>100</v>
       </c>
       <c r="E26" s="3">
-        <v>-500</v>
+        <v>-1000</v>
       </c>
       <c r="F26" s="3">
+        <v>-700</v>
+      </c>
+      <c r="G26" s="3">
         <v>2200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>1600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-6700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>2700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>1100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-2700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-2700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>3400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>1100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-7200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-2400</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-1100</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-100</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-2000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>4</v>
+      <c r="D27" s="3">
+        <v>-100</v>
       </c>
       <c r="E27" s="3">
-        <v>-600</v>
+        <v>-1200</v>
       </c>
       <c r="F27" s="3">
+        <v>-700</v>
+      </c>
+      <c r="G27" s="3">
         <v>2100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>1500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-6800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>2700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>1100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-2700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-2800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>3400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>1000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-7200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-2400</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-1100</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-200</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-2100</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1999,8 +2057,11 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2064,8 +2125,11 @@
       <c r="W29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2129,8 +2193,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2194,8 +2261,11 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2203,129 +2273,135 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
         <v>-400</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-2600</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-2000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>5700</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-3200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-1700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>2100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-400</v>
-      </c>
-      <c r="N32" s="3">
-        <v>1300</v>
       </c>
       <c r="O32" s="3">
         <v>1300</v>
       </c>
       <c r="P32" s="3">
+        <v>1300</v>
+      </c>
+      <c r="Q32" s="3">
         <v>-4200</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-1700</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>6100</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>700</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>200</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-600</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>600</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>4</v>
+      <c r="D33" s="3">
+        <v>-100</v>
       </c>
       <c r="E33" s="3">
-        <v>-600</v>
+        <v>-1200</v>
       </c>
       <c r="F33" s="3">
+        <v>-700</v>
+      </c>
+      <c r="G33" s="3">
         <v>2100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>1500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-6800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>2700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>1100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-2700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-2800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>3400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>1000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-7200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-2400</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-1100</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-200</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-2100</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2389,143 +2465,152 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>4</v>
+      <c r="D35" s="3">
+        <v>-100</v>
       </c>
       <c r="E35" s="3">
-        <v>-600</v>
+        <v>-1200</v>
       </c>
       <c r="F35" s="3">
+        <v>-700</v>
+      </c>
+      <c r="G35" s="3">
         <v>2100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>1500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-6800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>2700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>1100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-2700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-2800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>3400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>1000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-7200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-2400</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-1100</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-200</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-2100</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43008</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42916</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42825</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42735</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2549,8 +2634,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2574,35 +2660,36 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>500</v>
+      </c>
+      <c r="E41" s="3">
         <v>900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>800</v>
       </c>
-      <c r="I41" s="3">
-        <v>0</v>
-      </c>
       <c r="J41" s="3">
+        <v>0</v>
+      </c>
+      <c r="K41" s="3">
         <v>900</v>
       </c>
-      <c r="K41" s="3">
-        <v>0</v>
-      </c>
       <c r="L41" s="3">
         <v>0</v>
       </c>
@@ -2613,23 +2700,23 @@
         <v>0</v>
       </c>
       <c r="O41" s="3">
+        <v>0</v>
+      </c>
+      <c r="P41" s="3">
         <v>100</v>
       </c>
-      <c r="P41" s="3">
-        <v>0</v>
-      </c>
       <c r="Q41" s="3">
+        <v>0</v>
+      </c>
+      <c r="R41" s="3">
         <v>100</v>
       </c>
-      <c r="R41" s="3">
-        <v>0</v>
-      </c>
       <c r="S41" s="3">
+        <v>0</v>
+      </c>
+      <c r="T41" s="3">
         <v>100</v>
       </c>
-      <c r="T41" s="3">
-        <v>0</v>
-      </c>
       <c r="U41" s="3">
         <v>0</v>
       </c>
@@ -2639,8 +2726,11 @@
       <c r="W41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2704,8 +2794,11 @@
       <c r="W42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2725,11 +2818,11 @@
         <v>0</v>
       </c>
       <c r="I43" s="3">
+        <v>0</v>
+      </c>
+      <c r="J43" s="3">
         <v>100</v>
       </c>
-      <c r="J43" s="3">
-        <v>0</v>
-      </c>
       <c r="K43" s="3">
         <v>0</v>
       </c>
@@ -2767,10 +2860,13 @@
         <v>0</v>
       </c>
       <c r="W43" s="3">
+        <v>0</v>
+      </c>
+      <c r="X43" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2784,7 +2880,7 @@
         <v>600</v>
       </c>
       <c r="G44" s="3">
-        <v>100</v>
+        <v>600</v>
       </c>
       <c r="H44" s="3">
         <v>100</v>
@@ -2793,7 +2889,7 @@
         <v>100</v>
       </c>
       <c r="J44" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K44" s="3">
         <v>0</v>
@@ -2802,13 +2898,13 @@
         <v>0</v>
       </c>
       <c r="M44" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N44" s="3">
         <v>100</v>
       </c>
       <c r="O44" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="P44" s="3">
         <v>300</v>
@@ -2817,13 +2913,13 @@
         <v>300</v>
       </c>
       <c r="R44" s="3">
+        <v>300</v>
+      </c>
+      <c r="S44" s="3">
         <v>200</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>600</v>
-      </c>
-      <c r="T44" s="3">
-        <v>800</v>
       </c>
       <c r="U44" s="3">
         <v>800</v>
@@ -2832,140 +2928,149 @@
         <v>800</v>
       </c>
       <c r="W44" s="3">
+        <v>800</v>
+      </c>
+      <c r="X44" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>200</v>
+      </c>
+      <c r="E45" s="3">
         <v>100</v>
       </c>
-      <c r="E45" s="3">
-        <v>0</v>
-      </c>
       <c r="F45" s="3">
+        <v>0</v>
+      </c>
+      <c r="G45" s="3">
         <v>100</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>600</v>
       </c>
-      <c r="H45" s="3">
-        <v>0</v>
-      </c>
       <c r="I45" s="3">
         <v>0</v>
       </c>
       <c r="J45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K45" s="3">
         <v>100</v>
       </c>
       <c r="L45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M45" s="3">
         <v>0</v>
       </c>
       <c r="N45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O45" s="3">
         <v>100</v>
       </c>
       <c r="P45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R45" s="3">
         <v>100</v>
       </c>
       <c r="S45" s="3">
+        <v>100</v>
+      </c>
+      <c r="T45" s="3">
         <v>200</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>400</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>200</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>300</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E46" s="3">
         <v>1600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>900</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>100</v>
-      </c>
-      <c r="M46" s="3">
-        <v>200</v>
       </c>
       <c r="N46" s="3">
         <v>200</v>
       </c>
       <c r="O46" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="P46" s="3">
         <v>400</v>
       </c>
       <c r="Q46" s="3">
+        <v>400</v>
+      </c>
+      <c r="R46" s="3">
         <v>500</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>300</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>800</v>
-      </c>
-      <c r="T46" s="3">
-        <v>1100</v>
       </c>
       <c r="U46" s="3">
         <v>1100</v>
       </c>
       <c r="V46" s="3">
+        <v>1100</v>
+      </c>
+      <c r="W46" s="3">
         <v>1000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3029,8 +3134,11 @@
       <c r="W47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3041,10 +3149,10 @@
         <v>400</v>
       </c>
       <c r="F48" s="3">
+        <v>400</v>
+      </c>
+      <c r="G48" s="3">
         <v>500</v>
-      </c>
-      <c r="G48" s="3">
-        <v>100</v>
       </c>
       <c r="H48" s="3">
         <v>100</v>
@@ -3056,7 +3164,7 @@
         <v>100</v>
       </c>
       <c r="K48" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L48" s="3">
         <v>200</v>
@@ -3065,7 +3173,7 @@
         <v>200</v>
       </c>
       <c r="N48" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="O48" s="3">
         <v>0</v>
@@ -3080,7 +3188,7 @@
         <v>0</v>
       </c>
       <c r="S48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T48" s="3">
         <v>100</v>
@@ -3092,10 +3200,13 @@
         <v>100</v>
       </c>
       <c r="W48" s="3">
+        <v>100</v>
+      </c>
+      <c r="X48" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3159,8 +3270,11 @@
       <c r="W49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3224,8 +3338,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3289,8 +3406,11 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3337,13 +3457,13 @@
         <v>0</v>
       </c>
       <c r="R52" s="3">
+        <v>0</v>
+      </c>
+      <c r="S52" s="3">
         <v>100</v>
       </c>
-      <c r="S52" s="3">
-        <v>0</v>
-      </c>
       <c r="T52" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="U52" s="3">
         <v>300</v>
@@ -3352,10 +3472,13 @@
         <v>300</v>
       </c>
       <c r="W52" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+        <v>300</v>
+      </c>
+      <c r="X52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3419,61 +3542,64 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E54" s="3">
         <v>2100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>2400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1200</v>
-      </c>
-      <c r="K54" s="3">
-        <v>300</v>
       </c>
       <c r="L54" s="3">
         <v>300</v>
       </c>
       <c r="M54" s="3">
+        <v>300</v>
+      </c>
+      <c r="N54" s="3">
         <v>400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>400</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>900</v>
-      </c>
-      <c r="T54" s="3">
-        <v>1500</v>
       </c>
       <c r="U54" s="3">
         <v>1500</v>
@@ -3482,10 +3608,13 @@
         <v>1500</v>
       </c>
       <c r="W54" s="3">
+        <v>1500</v>
+      </c>
+      <c r="X54" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3509,8 +3638,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3534,37 +3664,38 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E57" s="3">
         <v>2500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>2600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>2500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>2700</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>2900</v>
-      </c>
-      <c r="I57" s="3">
-        <v>3000</v>
       </c>
       <c r="J57" s="3">
         <v>3000</v>
       </c>
       <c r="K57" s="3">
+        <v>3000</v>
+      </c>
+      <c r="L57" s="3">
         <v>3100</v>
-      </c>
-      <c r="L57" s="3">
-        <v>3000</v>
       </c>
       <c r="M57" s="3">
         <v>3000</v>
@@ -3588,237 +3719,249 @@
         <v>3000</v>
       </c>
       <c r="T57" s="3">
+        <v>3000</v>
+      </c>
+      <c r="U57" s="3">
         <v>2900</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>2700</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>2600</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E58" s="3">
         <v>1300</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>1500</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>3300</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>2600</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>2700</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>3100</v>
-      </c>
-      <c r="J58" s="3">
-        <v>5300</v>
       </c>
       <c r="K58" s="3">
         <v>5300</v>
       </c>
       <c r="L58" s="3">
+        <v>5300</v>
+      </c>
+      <c r="M58" s="3">
         <v>5000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>5100</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>4800</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>4600</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>5100</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>4900</v>
-      </c>
-      <c r="R58" s="3">
-        <v>4600</v>
       </c>
       <c r="S58" s="3">
         <v>4600</v>
       </c>
       <c r="T58" s="3">
+        <v>4600</v>
+      </c>
+      <c r="U58" s="3">
         <v>4500</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>4200</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>4000</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>3500</v>
       </c>
     </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E59" s="3">
         <v>1900</v>
       </c>
-      <c r="E59" s="3">
-        <v>2000</v>
-      </c>
       <c r="F59" s="3">
+        <v>5100</v>
+      </c>
+      <c r="G59" s="3">
         <v>3100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>3000</v>
-      </c>
-      <c r="H59" s="3">
-        <v>3100</v>
       </c>
       <c r="I59" s="3">
         <v>3100</v>
       </c>
       <c r="J59" s="3">
+        <v>3100</v>
+      </c>
+      <c r="K59" s="3">
         <v>4100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>3200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>3700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>3600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>3200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>3100</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>4500</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>4400</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>4200</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>3800</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>3400</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>2800</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>2700</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>5100</v>
+      </c>
+      <c r="E60" s="3">
         <v>5700</v>
       </c>
-      <c r="E60" s="3">
-        <v>6100</v>
-      </c>
       <c r="F60" s="3">
+        <v>9200</v>
+      </c>
+      <c r="G60" s="3">
         <v>9000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>8300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>8600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>9200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>12400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>11600</v>
-      </c>
-      <c r="L60" s="3">
-        <v>11700</v>
       </c>
       <c r="M60" s="3">
         <v>11700</v>
       </c>
       <c r="N60" s="3">
+        <v>11700</v>
+      </c>
+      <c r="O60" s="3">
         <v>11000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>10700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>12600</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>12200</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>11800</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>11400</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>10800</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>9700</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>9300</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>8500</v>
       </c>
     </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E61" s="3">
         <v>1300</v>
-      </c>
-      <c r="E61" s="3">
-        <v>600</v>
       </c>
       <c r="F61" s="3">
         <v>600</v>
       </c>
       <c r="G61" s="3">
+        <v>600</v>
+      </c>
+      <c r="H61" s="3">
         <v>1300</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>1200</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>700</v>
-      </c>
-      <c r="J61" s="3">
-        <v>600</v>
       </c>
       <c r="K61" s="3">
         <v>600</v>
@@ -3827,17 +3970,17 @@
         <v>600</v>
       </c>
       <c r="M61" s="3">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="N61" s="3">
         <v>300</v>
       </c>
       <c r="O61" s="3">
+        <v>300</v>
+      </c>
+      <c r="P61" s="3">
         <v>600</v>
       </c>
-      <c r="P61" s="3">
-        <v>0</v>
-      </c>
       <c r="Q61" s="3">
         <v>0</v>
       </c>
@@ -3859,8 +4002,11 @@
       <c r="W61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3868,64 +4014,67 @@
         <v>400</v>
       </c>
       <c r="E62" s="3">
+        <v>400</v>
+      </c>
+      <c r="F62" s="3">
         <v>500</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>2600</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>5600</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>7600</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>1800</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>5100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>6200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>6600</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>4400</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>4700</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>3400</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>2100</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>6300</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>8000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>1800</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>1100</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>800</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>1400</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3989,8 +4138,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4054,8 +4206,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4119,73 +4274,79 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>6800</v>
+      </c>
+      <c r="E66" s="3">
         <v>7400</v>
       </c>
-      <c r="E66" s="3">
-        <v>7200</v>
-      </c>
       <c r="F66" s="3">
+        <v>10300</v>
+      </c>
+      <c r="G66" s="3">
         <v>12200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>15100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>17400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>11700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>18100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>18400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>18800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>16400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>16100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>14700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>14600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>18500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>19800</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>13300</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>11900</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>10500</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>10800</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>9400</v>
       </c>
     </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4209,8 +4370,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4274,8 +4436,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4339,31 +4504,34 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>0</v>
+        <v>6900</v>
       </c>
       <c r="E70" s="3">
         <v>6900</v>
       </c>
       <c r="F70" s="3">
+        <v>3900</v>
+      </c>
+      <c r="G70" s="3">
         <v>2700</v>
       </c>
-      <c r="G70" s="3">
+      <c r="H70" s="3">
         <v>2600</v>
       </c>
-      <c r="H70" s="3">
+      <c r="I70" s="3">
         <v>1900</v>
       </c>
-      <c r="I70" s="3">
+      <c r="J70" s="3">
         <v>1100</v>
-      </c>
-      <c r="J70" s="3">
-        <v>800</v>
       </c>
       <c r="K70" s="3">
         <v>800</v>
@@ -4384,28 +4552,31 @@
         <v>800</v>
       </c>
       <c r="Q70" s="3">
+        <v>800</v>
+      </c>
+      <c r="R70" s="3">
         <v>1000</v>
-      </c>
-      <c r="R70" s="3">
-        <v>1100</v>
       </c>
       <c r="S70" s="3">
         <v>1100</v>
       </c>
       <c r="T70" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="U70" s="3">
         <v>1200</v>
       </c>
       <c r="V70" s="3">
+        <v>1200</v>
+      </c>
+      <c r="W70" s="3">
         <v>1300</v>
       </c>
-      <c r="W70" s="3">
+      <c r="X70" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4469,73 +4640,79 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D72" s="3" t="s">
-        <v>4</v>
+      <c r="D72" s="3">
+        <v>-141900</v>
       </c>
       <c r="E72" s="3">
+        <v>-141800</v>
+      </c>
+      <c r="F72" s="3">
+        <v>-140600</v>
+      </c>
+      <c r="G72" s="3">
+        <v>-140000</v>
+      </c>
+      <c r="H72" s="3">
+        <v>-142100</v>
+      </c>
+      <c r="I72" s="3">
+        <v>-143600</v>
+      </c>
+      <c r="J72" s="3">
+        <v>-136800</v>
+      </c>
+      <c r="K72" s="3">
+        <v>-139600</v>
+      </c>
+      <c r="L72" s="3">
+        <v>-140600</v>
+      </c>
+      <c r="M72" s="3">
         <v>-140500</v>
       </c>
-      <c r="F72" s="3">
-        <v>-140000</v>
-      </c>
-      <c r="G72" s="3">
-        <v>-142100</v>
-      </c>
-      <c r="H72" s="3">
-        <v>-143600</v>
-      </c>
-      <c r="I72" s="3">
-        <v>-136800</v>
-      </c>
-      <c r="J72" s="3">
-        <v>-139600</v>
-      </c>
-      <c r="K72" s="3">
-        <v>-140600</v>
-      </c>
-      <c r="L72" s="3">
-        <v>-140500</v>
-      </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-137900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-137600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-134900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-134100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-137500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-138500</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-131300</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-128900</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-127800</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-127600</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-125500</v>
       </c>
     </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4599,8 +4776,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4664,8 +4844,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4729,73 +4912,79 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D76" s="3" t="s">
-        <v>4</v>
+      <c r="D76" s="3">
+        <v>-12000</v>
       </c>
       <c r="E76" s="3">
-        <v>-11800</v>
+        <v>-12200</v>
       </c>
       <c r="F76" s="3">
+        <v>-11900</v>
+      </c>
+      <c r="G76" s="3">
         <v>-13600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-16400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-18400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-12400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-17700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-18800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-19400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-16800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-16600</v>
-      </c>
-      <c r="O76" s="3">
-        <v>-15000</v>
       </c>
       <c r="P76" s="3">
         <v>-15000</v>
       </c>
       <c r="Q76" s="3">
+        <v>-15000</v>
+      </c>
+      <c r="R76" s="3">
         <v>-18900</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-20500</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-13500</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-11500</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>-10300</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>-10600</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>-8700</v>
       </c>
     </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4859,143 +5048,152 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43008</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42916</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42825</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42735</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>4</v>
+      <c r="D81" s="3">
+        <v>-100</v>
       </c>
       <c r="E81" s="3">
-        <v>-600</v>
+        <v>-1200</v>
       </c>
       <c r="F81" s="3">
+        <v>-700</v>
+      </c>
+      <c r="G81" s="3">
         <v>2100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>1500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-6800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>2700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>1100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-2700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-2800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>3400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>1000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-7200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-2400</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-1100</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-200</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-2100</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5019,8 +5217,9 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5067,11 +5266,11 @@
         <v>0</v>
       </c>
       <c r="R83" s="3">
+        <v>0</v>
+      </c>
+      <c r="S83" s="3">
         <v>100</v>
       </c>
-      <c r="S83" s="3">
-        <v>0</v>
-      </c>
       <c r="T83" s="3">
         <v>0</v>
       </c>
@@ -5079,13 +5278,16 @@
         <v>0</v>
       </c>
       <c r="V83" s="3">
+        <v>0</v>
+      </c>
+      <c r="W83" s="3">
         <v>100</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5149,8 +5351,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5214,8 +5419,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5279,8 +5487,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5344,8 +5555,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5409,8 +5623,11 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -5418,22 +5635,22 @@
         <v>-700</v>
       </c>
       <c r="E89" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="F89" s="3">
+        <v>300</v>
+      </c>
+      <c r="G89" s="3">
         <v>-300</v>
       </c>
-      <c r="F89" s="3">
-        <v>-300</v>
-      </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-500</v>
-      </c>
-      <c r="J89" s="3">
-        <v>-200</v>
       </c>
       <c r="K89" s="3">
         <v>-200</v>
@@ -5445,37 +5662,40 @@
         <v>-200</v>
       </c>
       <c r="N89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O89" s="3">
         <v>-300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-400</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-700</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-200</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>100</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-400</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-200</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5499,8 +5719,9 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5516,8 +5737,8 @@
       <c r="G91" s="3">
         <v>0</v>
       </c>
-      <c r="H91" s="3" t="s">
-        <v>4</v>
+      <c r="H91" s="3">
+        <v>0</v>
       </c>
       <c r="I91" s="3" t="s">
         <v>4</v>
@@ -5528,8 +5749,8 @@
       <c r="K91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L91" s="3">
-        <v>0</v>
+      <c r="L91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M91" s="3">
         <v>0</v>
@@ -5564,8 +5785,11 @@
       <c r="W91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5629,8 +5853,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5694,8 +5921,11 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5711,8 +5941,8 @@
       <c r="G94" s="3">
         <v>0</v>
       </c>
-      <c r="H94" s="3" t="s">
-        <v>4</v>
+      <c r="H94" s="3">
+        <v>0</v>
       </c>
       <c r="I94" s="3" t="s">
         <v>4</v>
@@ -5723,8 +5953,8 @@
       <c r="K94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L94" s="3">
-        <v>0</v>
+      <c r="L94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M94" s="3">
         <v>0</v>
@@ -5759,8 +5989,11 @@
       <c r="W94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5784,8 +6017,9 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5849,8 +6083,11 @@
       <c r="W96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5914,8 +6151,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5979,8 +6219,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6044,8 +6287,11 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -6053,25 +6299,25 @@
         <v>400</v>
       </c>
       <c r="E100" s="3">
-        <v>1400</v>
+        <v>1000</v>
       </c>
       <c r="F100" s="3">
+        <v>800</v>
+      </c>
+      <c r="G100" s="3">
         <v>-100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>1200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>1100</v>
-      </c>
-      <c r="K100" s="3">
-        <v>200</v>
       </c>
       <c r="L100" s="3">
         <v>200</v>
@@ -6083,34 +6329,37 @@
         <v>200</v>
       </c>
       <c r="O100" s="3">
+        <v>200</v>
+      </c>
+      <c r="P100" s="3">
         <v>400</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>500</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>600</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>300</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-100</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>400</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>200</v>
       </c>
-      <c r="W100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6174,35 +6423,38 @@
       <c r="W101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E102" s="3">
         <v>-300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>1100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-900</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>900</v>
       </c>
-      <c r="K102" s="3">
-        <v>0</v>
-      </c>
       <c r="L102" s="3">
         <v>0</v>
       </c>
@@ -6210,26 +6462,26 @@
         <v>0</v>
       </c>
       <c r="N102" s="3">
+        <v>0</v>
+      </c>
+      <c r="O102" s="3">
         <v>-100</v>
       </c>
-      <c r="O102" s="3">
-        <v>0</v>
-      </c>
       <c r="P102" s="3">
         <v>0</v>
       </c>
       <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
         <v>100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>100</v>
       </c>
-      <c r="T102" s="3">
-        <v>0</v>
-      </c>
       <c r="U102" s="3">
         <v>0</v>
       </c>
@@ -6237,6 +6489,9 @@
         <v>0</v>
       </c>
       <c r="W102" s="3">
+        <v>0</v>
+      </c>
+      <c r="X102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/GTHP_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GTHP_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="92">
   <si>
     <t>GTHP</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,109 +665,112 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43100</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43008</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42916</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42825</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42735</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>4</v>
+      <c r="D8" s="3">
+        <v>100</v>
       </c>
       <c r="E8" s="3">
         <v>0</v>
@@ -779,11 +782,11 @@
         <v>0</v>
       </c>
       <c r="H8" s="3">
+        <v>0</v>
+      </c>
+      <c r="I8" s="3">
         <v>100</v>
       </c>
-      <c r="I8" s="3">
-        <v>0</v>
-      </c>
       <c r="J8" s="3">
         <v>0</v>
       </c>
@@ -812,161 +815,170 @@
         <v>0</v>
       </c>
       <c r="S8" s="3">
+        <v>0</v>
+      </c>
+      <c r="T8" s="3">
         <v>100</v>
       </c>
-      <c r="T8" s="3">
-        <v>0</v>
-      </c>
       <c r="U8" s="3">
+        <v>0</v>
+      </c>
+      <c r="V8" s="3">
         <v>100</v>
       </c>
-      <c r="V8" s="3">
-        <v>0</v>
-      </c>
       <c r="W8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X8" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y8" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
         <v>0</v>
       </c>
-      <c r="E9" s="3" t="s">
-        <v>4</v>
+      <c r="E9" s="3">
+        <v>0</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G9" s="3">
+      <c r="G9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H9" s="3">
         <v>-100</v>
       </c>
-      <c r="H9" s="3">
-        <v>0</v>
-      </c>
       <c r="I9" s="3">
         <v>0</v>
       </c>
-      <c r="J9" s="3" t="s">
+      <c r="J9" s="3">
+        <v>0</v>
+      </c>
+      <c r="K9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K9" s="3">
-        <v>0</v>
-      </c>
-      <c r="L9" s="3" t="s">
+      <c r="L9" s="3">
+        <v>0</v>
+      </c>
+      <c r="M9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>100</v>
       </c>
-      <c r="N9" s="3">
-        <v>0</v>
-      </c>
       <c r="O9" s="3">
+        <v>0</v>
+      </c>
+      <c r="P9" s="3">
         <v>100</v>
       </c>
-      <c r="P9" s="3" t="s">
+      <c r="Q9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q9" s="3">
-        <v>0</v>
-      </c>
       <c r="R9" s="3">
         <v>0</v>
       </c>
       <c r="S9" s="3">
+        <v>0</v>
+      </c>
+      <c r="T9" s="3">
         <v>300</v>
-      </c>
-      <c r="T9" s="3">
-        <v>100</v>
       </c>
       <c r="U9" s="3">
         <v>100</v>
       </c>
       <c r="V9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W9" s="3">
+        <v>0</v>
+      </c>
+      <c r="X9" s="3">
         <v>300</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>4</v>
+      <c r="D10" s="3">
+        <v>100</v>
+      </c>
+      <c r="E10" s="3">
+        <v>0</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G10" s="3">
-        <v>100</v>
+      <c r="G10" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H10" s="3">
         <v>100</v>
       </c>
       <c r="I10" s="3">
-        <v>0</v>
-      </c>
-      <c r="J10" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="J10" s="3">
+        <v>0</v>
+      </c>
+      <c r="K10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K10" s="3">
-        <v>0</v>
-      </c>
-      <c r="L10" s="3" t="s">
+      <c r="L10" s="3">
+        <v>0</v>
+      </c>
+      <c r="M10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>-100</v>
       </c>
-      <c r="N10" s="3">
-        <v>0</v>
-      </c>
       <c r="O10" s="3">
+        <v>0</v>
+      </c>
+      <c r="P10" s="3">
         <v>-100</v>
       </c>
-      <c r="P10" s="3" t="s">
+      <c r="Q10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q10" s="3">
-        <v>0</v>
-      </c>
       <c r="R10" s="3">
         <v>0</v>
       </c>
       <c r="S10" s="3">
+        <v>0</v>
+      </c>
+      <c r="T10" s="3">
         <v>-200</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>-100</v>
       </c>
-      <c r="U10" s="3">
-        <v>0</v>
-      </c>
       <c r="V10" s="3">
         <v>0</v>
       </c>
       <c r="W10" s="3">
+        <v>0</v>
+      </c>
+      <c r="X10" s="3">
         <v>-200</v>
       </c>
-      <c r="X10" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -991,8 +1003,9 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1012,11 +1025,11 @@
         <v>0</v>
       </c>
       <c r="I12" s="3">
+        <v>0</v>
+      </c>
+      <c r="J12" s="3">
         <v>100</v>
       </c>
-      <c r="J12" s="3">
-        <v>0</v>
-      </c>
       <c r="K12" s="3">
         <v>0</v>
       </c>
@@ -1030,13 +1043,13 @@
         <v>0</v>
       </c>
       <c r="O12" s="3">
+        <v>0</v>
+      </c>
+      <c r="P12" s="3">
         <v>100</v>
       </c>
-      <c r="P12" s="3">
-        <v>0</v>
-      </c>
       <c r="Q12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R12" s="3">
         <v>100</v>
@@ -1054,13 +1067,16 @@
         <v>100</v>
       </c>
       <c r="W12" s="3">
+        <v>100</v>
+      </c>
+      <c r="X12" s="3">
         <v>200</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1127,20 +1143,23 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
         <v>-800</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>200</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
       <c r="G14" s="3">
         <v>0</v>
       </c>
@@ -1148,31 +1167,31 @@
         <v>0</v>
       </c>
       <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
         <v>300</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
       <c r="K14" s="3">
         <v>0</v>
       </c>
       <c r="L14" s="3">
         <v>0</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>4</v>
+      <c r="M14" s="3">
+        <v>0</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
+      <c r="O14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
         <v>-1000</v>
-      </c>
-      <c r="Q14" s="3" t="s">
-        <v>4</v>
       </c>
       <c r="R14" s="3" t="s">
         <v>4</v>
@@ -1183,8 +1202,8 @@
       <c r="T14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U14" s="3">
-        <v>0</v>
+      <c r="U14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V14" s="3">
         <v>0</v>
@@ -1195,8 +1214,11 @@
       <c r="X14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1263,8 +1285,11 @@
       <c r="X15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1286,31 +1311,32 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>500</v>
+      </c>
+      <c r="E17" s="3">
         <v>-300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>700</v>
-      </c>
-      <c r="J17" s="3">
-        <v>200</v>
       </c>
       <c r="K17" s="3">
         <v>200</v>
@@ -1319,66 +1345,69 @@
         <v>200</v>
       </c>
       <c r="M17" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N17" s="3">
         <v>300</v>
       </c>
       <c r="O17" s="3">
+        <v>300</v>
+      </c>
+      <c r="P17" s="3">
         <v>500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>-800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>400</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>800</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1400</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>600</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>500</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>1200</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>4</v>
+      <c r="D18" s="3">
+        <v>-400</v>
       </c>
       <c r="E18" s="3">
+        <v>300</v>
+      </c>
+      <c r="F18" s="3">
         <v>-700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-700</v>
-      </c>
-      <c r="J18" s="3">
-        <v>-200</v>
       </c>
       <c r="K18" s="3">
         <v>-200</v>
@@ -1387,43 +1416,46 @@
         <v>-200</v>
       </c>
       <c r="M18" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="N18" s="3">
         <v>-300</v>
       </c>
       <c r="O18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="P18" s="3">
         <v>-500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-500</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-400</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-700</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-1400</v>
-      </c>
-      <c r="U18" s="3">
-        <v>-500</v>
       </c>
       <c r="V18" s="3">
         <v>-500</v>
       </c>
       <c r="W18" s="3">
+        <v>-500</v>
+      </c>
+      <c r="X18" s="3">
         <v>-1100</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1448,161 +1480,168 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>4</v>
+      <c r="D20" s="3">
+        <v>100</v>
       </c>
       <c r="E20" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>400</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>2600</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>2000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-5700</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>3200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>1700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>400</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-2100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>400</v>
-      </c>
-      <c r="O20" s="3">
-        <v>-1300</v>
       </c>
       <c r="P20" s="3">
         <v>-1300</v>
       </c>
       <c r="Q20" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="R20" s="3">
         <v>4200</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>1700</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-6100</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-700</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-200</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>600</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-600</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>4</v>
+      <c r="D21" s="3">
+        <v>-300</v>
       </c>
       <c r="E21" s="3">
+        <v>700</v>
+      </c>
+      <c r="F21" s="3">
         <v>-700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>2300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>1900</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-6400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>3000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-2400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-1800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-500</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>3700</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>1300</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-6700</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-2100</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-700</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>100</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-1600</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>100</v>
+      </c>
+      <c r="E22" s="3">
         <v>600</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>300</v>
-      </c>
-      <c r="F22" s="3">
-        <v>100</v>
       </c>
       <c r="G22" s="3">
         <v>100</v>
       </c>
       <c r="H22" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="I22" s="3">
         <v>300</v>
@@ -1611,31 +1650,31 @@
         <v>300</v>
       </c>
       <c r="K22" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="L22" s="3">
         <v>400</v>
       </c>
       <c r="M22" s="3">
+        <v>400</v>
+      </c>
+      <c r="N22" s="3">
         <v>300</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>400</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>1000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>200</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>300</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>200</v>
-      </c>
-      <c r="S22" s="3">
-        <v>300</v>
       </c>
       <c r="T22" s="3">
         <v>300</v>
@@ -1644,84 +1683,90 @@
         <v>300</v>
       </c>
       <c r="V22" s="3">
+        <v>300</v>
+      </c>
+      <c r="W22" s="3">
         <v>200</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>300</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E23" s="3">
         <v>100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-1000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>2200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>1600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-6700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>2700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-2700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-2700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>3400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>1100</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-7200</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-2400</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-1100</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-100</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-2000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1788,8 +1833,11 @@
       <c r="X24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1856,144 +1904,153 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E26" s="3">
         <v>100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-1000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>2200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>1600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-6700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>2700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-2700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-2700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>3400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>1100</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-7200</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-2400</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-1100</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-100</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-2000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E27" s="3">
         <v>-100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-1200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>2100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>1500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-6800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>2700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-2700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-2800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>3400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>1000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-7200</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-2400</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-1100</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-200</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-2100</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2060,8 +2117,11 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2128,8 +2188,11 @@
       <c r="X29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2196,8 +2259,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2264,144 +2330,153 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>4</v>
+      <c r="D32" s="3">
+        <v>-100</v>
       </c>
       <c r="E32" s="3">
-        <v>0</v>
+        <v>-400</v>
       </c>
       <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>-400</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-2600</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-2000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>5700</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-3200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-1700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-400</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>2100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-400</v>
-      </c>
-      <c r="O32" s="3">
-        <v>1300</v>
       </c>
       <c r="P32" s="3">
         <v>1300</v>
       </c>
       <c r="Q32" s="3">
+        <v>1300</v>
+      </c>
+      <c r="R32" s="3">
         <v>-4200</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-1700</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>6100</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>700</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>200</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-600</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>600</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E33" s="3">
         <v>-100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-1200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>2100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>1500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-6800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>2700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-2700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-2800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>3400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>1000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-7200</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-2400</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-1100</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-200</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-2100</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2468,149 +2543,158 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E35" s="3">
         <v>-100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-1200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>2100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>1500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-6800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>2700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-2700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-2800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>3400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>1000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-7200</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-2400</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-1100</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-200</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-2100</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43100</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43008</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42916</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42825</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42735</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2635,8 +2719,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2661,38 +2746,39 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>600</v>
+      </c>
+      <c r="E41" s="3">
         <v>500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>800</v>
       </c>
-      <c r="J41" s="3">
-        <v>0</v>
-      </c>
       <c r="K41" s="3">
+        <v>0</v>
+      </c>
+      <c r="L41" s="3">
         <v>900</v>
       </c>
-      <c r="L41" s="3">
-        <v>0</v>
-      </c>
       <c r="M41" s="3">
         <v>0</v>
       </c>
@@ -2703,23 +2789,23 @@
         <v>0</v>
       </c>
       <c r="P41" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="3">
         <v>100</v>
       </c>
-      <c r="Q41" s="3">
-        <v>0</v>
-      </c>
       <c r="R41" s="3">
+        <v>0</v>
+      </c>
+      <c r="S41" s="3">
         <v>100</v>
       </c>
-      <c r="S41" s="3">
-        <v>0</v>
-      </c>
       <c r="T41" s="3">
+        <v>0</v>
+      </c>
+      <c r="U41" s="3">
         <v>100</v>
       </c>
-      <c r="U41" s="3">
-        <v>0</v>
-      </c>
       <c r="V41" s="3">
         <v>0</v>
       </c>
@@ -2729,8 +2815,11 @@
       <c r="X41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2797,8 +2886,11 @@
       <c r="X42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2821,11 +2913,11 @@
         <v>0</v>
       </c>
       <c r="J43" s="3">
+        <v>0</v>
+      </c>
+      <c r="K43" s="3">
         <v>100</v>
       </c>
-      <c r="K43" s="3">
-        <v>0</v>
-      </c>
       <c r="L43" s="3">
         <v>0</v>
       </c>
@@ -2863,10 +2955,13 @@
         <v>0</v>
       </c>
       <c r="X43" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y43" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2883,7 +2978,7 @@
         <v>600</v>
       </c>
       <c r="H44" s="3">
-        <v>100</v>
+        <v>600</v>
       </c>
       <c r="I44" s="3">
         <v>100</v>
@@ -2892,7 +2987,7 @@
         <v>100</v>
       </c>
       <c r="K44" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L44" s="3">
         <v>0</v>
@@ -2901,13 +2996,13 @@
         <v>0</v>
       </c>
       <c r="N44" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O44" s="3">
         <v>100</v>
       </c>
       <c r="P44" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="Q44" s="3">
         <v>300</v>
@@ -2916,13 +3011,13 @@
         <v>300</v>
       </c>
       <c r="S44" s="3">
+        <v>300</v>
+      </c>
+      <c r="T44" s="3">
         <v>200</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>600</v>
-      </c>
-      <c r="U44" s="3">
-        <v>800</v>
       </c>
       <c r="V44" s="3">
         <v>800</v>
@@ -2931,146 +3026,155 @@
         <v>800</v>
       </c>
       <c r="X44" s="3">
+        <v>800</v>
+      </c>
+      <c r="Y44" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>400</v>
+      </c>
+      <c r="E45" s="3">
         <v>200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>100</v>
       </c>
-      <c r="F45" s="3">
-        <v>0</v>
-      </c>
       <c r="G45" s="3">
+        <v>0</v>
+      </c>
+      <c r="H45" s="3">
         <v>100</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>600</v>
       </c>
-      <c r="I45" s="3">
-        <v>0</v>
-      </c>
       <c r="J45" s="3">
         <v>0</v>
       </c>
       <c r="K45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L45" s="3">
         <v>100</v>
       </c>
       <c r="M45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N45" s="3">
         <v>0</v>
       </c>
       <c r="O45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P45" s="3">
         <v>100</v>
       </c>
       <c r="Q45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S45" s="3">
         <v>100</v>
       </c>
       <c r="T45" s="3">
+        <v>100</v>
+      </c>
+      <c r="U45" s="3">
         <v>200</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>400</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>200</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>300</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E46" s="3">
         <v>1300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>100</v>
-      </c>
-      <c r="N46" s="3">
-        <v>200</v>
       </c>
       <c r="O46" s="3">
         <v>200</v>
       </c>
       <c r="P46" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="Q46" s="3">
         <v>400</v>
       </c>
       <c r="R46" s="3">
+        <v>400</v>
+      </c>
+      <c r="S46" s="3">
         <v>500</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>300</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>800</v>
-      </c>
-      <c r="U46" s="3">
-        <v>1100</v>
       </c>
       <c r="V46" s="3">
         <v>1100</v>
       </c>
       <c r="W46" s="3">
+        <v>1100</v>
+      </c>
+      <c r="X46" s="3">
         <v>1000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3137,8 +3241,11 @@
       <c r="X47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3152,10 +3259,10 @@
         <v>400</v>
       </c>
       <c r="G48" s="3">
+        <v>400</v>
+      </c>
+      <c r="H48" s="3">
         <v>500</v>
-      </c>
-      <c r="H48" s="3">
-        <v>100</v>
       </c>
       <c r="I48" s="3">
         <v>100</v>
@@ -3167,7 +3274,7 @@
         <v>100</v>
       </c>
       <c r="L48" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="M48" s="3">
         <v>200</v>
@@ -3176,7 +3283,7 @@
         <v>200</v>
       </c>
       <c r="O48" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="P48" s="3">
         <v>0</v>
@@ -3191,7 +3298,7 @@
         <v>0</v>
       </c>
       <c r="T48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U48" s="3">
         <v>100</v>
@@ -3203,10 +3310,13 @@
         <v>100</v>
       </c>
       <c r="X48" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y48" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3273,8 +3383,11 @@
       <c r="X49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3341,8 +3454,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3409,8 +3525,11 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3460,13 +3579,13 @@
         <v>0</v>
       </c>
       <c r="S52" s="3">
+        <v>0</v>
+      </c>
+      <c r="T52" s="3">
         <v>100</v>
       </c>
-      <c r="T52" s="3">
-        <v>0</v>
-      </c>
       <c r="U52" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="V52" s="3">
         <v>300</v>
@@ -3475,10 +3594,13 @@
         <v>300</v>
       </c>
       <c r="X52" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+        <v>300</v>
+      </c>
+      <c r="Y52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3545,64 +3667,67 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E54" s="3">
         <v>1700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>2100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>2400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1200</v>
-      </c>
-      <c r="L54" s="3">
-        <v>300</v>
       </c>
       <c r="M54" s="3">
         <v>300</v>
       </c>
       <c r="N54" s="3">
+        <v>300</v>
+      </c>
+      <c r="O54" s="3">
         <v>400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>500</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>400</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>900</v>
-      </c>
-      <c r="U54" s="3">
-        <v>1500</v>
       </c>
       <c r="V54" s="3">
         <v>1500</v>
@@ -3611,10 +3736,13 @@
         <v>1500</v>
       </c>
       <c r="X54" s="3">
+        <v>1500</v>
+      </c>
+      <c r="Y54" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3639,8 +3767,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3665,40 +3794,41 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E57" s="3">
         <v>2300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>2500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>2600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>2500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>2700</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>2900</v>
-      </c>
-      <c r="J57" s="3">
-        <v>3000</v>
       </c>
       <c r="K57" s="3">
         <v>3000</v>
       </c>
       <c r="L57" s="3">
+        <v>3000</v>
+      </c>
+      <c r="M57" s="3">
         <v>3100</v>
-      </c>
-      <c r="M57" s="3">
-        <v>3000</v>
       </c>
       <c r="N57" s="3">
         <v>3000</v>
@@ -3722,223 +3852,235 @@
         <v>3000</v>
       </c>
       <c r="U57" s="3">
+        <v>3000</v>
+      </c>
+      <c r="V57" s="3">
         <v>2900</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>2700</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>2600</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E58" s="3">
         <v>1000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>1300</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>1500</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>3300</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>2600</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>2700</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>3100</v>
-      </c>
-      <c r="K58" s="3">
-        <v>5300</v>
       </c>
       <c r="L58" s="3">
         <v>5300</v>
       </c>
       <c r="M58" s="3">
+        <v>5300</v>
+      </c>
+      <c r="N58" s="3">
         <v>5000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>5100</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>4800</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>4600</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>5100</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>4900</v>
-      </c>
-      <c r="S58" s="3">
-        <v>4600</v>
       </c>
       <c r="T58" s="3">
         <v>4600</v>
       </c>
       <c r="U58" s="3">
+        <v>4600</v>
+      </c>
+      <c r="V58" s="3">
         <v>4500</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>4200</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>4000</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>3500</v>
       </c>
     </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E59" s="3">
         <v>1700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>5100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>3100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>3000</v>
-      </c>
-      <c r="I59" s="3">
-        <v>3100</v>
       </c>
       <c r="J59" s="3">
         <v>3100</v>
       </c>
       <c r="K59" s="3">
+        <v>3100</v>
+      </c>
+      <c r="L59" s="3">
         <v>4100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>3200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>3700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>3600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>3200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>3100</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>4500</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>4400</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>4200</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>3800</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>3400</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>2800</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>2700</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>5700</v>
+      </c>
+      <c r="E60" s="3">
         <v>5100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>5700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>9200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>9000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>8300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>8600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>9200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>12400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>11600</v>
-      </c>
-      <c r="M60" s="3">
-        <v>11700</v>
       </c>
       <c r="N60" s="3">
         <v>11700</v>
       </c>
       <c r="O60" s="3">
+        <v>11700</v>
+      </c>
+      <c r="P60" s="3">
         <v>11000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>10700</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>12600</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>12200</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>11800</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>11400</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>10800</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>9700</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>9300</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>8500</v>
       </c>
     </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3946,25 +4088,25 @@
         <v>1400</v>
       </c>
       <c r="E61" s="3">
+        <v>1400</v>
+      </c>
+      <c r="F61" s="3">
         <v>1300</v>
-      </c>
-      <c r="F61" s="3">
-        <v>600</v>
       </c>
       <c r="G61" s="3">
         <v>600</v>
       </c>
       <c r="H61" s="3">
+        <v>600</v>
+      </c>
+      <c r="I61" s="3">
         <v>1300</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>1200</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>700</v>
-      </c>
-      <c r="K61" s="3">
-        <v>600</v>
       </c>
       <c r="L61" s="3">
         <v>600</v>
@@ -3973,17 +4115,17 @@
         <v>600</v>
       </c>
       <c r="N61" s="3">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="O61" s="3">
         <v>300</v>
       </c>
       <c r="P61" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q61" s="3">
         <v>600</v>
       </c>
-      <c r="Q61" s="3">
-        <v>0</v>
-      </c>
       <c r="R61" s="3">
         <v>0</v>
       </c>
@@ -4005,8 +4147,11 @@
       <c r="X61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4017,64 +4162,67 @@
         <v>400</v>
       </c>
       <c r="F62" s="3">
+        <v>400</v>
+      </c>
+      <c r="G62" s="3">
         <v>500</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>2600</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>5600</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>7600</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>1800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>5100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>6200</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>6600</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>4400</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>4700</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>3400</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>2100</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>6300</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>8000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>1800</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>1100</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>800</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>1400</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4141,8 +4289,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4209,8 +4360,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4277,76 +4431,82 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>7500</v>
+      </c>
+      <c r="E66" s="3">
         <v>6800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>7400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>10300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>12200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>15100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>17400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>11700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>18100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>18400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>18800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>16400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>16100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>14700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>14600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>18500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>19800</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>13300</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>11900</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>10500</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>10800</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>9400</v>
       </c>
     </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4371,8 +4531,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4439,8 +4600,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4507,8 +4671,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4519,22 +4686,22 @@
         <v>6900</v>
       </c>
       <c r="F70" s="3">
+        <v>6900</v>
+      </c>
+      <c r="G70" s="3">
         <v>3900</v>
       </c>
-      <c r="G70" s="3">
+      <c r="H70" s="3">
         <v>2700</v>
       </c>
-      <c r="H70" s="3">
+      <c r="I70" s="3">
         <v>2600</v>
       </c>
-      <c r="I70" s="3">
+      <c r="J70" s="3">
         <v>1900</v>
       </c>
-      <c r="J70" s="3">
+      <c r="K70" s="3">
         <v>1100</v>
-      </c>
-      <c r="K70" s="3">
-        <v>800</v>
       </c>
       <c r="L70" s="3">
         <v>800</v>
@@ -4555,28 +4722,31 @@
         <v>800</v>
       </c>
       <c r="R70" s="3">
+        <v>800</v>
+      </c>
+      <c r="S70" s="3">
         <v>1000</v>
-      </c>
-      <c r="S70" s="3">
-        <v>1100</v>
       </c>
       <c r="T70" s="3">
         <v>1100</v>
       </c>
       <c r="U70" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="V70" s="3">
         <v>1200</v>
       </c>
       <c r="W70" s="3">
+        <v>1200</v>
+      </c>
+      <c r="X70" s="3">
         <v>1300</v>
       </c>
-      <c r="X70" s="3">
+      <c r="Y70" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4643,76 +4813,82 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-142400</v>
+      </c>
+      <c r="E72" s="3">
         <v>-141900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-141800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-140600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-140000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-142100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-143600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-136800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-139600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-140600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-140500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-137900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-137600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-134900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-134100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-137500</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-138500</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-131300</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-128900</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-127800</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-127600</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-125500</v>
       </c>
     </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4779,8 +4955,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4847,8 +5026,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4915,76 +5097,82 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-12300</v>
+      </c>
+      <c r="E76" s="3">
         <v>-12000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-12200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-11900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-13600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-16400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-18400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-12400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-17700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-18800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-19400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-16800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-16600</v>
-      </c>
-      <c r="P76" s="3">
-        <v>-15000</v>
       </c>
       <c r="Q76" s="3">
         <v>-15000</v>
       </c>
       <c r="R76" s="3">
+        <v>-15000</v>
+      </c>
+      <c r="S76" s="3">
         <v>-18900</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-20500</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-13500</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>-11500</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>-10300</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>-10600</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>-8700</v>
       </c>
     </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5051,149 +5239,158 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43100</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43008</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42916</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42825</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42735</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E81" s="3">
         <v>-100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-1200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>2100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>1500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-6800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>2700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-2700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-2800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>3400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>1000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-7200</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-2400</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-1100</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-200</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-2100</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5218,8 +5415,9 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5269,11 +5467,11 @@
         <v>0</v>
       </c>
       <c r="S83" s="3">
+        <v>0</v>
+      </c>
+      <c r="T83" s="3">
         <v>100</v>
       </c>
-      <c r="T83" s="3">
-        <v>0</v>
-      </c>
       <c r="U83" s="3">
         <v>0</v>
       </c>
@@ -5281,13 +5479,16 @@
         <v>0</v>
       </c>
       <c r="W83" s="3">
+        <v>0</v>
+      </c>
+      <c r="X83" s="3">
         <v>100</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5354,8 +5555,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5422,8 +5626,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5490,8 +5697,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5558,8 +5768,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5626,34 +5839,37 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>200</v>
+      </c>
+      <c r="E89" s="3">
         <v>-700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-1300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-500</v>
-      </c>
-      <c r="K89" s="3">
-        <v>-200</v>
       </c>
       <c r="L89" s="3">
         <v>-200</v>
@@ -5665,37 +5881,40 @@
         <v>-200</v>
       </c>
       <c r="O89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="P89" s="3">
         <v>-300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-400</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-700</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-200</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>100</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-400</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-200</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5720,8 +5939,9 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5740,8 +5960,8 @@
       <c r="H91" s="3">
         <v>0</v>
       </c>
-      <c r="I91" s="3" t="s">
-        <v>4</v>
+      <c r="I91" s="3">
+        <v>0</v>
       </c>
       <c r="J91" s="3" t="s">
         <v>4</v>
@@ -5752,8 +5972,8 @@
       <c r="L91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M91" s="3">
-        <v>0</v>
+      <c r="M91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N91" s="3">
         <v>0</v>
@@ -5788,8 +6008,11 @@
       <c r="X91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5856,8 +6079,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5924,8 +6150,11 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5944,8 +6173,8 @@
       <c r="H94" s="3">
         <v>0</v>
       </c>
-      <c r="I94" s="3" t="s">
-        <v>4</v>
+      <c r="I94" s="3">
+        <v>0</v>
       </c>
       <c r="J94" s="3" t="s">
         <v>4</v>
@@ -5956,8 +6185,8 @@
       <c r="L94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M94" s="3">
-        <v>0</v>
+      <c r="M94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N94" s="3">
         <v>0</v>
@@ -5992,8 +6221,11 @@
       <c r="X94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6018,8 +6250,9 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6086,8 +6319,11 @@
       <c r="X96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6154,8 +6390,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6222,8 +6461,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6290,37 +6532,40 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E100" s="3">
         <v>400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>1000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>800</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>400</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>1200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>1100</v>
-      </c>
-      <c r="L100" s="3">
-        <v>200</v>
       </c>
       <c r="M100" s="3">
         <v>200</v>
@@ -6332,34 +6577,37 @@
         <v>200</v>
       </c>
       <c r="P100" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q100" s="3">
         <v>400</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>200</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>500</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>600</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>300</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-100</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>400</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>200</v>
       </c>
-      <c r="X100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6426,38 +6674,41 @@
       <c r="X101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>100</v>
+      </c>
+      <c r="E102" s="3">
         <v>-400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>1100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>900</v>
       </c>
-      <c r="L102" s="3">
-        <v>0</v>
-      </c>
       <c r="M102" s="3">
         <v>0</v>
       </c>
@@ -6465,26 +6716,26 @@
         <v>0</v>
       </c>
       <c r="O102" s="3">
+        <v>0</v>
+      </c>
+      <c r="P102" s="3">
         <v>-100</v>
       </c>
-      <c r="P102" s="3">
-        <v>0</v>
-      </c>
       <c r="Q102" s="3">
         <v>0</v>
       </c>
       <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
         <v>100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-100</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>100</v>
       </c>
-      <c r="U102" s="3">
-        <v>0</v>
-      </c>
       <c r="V102" s="3">
         <v>0</v>
       </c>
@@ -6492,6 +6743,9 @@
         <v>0</v>
       </c>
       <c r="X102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/GTHP_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GTHP_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="92">
   <si>
     <t>GTHP</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,119 +665,127 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43100</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43008</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>42916</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>42825</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>42735</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" s="3">
+        <v>0</v>
+      </c>
+      <c r="F8" s="3">
         <v>100</v>
       </c>
-      <c r="E8" s="3">
-        <v>0</v>
-      </c>
-      <c r="F8" s="3">
-        <v>0</v>
-      </c>
       <c r="G8" s="3">
         <v>0</v>
       </c>
@@ -785,14 +793,14 @@
         <v>0</v>
       </c>
       <c r="I8" s="3">
+        <v>0</v>
+      </c>
+      <c r="J8" s="3">
+        <v>0</v>
+      </c>
+      <c r="K8" s="3">
         <v>100</v>
       </c>
-      <c r="J8" s="3">
-        <v>0</v>
-      </c>
-      <c r="K8" s="3">
-        <v>0</v>
-      </c>
       <c r="L8" s="3">
         <v>0</v>
       </c>
@@ -818,7 +826,7 @@
         <v>0</v>
       </c>
       <c r="T8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U8" s="3">
         <v>0</v>
@@ -833,10 +841,16 @@
         <v>100</v>
       </c>
       <c r="Y8" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="AA8" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -846,23 +860,23 @@
       <c r="E9" s="3">
         <v>0</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="F9" s="3">
+        <v>0</v>
+      </c>
+      <c r="G9" s="3">
+        <v>0</v>
+      </c>
+      <c r="H9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G9" s="3" t="s">
+      <c r="I9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>-100</v>
       </c>
-      <c r="I9" s="3">
-        <v>0</v>
-      </c>
-      <c r="J9" s="3">
-        <v>0</v>
-      </c>
-      <c r="K9" s="3" t="s">
-        <v>4</v>
+      <c r="K9" s="3">
+        <v>0</v>
       </c>
       <c r="L9" s="3">
         <v>0</v>
@@ -871,69 +885,75 @@
         <v>4</v>
       </c>
       <c r="N9" s="3">
-        <v>100</v>
-      </c>
-      <c r="O9" s="3">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="O9" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P9" s="3">
         <v>100</v>
       </c>
-      <c r="Q9" s="3" t="s">
+      <c r="Q9" s="3">
+        <v>0</v>
+      </c>
+      <c r="R9" s="3">
+        <v>100</v>
+      </c>
+      <c r="S9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R9" s="3">
-        <v>0</v>
-      </c>
-      <c r="S9" s="3">
-        <v>0</v>
-      </c>
       <c r="T9" s="3">
+        <v>0</v>
+      </c>
+      <c r="U9" s="3">
+        <v>0</v>
+      </c>
+      <c r="V9" s="3">
         <v>300</v>
       </c>
-      <c r="U9" s="3">
+      <c r="W9" s="3">
         <v>100</v>
       </c>
-      <c r="V9" s="3">
+      <c r="X9" s="3">
         <v>100</v>
       </c>
-      <c r="W9" s="3">
-        <v>0</v>
-      </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="3">
         <v>300</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="AA9" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E10" s="3">
+        <v>0</v>
+      </c>
+      <c r="F10" s="3">
         <v>100</v>
       </c>
-      <c r="E10" s="3">
-        <v>0</v>
-      </c>
-      <c r="F10" s="3" t="s">
+      <c r="G10" s="3">
+        <v>0</v>
+      </c>
+      <c r="H10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G10" s="3" t="s">
+      <c r="I10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>100</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>100</v>
-      </c>
-      <c r="J10" s="3">
-        <v>0</v>
-      </c>
-      <c r="K10" s="3" t="s">
-        <v>4</v>
       </c>
       <c r="L10" s="3">
         <v>0</v>
@@ -942,43 +962,49 @@
         <v>4</v>
       </c>
       <c r="N10" s="3">
-        <v>-100</v>
-      </c>
-      <c r="O10" s="3">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="O10" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P10" s="3">
         <v>-100</v>
       </c>
-      <c r="Q10" s="3" t="s">
+      <c r="Q10" s="3">
+        <v>0</v>
+      </c>
+      <c r="R10" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R10" s="3">
-        <v>0</v>
-      </c>
-      <c r="S10" s="3">
-        <v>0</v>
-      </c>
       <c r="T10" s="3">
+        <v>0</v>
+      </c>
+      <c r="U10" s="3">
+        <v>0</v>
+      </c>
+      <c r="V10" s="3">
         <v>-200</v>
       </c>
-      <c r="U10" s="3">
+      <c r="W10" s="3">
         <v>-100</v>
       </c>
-      <c r="V10" s="3">
-        <v>0</v>
-      </c>
-      <c r="W10" s="3">
-        <v>0</v>
-      </c>
       <c r="X10" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="3">
         <v>-200</v>
       </c>
-      <c r="Y10" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="AA10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1004,8 +1030,10 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1028,14 +1056,14 @@
         <v>0</v>
       </c>
       <c r="J12" s="3">
+        <v>0</v>
+      </c>
+      <c r="K12" s="3">
+        <v>0</v>
+      </c>
+      <c r="L12" s="3">
         <v>100</v>
       </c>
-      <c r="K12" s="3">
-        <v>0</v>
-      </c>
-      <c r="L12" s="3">
-        <v>0</v>
-      </c>
       <c r="M12" s="3">
         <v>0</v>
       </c>
@@ -1046,7 +1074,7 @@
         <v>0</v>
       </c>
       <c r="P12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q12" s="3">
         <v>0</v>
@@ -1055,7 +1083,7 @@
         <v>100</v>
       </c>
       <c r="S12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T12" s="3">
         <v>100</v>
@@ -1070,13 +1098,19 @@
         <v>100</v>
       </c>
       <c r="X12" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Y12" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z12" s="3">
+        <v>200</v>
+      </c>
+      <c r="AA12" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1146,8 +1180,14 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1155,49 +1195,49 @@
         <v>0</v>
       </c>
       <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>-800</v>
       </c>
-      <c r="F14" s="3">
+      <c r="H14" s="3">
         <v>200</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
       <c r="I14" s="3">
         <v>0</v>
       </c>
       <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
         <v>300</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
       <c r="M14" s="3">
         <v>0</v>
       </c>
-      <c r="N14" s="3" t="s">
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O14" s="3" t="s">
+      <c r="Q14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
         <v>-1000</v>
-      </c>
-      <c r="R14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S14" s="3" t="s">
-        <v>4</v>
       </c>
       <c r="T14" s="3" t="s">
         <v>4</v>
@@ -1205,11 +1245,11 @@
       <c r="U14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V14" s="3">
-        <v>0</v>
-      </c>
-      <c r="W14" s="3">
-        <v>0</v>
+      <c r="V14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="X14" s="3">
         <v>0</v>
@@ -1217,8 +1257,14 @@
       <c r="Y14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1288,8 +1334,14 @@
       <c r="Y15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1312,150 +1364,164 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>700</v>
+      </c>
+      <c r="E17" s="3">
+        <v>400</v>
+      </c>
+      <c r="F17" s="3">
         <v>500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>-300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>300</v>
-      </c>
-      <c r="I17" s="3">
-        <v>200</v>
-      </c>
-      <c r="J17" s="3">
-        <v>700</v>
       </c>
       <c r="K17" s="3">
         <v>200</v>
       </c>
       <c r="L17" s="3">
-        <v>200</v>
+        <v>700</v>
       </c>
       <c r="M17" s="3">
         <v>200</v>
       </c>
       <c r="N17" s="3">
+        <v>200</v>
+      </c>
+      <c r="O17" s="3">
+        <v>200</v>
+      </c>
+      <c r="P17" s="3">
         <v>300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>300</v>
-      </c>
-      <c r="P17" s="3">
-        <v>500</v>
-      </c>
-      <c r="Q17" s="3">
-        <v>-800</v>
       </c>
       <c r="R17" s="3">
         <v>500</v>
       </c>
       <c r="S17" s="3">
+        <v>-800</v>
+      </c>
+      <c r="T17" s="3">
+        <v>500</v>
+      </c>
+      <c r="U17" s="3">
         <v>400</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>800</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>1400</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>600</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>500</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Z17" s="3">
         <v>1200</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="AA17" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E18" s="3">
         <v>-400</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
+        <v>-400</v>
+      </c>
+      <c r="G18" s="3">
         <v>300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-700</v>
-      </c>
-      <c r="K18" s="3">
-        <v>-200</v>
-      </c>
-      <c r="L18" s="3">
-        <v>-200</v>
       </c>
       <c r="M18" s="3">
         <v>-200</v>
       </c>
       <c r="N18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="P18" s="3">
         <v>-300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-300</v>
-      </c>
-      <c r="P18" s="3">
-        <v>-500</v>
-      </c>
-      <c r="Q18" s="3">
-        <v>800</v>
       </c>
       <c r="R18" s="3">
         <v>-500</v>
       </c>
       <c r="S18" s="3">
+        <v>800</v>
+      </c>
+      <c r="T18" s="3">
+        <v>-500</v>
+      </c>
+      <c r="U18" s="3">
         <v>-400</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>-700</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>-1400</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>-500</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Y18" s="3">
         <v>-500</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Z18" s="3">
         <v>-1100</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="AA18" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1481,197 +1547,211 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <v>100</v>
-      </c>
-      <c r="E20" s="3">
-        <v>400</v>
-      </c>
-      <c r="F20" s="3">
-        <v>0</v>
       </c>
       <c r="G20" s="3">
         <v>400</v>
       </c>
       <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
+        <v>400</v>
+      </c>
+      <c r="J20" s="3">
         <v>2600</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>2000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-5700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>3200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>1700</v>
-      </c>
-      <c r="M20" s="3">
-        <v>400</v>
-      </c>
-      <c r="N20" s="3">
-        <v>-2100</v>
       </c>
       <c r="O20" s="3">
         <v>400</v>
       </c>
       <c r="P20" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="Q20" s="3">
+        <v>400</v>
+      </c>
+      <c r="R20" s="3">
         <v>-1300</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>-1300</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>4200</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>1700</v>
       </c>
-      <c r="T20" s="3">
+      <c r="V20" s="3">
         <v>-6100</v>
       </c>
-      <c r="U20" s="3">
+      <c r="W20" s="3">
         <v>-700</v>
       </c>
-      <c r="V20" s="3">
+      <c r="X20" s="3">
         <v>-200</v>
       </c>
-      <c r="W20" s="3">
+      <c r="Y20" s="3">
         <v>600</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Z20" s="3">
         <v>-600</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="AA20" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F21" s="3">
         <v>-300</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>2300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>1900</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-6400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>3000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>1500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>-2400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>-1800</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>-500</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>3700</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>1300</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>-6700</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>-2100</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>-700</v>
       </c>
-      <c r="W21" s="3">
+      <c r="Y21" s="3">
         <v>100</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Z21" s="3">
         <v>-1600</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="AA21" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>300</v>
+      </c>
+      <c r="E22" s="3">
         <v>100</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
+        <v>100</v>
+      </c>
+      <c r="G22" s="3">
         <v>600</v>
       </c>
-      <c r="F22" s="3">
+      <c r="H22" s="3">
         <v>300</v>
       </c>
-      <c r="G22" s="3">
+      <c r="I22" s="3">
         <v>100</v>
       </c>
-      <c r="H22" s="3">
+      <c r="J22" s="3">
         <v>100</v>
-      </c>
-      <c r="I22" s="3">
-        <v>300</v>
-      </c>
-      <c r="J22" s="3">
-        <v>300</v>
       </c>
       <c r="K22" s="3">
         <v>300</v>
       </c>
       <c r="L22" s="3">
+        <v>300</v>
+      </c>
+      <c r="M22" s="3">
+        <v>300</v>
+      </c>
+      <c r="N22" s="3">
         <v>400</v>
-      </c>
-      <c r="M22" s="3">
-        <v>400</v>
-      </c>
-      <c r="N22" s="3">
-        <v>300</v>
       </c>
       <c r="O22" s="3">
         <v>400</v>
       </c>
       <c r="P22" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q22" s="3">
+        <v>400</v>
+      </c>
+      <c r="R22" s="3">
         <v>1000</v>
-      </c>
-      <c r="Q22" s="3">
-        <v>200</v>
-      </c>
-      <c r="R22" s="3">
-        <v>300</v>
       </c>
       <c r="S22" s="3">
         <v>200</v>
@@ -1680,13 +1760,13 @@
         <v>300</v>
       </c>
       <c r="U22" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="V22" s="3">
         <v>300</v>
       </c>
       <c r="W22" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="X22" s="3">
         <v>300</v>
@@ -1694,79 +1774,91 @@
       <c r="Y22" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z22" s="3">
+        <v>300</v>
+      </c>
+      <c r="AA22" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F23" s="3">
         <v>-400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-1000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>2200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>1600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-6700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>2700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>1100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-100</v>
-      </c>
-      <c r="N23" s="3">
-        <v>-2700</v>
-      </c>
-      <c r="O23" s="3">
-        <v>-200</v>
       </c>
       <c r="P23" s="3">
         <v>-2700</v>
       </c>
       <c r="Q23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="R23" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="S23" s="3">
         <v>-700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>3400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>1100</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>-7200</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>-2400</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>-1100</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>-100</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Z23" s="3">
         <v>-2000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="AA23" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1836,8 +1928,14 @@
       <c r="Y24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1907,150 +2005,168 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F26" s="3">
         <v>-400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-1000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>2200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>1600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-6700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>2700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>1100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-100</v>
-      </c>
-      <c r="N26" s="3">
-        <v>-2700</v>
-      </c>
-      <c r="O26" s="3">
-        <v>-200</v>
       </c>
       <c r="P26" s="3">
         <v>-2700</v>
       </c>
       <c r="Q26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="R26" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="S26" s="3">
         <v>-700</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>3400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>1100</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>-7200</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>-2400</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>-1100</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Y26" s="3">
         <v>-100</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Z26" s="3">
         <v>-2000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="AA26" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="F27" s="3">
         <v>-500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-1200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>2100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>1500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-6800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>2700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>1100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-2700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-2800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>3400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>1000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>-7200</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>-2400</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>-1100</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
         <v>-200</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Z27" s="3">
         <v>-2100</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="AA27" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2120,8 +2236,14 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2191,8 +2313,14 @@
       <c r="Y29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2262,8 +2390,14 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2333,150 +2467,168 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
+      <c r="D32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
         <v>-100</v>
-      </c>
-      <c r="E32" s="3">
-        <v>-400</v>
-      </c>
-      <c r="F32" s="3">
-        <v>0</v>
       </c>
       <c r="G32" s="3">
         <v>-400</v>
       </c>
       <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
+        <v>-400</v>
+      </c>
+      <c r="J32" s="3">
         <v>-2600</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>-2000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>5700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-3200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-1700</v>
-      </c>
-      <c r="M32" s="3">
-        <v>-400</v>
-      </c>
-      <c r="N32" s="3">
-        <v>2100</v>
       </c>
       <c r="O32" s="3">
         <v>-400</v>
       </c>
       <c r="P32" s="3">
+        <v>2100</v>
+      </c>
+      <c r="Q32" s="3">
+        <v>-400</v>
+      </c>
+      <c r="R32" s="3">
         <v>1300</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>1300</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>-4200</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>-1700</v>
       </c>
-      <c r="T32" s="3">
+      <c r="V32" s="3">
         <v>6100</v>
       </c>
-      <c r="U32" s="3">
+      <c r="W32" s="3">
         <v>700</v>
       </c>
-      <c r="V32" s="3">
+      <c r="X32" s="3">
         <v>200</v>
       </c>
-      <c r="W32" s="3">
+      <c r="Y32" s="3">
         <v>-600</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Z32" s="3">
         <v>600</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="AA32" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="F33" s="3">
         <v>-500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-1200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>2100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>1500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-6800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>2700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>1100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-2700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-2800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>3400</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>1000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>-7200</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>-2400</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>-1100</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Y33" s="3">
         <v>-200</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Z33" s="3">
         <v>-2100</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="AA33" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2546,155 +2698,173 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="F35" s="3">
         <v>-500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-1200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>2100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>1500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-6800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>2700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>1100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-2700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-2800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>3400</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>1000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>-7200</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>-2400</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>-1100</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
         <v>-200</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Z35" s="3">
         <v>-2100</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="AA35" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43100</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43008</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>42916</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>42825</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>42735</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2720,8 +2890,10 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2747,44 +2919,46 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>400</v>
+      </c>
+      <c r="E41" s="3">
+        <v>700</v>
+      </c>
+      <c r="F41" s="3">
         <v>600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>1200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>800</v>
       </c>
-      <c r="K41" s="3">
-        <v>0</v>
-      </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
+        <v>0</v>
+      </c>
+      <c r="N41" s="3">
         <v>900</v>
       </c>
-      <c r="M41" s="3">
-        <v>0</v>
-      </c>
-      <c r="N41" s="3">
-        <v>0</v>
-      </c>
       <c r="O41" s="3">
         <v>0</v>
       </c>
@@ -2792,7 +2966,7 @@
         <v>0</v>
       </c>
       <c r="Q41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R41" s="3">
         <v>0</v>
@@ -2810,7 +2984,7 @@
         <v>0</v>
       </c>
       <c r="W41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X41" s="3">
         <v>0</v>
@@ -2818,8 +2992,14 @@
       <c r="Y41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z41" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2889,8 +3069,14 @@
       <c r="Y42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2916,14 +3102,14 @@
         <v>0</v>
       </c>
       <c r="K43" s="3">
+        <v>0</v>
+      </c>
+      <c r="L43" s="3">
+        <v>0</v>
+      </c>
+      <c r="M43" s="3">
         <v>100</v>
       </c>
-      <c r="L43" s="3">
-        <v>0</v>
-      </c>
-      <c r="M43" s="3">
-        <v>0</v>
-      </c>
       <c r="N43" s="3">
         <v>0</v>
       </c>
@@ -2958,10 +3144,16 @@
         <v>0</v>
       </c>
       <c r="Y43" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z43" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA43" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2981,200 +3173,218 @@
         <v>600</v>
       </c>
       <c r="I44" s="3">
-        <v>100</v>
+        <v>600</v>
       </c>
       <c r="J44" s="3">
-        <v>100</v>
+        <v>600</v>
       </c>
       <c r="K44" s="3">
         <v>100</v>
       </c>
       <c r="L44" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M44" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N44" s="3">
         <v>0</v>
       </c>
       <c r="O44" s="3">
+        <v>0</v>
+      </c>
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q44" s="3">
         <v>100</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>100</v>
-      </c>
-      <c r="Q44" s="3">
-        <v>300</v>
-      </c>
-      <c r="R44" s="3">
-        <v>300</v>
       </c>
       <c r="S44" s="3">
         <v>300</v>
       </c>
       <c r="T44" s="3">
+        <v>300</v>
+      </c>
+      <c r="U44" s="3">
+        <v>300</v>
+      </c>
+      <c r="V44" s="3">
         <v>200</v>
       </c>
-      <c r="U44" s="3">
+      <c r="W44" s="3">
         <v>600</v>
-      </c>
-      <c r="V44" s="3">
-        <v>800</v>
-      </c>
-      <c r="W44" s="3">
-        <v>800</v>
       </c>
       <c r="X44" s="3">
         <v>800</v>
       </c>
       <c r="Y44" s="3">
+        <v>800</v>
+      </c>
+      <c r="Z44" s="3">
+        <v>800</v>
+      </c>
+      <c r="AA44" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>100</v>
+      </c>
+      <c r="E45" s="3">
+        <v>500</v>
+      </c>
+      <c r="F45" s="3">
         <v>400</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>200</v>
-      </c>
-      <c r="F45" s="3">
-        <v>100</v>
-      </c>
-      <c r="G45" s="3">
-        <v>0</v>
       </c>
       <c r="H45" s="3">
         <v>100</v>
       </c>
       <c r="I45" s="3">
+        <v>0</v>
+      </c>
+      <c r="J45" s="3">
+        <v>100</v>
+      </c>
+      <c r="K45" s="3">
         <v>600</v>
       </c>
-      <c r="J45" s="3">
-        <v>0</v>
-      </c>
-      <c r="K45" s="3">
-        <v>0</v>
-      </c>
       <c r="L45" s="3">
+        <v>0</v>
+      </c>
+      <c r="M45" s="3">
+        <v>0</v>
+      </c>
+      <c r="N45" s="3">
         <v>100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>100</v>
       </c>
-      <c r="N45" s="3">
-        <v>0</v>
-      </c>
-      <c r="O45" s="3">
-        <v>0</v>
-      </c>
       <c r="P45" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="3">
+        <v>0</v>
+      </c>
+      <c r="R45" s="3">
         <v>100</v>
-      </c>
-      <c r="Q45" s="3">
-        <v>100</v>
-      </c>
-      <c r="R45" s="3">
-        <v>0</v>
       </c>
       <c r="S45" s="3">
         <v>100</v>
       </c>
       <c r="T45" s="3">
+        <v>0</v>
+      </c>
+      <c r="U45" s="3">
         <v>100</v>
       </c>
-      <c r="U45" s="3">
-        <v>200</v>
-      </c>
       <c r="V45" s="3">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="W45" s="3">
         <v>200</v>
       </c>
       <c r="X45" s="3">
+        <v>400</v>
+      </c>
+      <c r="Y45" s="3">
+        <v>200</v>
+      </c>
+      <c r="Z45" s="3">
         <v>300</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="AA45" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1600</v>
+        <v>1100</v>
       </c>
       <c r="E46" s="3">
-        <v>1300</v>
+        <v>1800</v>
       </c>
       <c r="F46" s="3">
         <v>1600</v>
       </c>
       <c r="G46" s="3">
+        <v>1300</v>
+      </c>
+      <c r="H46" s="3">
+        <v>1600</v>
+      </c>
+      <c r="I46" s="3">
         <v>1900</v>
-      </c>
-      <c r="H46" s="3">
-        <v>900</v>
-      </c>
-      <c r="I46" s="3">
-        <v>1200</v>
       </c>
       <c r="J46" s="3">
         <v>900</v>
       </c>
       <c r="K46" s="3">
-        <v>200</v>
+        <v>1200</v>
       </c>
       <c r="L46" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="M46" s="3">
         <v>200</v>
       </c>
       <c r="N46" s="3">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="O46" s="3">
         <v>200</v>
       </c>
       <c r="P46" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q46" s="3">
         <v>200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
+        <v>200</v>
+      </c>
+      <c r="S46" s="3">
         <v>400</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>400</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>500</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>300</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>800</v>
       </c>
-      <c r="V46" s="3">
+      <c r="X46" s="3">
         <v>1100</v>
       </c>
-      <c r="W46" s="3">
+      <c r="Y46" s="3">
         <v>1100</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Z46" s="3">
         <v>1000</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="AA46" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3244,8 +3454,14 @@
       <c r="Y47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3262,13 +3478,13 @@
         <v>400</v>
       </c>
       <c r="H48" s="3">
+        <v>400</v>
+      </c>
+      <c r="I48" s="3">
+        <v>400</v>
+      </c>
+      <c r="J48" s="3">
         <v>500</v>
-      </c>
-      <c r="I48" s="3">
-        <v>100</v>
-      </c>
-      <c r="J48" s="3">
-        <v>100</v>
       </c>
       <c r="K48" s="3">
         <v>100</v>
@@ -3277,19 +3493,19 @@
         <v>100</v>
       </c>
       <c r="M48" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N48" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="O48" s="3">
         <v>200</v>
       </c>
       <c r="P48" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="Q48" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="R48" s="3">
         <v>0</v>
@@ -3301,10 +3517,10 @@
         <v>0</v>
       </c>
       <c r="U48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W48" s="3">
         <v>100</v>
@@ -3313,10 +3529,16 @@
         <v>100</v>
       </c>
       <c r="Y48" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z48" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA48" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3386,8 +3608,14 @@
       <c r="Y49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z49" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3457,8 +3685,14 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3528,8 +3762,14 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3582,25 +3822,31 @@
         <v>0</v>
       </c>
       <c r="T52" s="3">
+        <v>0</v>
+      </c>
+      <c r="U52" s="3">
+        <v>0</v>
+      </c>
+      <c r="V52" s="3">
         <v>100</v>
       </c>
-      <c r="U52" s="3">
-        <v>0</v>
-      </c>
-      <c r="V52" s="3">
-        <v>300</v>
-      </c>
       <c r="W52" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="X52" s="3">
         <v>300</v>
       </c>
       <c r="Y52" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+        <v>300</v>
+      </c>
+      <c r="Z52" s="3">
+        <v>300</v>
+      </c>
+      <c r="AA52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3670,55 +3916,61 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E54" s="3">
+        <v>2200</v>
+      </c>
+      <c r="F54" s="3">
         <v>2000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>1700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>2100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>2400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>1400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>1300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>1200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>200</v>
-      </c>
-      <c r="Q54" s="3">
-        <v>500</v>
-      </c>
-      <c r="R54" s="3">
-        <v>400</v>
       </c>
       <c r="S54" s="3">
         <v>500</v>
@@ -3727,22 +3979,28 @@
         <v>400</v>
       </c>
       <c r="U54" s="3">
+        <v>500</v>
+      </c>
+      <c r="V54" s="3">
+        <v>400</v>
+      </c>
+      <c r="W54" s="3">
         <v>900</v>
-      </c>
-      <c r="V54" s="3">
-        <v>1500</v>
-      </c>
-      <c r="W54" s="3">
-        <v>1500</v>
       </c>
       <c r="X54" s="3">
         <v>1500</v>
       </c>
       <c r="Y54" s="3">
+        <v>1500</v>
+      </c>
+      <c r="Z54" s="3">
+        <v>1500</v>
+      </c>
+      <c r="AA54" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3768,8 +4026,10 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3795,46 +4055,48 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E57" s="3">
+        <v>2600</v>
+      </c>
+      <c r="F57" s="3">
         <v>2400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>2300</v>
-      </c>
-      <c r="F57" s="3">
-        <v>2500</v>
-      </c>
-      <c r="G57" s="3">
-        <v>2600</v>
       </c>
       <c r="H57" s="3">
         <v>2500</v>
       </c>
       <c r="I57" s="3">
+        <v>2600</v>
+      </c>
+      <c r="J57" s="3">
+        <v>2500</v>
+      </c>
+      <c r="K57" s="3">
         <v>2700</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>2900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>3000</v>
-      </c>
-      <c r="L57" s="3">
-        <v>3000</v>
-      </c>
-      <c r="M57" s="3">
-        <v>3100</v>
       </c>
       <c r="N57" s="3">
         <v>3000</v>
       </c>
       <c r="O57" s="3">
-        <v>3000</v>
+        <v>3100</v>
       </c>
       <c r="P57" s="3">
         <v>3000</v>
@@ -3855,283 +4117,307 @@
         <v>3000</v>
       </c>
       <c r="V57" s="3">
+        <v>3000</v>
+      </c>
+      <c r="W57" s="3">
+        <v>3000</v>
+      </c>
+      <c r="X57" s="3">
         <v>2900</v>
       </c>
-      <c r="W57" s="3">
+      <c r="Y57" s="3">
         <v>2700</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Z57" s="3">
         <v>2600</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="AA57" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1100</v>
+        <v>1700</v>
       </c>
       <c r="E58" s="3">
         <v>1000</v>
       </c>
       <c r="F58" s="3">
+        <v>1100</v>
+      </c>
+      <c r="G58" s="3">
+        <v>1000</v>
+      </c>
+      <c r="H58" s="3">
         <v>1300</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>1500</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>3300</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>2600</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>2700</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>3100</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>5300</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>5300</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>5000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>5100</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>4800</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>4600</v>
       </c>
-      <c r="R58" s="3">
+      <c r="T58" s="3">
         <v>5100</v>
       </c>
-      <c r="S58" s="3">
+      <c r="U58" s="3">
         <v>4900</v>
       </c>
-      <c r="T58" s="3">
+      <c r="V58" s="3">
         <v>4600</v>
       </c>
-      <c r="U58" s="3">
+      <c r="W58" s="3">
         <v>4600</v>
       </c>
-      <c r="V58" s="3">
+      <c r="X58" s="3">
         <v>4500</v>
       </c>
-      <c r="W58" s="3">
+      <c r="Y58" s="3">
         <v>4200</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Z58" s="3">
         <v>4000</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="AA58" s="3">
         <v>3500</v>
       </c>
     </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E59" s="3">
+        <v>1900</v>
+      </c>
+      <c r="F59" s="3">
         <v>2200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>1700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>1900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>5100</v>
-      </c>
-      <c r="H59" s="3">
-        <v>3100</v>
-      </c>
-      <c r="I59" s="3">
-        <v>3000</v>
       </c>
       <c r="J59" s="3">
         <v>3100</v>
       </c>
       <c r="K59" s="3">
+        <v>3000</v>
+      </c>
+      <c r="L59" s="3">
         <v>3100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
+        <v>3100</v>
+      </c>
+      <c r="N59" s="3">
         <v>4100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>3200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>3700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>3600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>3200</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>3100</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>4500</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>4400</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>4200</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>3800</v>
       </c>
-      <c r="V59" s="3">
+      <c r="X59" s="3">
         <v>3400</v>
       </c>
-      <c r="W59" s="3">
+      <c r="Y59" s="3">
         <v>2800</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Z59" s="3">
         <v>2700</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="AA59" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>5700</v>
+        <v>6000</v>
       </c>
       <c r="E60" s="3">
-        <v>5100</v>
+        <v>5400</v>
       </c>
       <c r="F60" s="3">
         <v>5700</v>
       </c>
       <c r="G60" s="3">
+        <v>5100</v>
+      </c>
+      <c r="H60" s="3">
+        <v>5700</v>
+      </c>
+      <c r="I60" s="3">
         <v>9200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>9000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>8300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>8600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>9200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>12400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>11600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>11700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>11700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>11000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>10700</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>12600</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>12200</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>11800</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>11400</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>10800</v>
       </c>
-      <c r="W60" s="3">
+      <c r="Y60" s="3">
         <v>9700</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Z60" s="3">
         <v>9300</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="AA60" s="3">
         <v>8500</v>
       </c>
     </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1400</v>
+        <v>1000</v>
       </c>
       <c r="E61" s="3">
         <v>1400</v>
       </c>
       <c r="F61" s="3">
+        <v>1400</v>
+      </c>
+      <c r="G61" s="3">
+        <v>1400</v>
+      </c>
+      <c r="H61" s="3">
         <v>1300</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>600</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>600</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>1300</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>1200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>700</v>
-      </c>
-      <c r="L61" s="3">
-        <v>600</v>
-      </c>
-      <c r="M61" s="3">
-        <v>600</v>
       </c>
       <c r="N61" s="3">
         <v>600</v>
       </c>
       <c r="O61" s="3">
+        <v>600</v>
+      </c>
+      <c r="P61" s="3">
+        <v>600</v>
+      </c>
+      <c r="Q61" s="3">
         <v>300</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>300</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>600</v>
       </c>
-      <c r="R61" s="3">
-        <v>0</v>
-      </c>
-      <c r="S61" s="3">
-        <v>0</v>
-      </c>
       <c r="T61" s="3">
         <v>0</v>
       </c>
@@ -4150,79 +4436,91 @@
       <c r="Y61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="E62" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="F62" s="3">
         <v>400</v>
       </c>
       <c r="G62" s="3">
+        <v>400</v>
+      </c>
+      <c r="H62" s="3">
+        <v>400</v>
+      </c>
+      <c r="I62" s="3">
         <v>500</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>2600</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>5600</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>7600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>1800</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>5100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>6200</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>6600</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>4400</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>4700</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>3400</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>2100</v>
       </c>
-      <c r="S62" s="3">
+      <c r="U62" s="3">
         <v>6300</v>
       </c>
-      <c r="T62" s="3">
+      <c r="V62" s="3">
         <v>8000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="W62" s="3">
         <v>1800</v>
       </c>
-      <c r="V62" s="3">
+      <c r="X62" s="3">
         <v>1100</v>
-      </c>
-      <c r="W62" s="3">
-        <v>800</v>
-      </c>
-      <c r="X62" s="3">
-        <v>1400</v>
       </c>
       <c r="Y62" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z62" s="3">
+        <v>1400</v>
+      </c>
+      <c r="AA62" s="3">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4292,8 +4590,14 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4363,8 +4667,14 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4434,79 +4744,91 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>7300</v>
+      </c>
+      <c r="E66" s="3">
+        <v>7200</v>
+      </c>
+      <c r="F66" s="3">
         <v>7500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>6800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>7400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>10300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>12200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>15100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>17400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>11700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>18100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>18400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>18800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>16400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>16100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>14700</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>14600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>18500</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>19800</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>13300</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>11900</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>10500</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Z66" s="3">
         <v>10800</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="AA66" s="3">
         <v>9400</v>
       </c>
     </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4532,8 +4854,10 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4603,8 +4927,14 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4674,40 +5004,46 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>6900</v>
+        <v>5200</v>
       </c>
       <c r="E70" s="3">
-        <v>6900</v>
+        <v>6100</v>
       </c>
       <c r="F70" s="3">
         <v>6900</v>
       </c>
       <c r="G70" s="3">
+        <v>6900</v>
+      </c>
+      <c r="H70" s="3">
+        <v>6900</v>
+      </c>
+      <c r="I70" s="3">
         <v>3900</v>
       </c>
-      <c r="H70" s="3">
+      <c r="J70" s="3">
         <v>2700</v>
       </c>
-      <c r="I70" s="3">
+      <c r="K70" s="3">
         <v>2600</v>
       </c>
-      <c r="J70" s="3">
+      <c r="L70" s="3">
         <v>1900</v>
       </c>
-      <c r="K70" s="3">
+      <c r="M70" s="3">
         <v>1100</v>
-      </c>
-      <c r="L70" s="3">
-        <v>800</v>
-      </c>
-      <c r="M70" s="3">
-        <v>800</v>
       </c>
       <c r="N70" s="3">
         <v>800</v>
@@ -4725,28 +5061,34 @@
         <v>800</v>
       </c>
       <c r="S70" s="3">
+        <v>800</v>
+      </c>
+      <c r="T70" s="3">
+        <v>800</v>
+      </c>
+      <c r="U70" s="3">
         <v>1000</v>
       </c>
-      <c r="T70" s="3">
+      <c r="V70" s="3">
         <v>1100</v>
       </c>
-      <c r="U70" s="3">
+      <c r="W70" s="3">
         <v>1100</v>
       </c>
-      <c r="V70" s="3">
+      <c r="X70" s="3">
         <v>1200</v>
       </c>
-      <c r="W70" s="3">
+      <c r="Y70" s="3">
         <v>1200</v>
       </c>
-      <c r="X70" s="3">
+      <c r="Z70" s="3">
         <v>1300</v>
       </c>
-      <c r="Y70" s="3">
+      <c r="AA70" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4816,79 +5158,91 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-144400</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-143400</v>
+      </c>
+      <c r="F72" s="3">
         <v>-142400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-141900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-141800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-140600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-140000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-142100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-143600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-136800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-139600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-140600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-140500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-137900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-137600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-134900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-134100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-137500</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>-138500</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>-131300</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>-128900</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>-127800</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Z72" s="3">
         <v>-127600</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="AA72" s="3">
         <v>-125500</v>
       </c>
     </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4958,8 +5312,14 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5029,8 +5389,14 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5100,79 +5466,91 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-11000</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-11100</v>
+      </c>
+      <c r="F76" s="3">
         <v>-12300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>-12000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>-12200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>-11900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>-13600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>-16400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>-18400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>-12400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>-17700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>-18800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>-19400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>-16800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>-16600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>-15000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>-15000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>-18900</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>-20500</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>-13500</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>-11500</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>-10300</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Z76" s="3">
         <v>-10600</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="AA76" s="3">
         <v>-8700</v>
       </c>
     </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5242,155 +5620,173 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43100</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43008</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>42916</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>42825</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>42735</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="F81" s="3">
         <v>-500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-1200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>2100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>1500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-6800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>2700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>1100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-2700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-2800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>3400</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>1000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>-7200</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>-2400</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>-1100</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Y81" s="3">
         <v>-200</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Z81" s="3">
         <v>-2100</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="AA81" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5416,8 +5812,10 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5470,25 +5868,31 @@
         <v>0</v>
       </c>
       <c r="T83" s="3">
+        <v>0</v>
+      </c>
+      <c r="U83" s="3">
+        <v>0</v>
+      </c>
+      <c r="V83" s="3">
         <v>100</v>
       </c>
-      <c r="U83" s="3">
-        <v>0</v>
-      </c>
-      <c r="V83" s="3">
-        <v>0</v>
-      </c>
       <c r="W83" s="3">
         <v>0</v>
       </c>
       <c r="X83" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y83" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z83" s="3">
         <v>100</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="AA83" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5558,8 +5962,14 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5629,8 +6039,14 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5700,8 +6116,14 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5771,8 +6193,14 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5842,40 +6270,46 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F89" s="3">
         <v>200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-1300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-500</v>
-      </c>
-      <c r="L89" s="3">
-        <v>-200</v>
-      </c>
-      <c r="M89" s="3">
-        <v>-200</v>
       </c>
       <c r="N89" s="3">
         <v>-200</v>
@@ -5884,37 +6318,43 @@
         <v>-200</v>
       </c>
       <c r="P89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Q89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="R89" s="3">
         <v>-300</v>
-      </c>
-      <c r="Q89" s="3">
-        <v>-400</v>
-      </c>
-      <c r="R89" s="3">
-        <v>-200</v>
       </c>
       <c r="S89" s="3">
         <v>-400</v>
       </c>
       <c r="T89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="U89" s="3">
+        <v>-400</v>
+      </c>
+      <c r="V89" s="3">
         <v>-700</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>-200</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>100</v>
       </c>
-      <c r="W89" s="3">
+      <c r="Y89" s="3">
         <v>-400</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Z89" s="3">
         <v>-200</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="AA89" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5940,8 +6380,10 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5963,11 +6405,11 @@
       <c r="I91" s="3">
         <v>0</v>
       </c>
-      <c r="J91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K91" s="3" t="s">
-        <v>4</v>
+      <c r="J91" s="3">
+        <v>0</v>
+      </c>
+      <c r="K91" s="3">
+        <v>0</v>
       </c>
       <c r="L91" s="3" t="s">
         <v>4</v>
@@ -5975,11 +6417,11 @@
       <c r="M91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N91" s="3">
-        <v>0</v>
-      </c>
-      <c r="O91" s="3">
-        <v>0</v>
+      <c r="N91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P91" s="3">
         <v>0</v>
@@ -6011,8 +6453,14 @@
       <c r="Y91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6082,8 +6530,14 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6153,8 +6607,14 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -6176,11 +6636,11 @@
       <c r="I94" s="3">
         <v>0</v>
       </c>
-      <c r="J94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K94" s="3" t="s">
-        <v>4</v>
+      <c r="J94" s="3">
+        <v>0</v>
+      </c>
+      <c r="K94" s="3">
+        <v>0</v>
       </c>
       <c r="L94" s="3" t="s">
         <v>4</v>
@@ -6188,11 +6648,11 @@
       <c r="M94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N94" s="3">
-        <v>0</v>
-      </c>
-      <c r="O94" s="3">
-        <v>0</v>
+      <c r="N94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P94" s="3">
         <v>0</v>
@@ -6224,8 +6684,14 @@
       <c r="Y94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6251,8 +6717,10 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6322,8 +6790,14 @@
       <c r="Y96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6393,8 +6867,14 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6464,8 +6944,14 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6535,43 +7021,49 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>100</v>
+      </c>
+      <c r="E100" s="3">
+        <v>300</v>
+      </c>
+      <c r="F100" s="3">
         <v>-100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>1000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>800</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>-100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>1200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>1100</v>
-      </c>
-      <c r="M100" s="3">
-        <v>200</v>
-      </c>
-      <c r="N100" s="3">
-        <v>200</v>
       </c>
       <c r="O100" s="3">
         <v>200</v>
@@ -6580,34 +7072,40 @@
         <v>200</v>
       </c>
       <c r="Q100" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="R100" s="3">
         <v>200</v>
       </c>
       <c r="S100" s="3">
+        <v>400</v>
+      </c>
+      <c r="T100" s="3">
+        <v>200</v>
+      </c>
+      <c r="U100" s="3">
         <v>500</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>600</v>
       </c>
-      <c r="U100" s="3">
+      <c r="W100" s="3">
         <v>300</v>
       </c>
-      <c r="V100" s="3">
+      <c r="X100" s="3">
         <v>-100</v>
       </c>
-      <c r="W100" s="3">
+      <c r="Y100" s="3">
         <v>400</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Z100" s="3">
         <v>200</v>
       </c>
-      <c r="Y100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="AA100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6677,75 +7175,87 @@
       <c r="Y101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E102" s="3">
         <v>100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
+        <v>100</v>
+      </c>
+      <c r="G102" s="3">
         <v>-400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>1100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>900</v>
       </c>
-      <c r="M102" s="3">
-        <v>0</v>
-      </c>
-      <c r="N102" s="3">
-        <v>0</v>
-      </c>
       <c r="O102" s="3">
         <v>0</v>
       </c>
       <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
         <v>-100</v>
       </c>
-      <c r="Q102" s="3">
-        <v>0</v>
-      </c>
-      <c r="R102" s="3">
-        <v>0</v>
-      </c>
       <c r="S102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="U102" s="3">
         <v>100</v>
       </c>
       <c r="V102" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="W102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X102" s="3">
         <v>0</v>
       </c>
       <c r="Y102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/GTHP_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GTHP_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="92">
   <si>
     <t>GTHP</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AB102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,115 +665,119 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43373</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43190</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43100</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43008</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42916</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42825</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42735</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -784,11 +788,11 @@
         <v>0</v>
       </c>
       <c r="F8" s="3">
+        <v>0</v>
+      </c>
+      <c r="G8" s="3">
         <v>100</v>
       </c>
-      <c r="G8" s="3">
-        <v>0</v>
-      </c>
       <c r="H8" s="3">
         <v>0</v>
       </c>
@@ -799,11 +803,11 @@
         <v>0</v>
       </c>
       <c r="K8" s="3">
+        <v>0</v>
+      </c>
+      <c r="L8" s="3">
         <v>100</v>
       </c>
-      <c r="L8" s="3">
-        <v>0</v>
-      </c>
       <c r="M8" s="3">
         <v>0</v>
       </c>
@@ -832,30 +836,33 @@
         <v>0</v>
       </c>
       <c r="V8" s="3">
+        <v>0</v>
+      </c>
+      <c r="W8" s="3">
         <v>100</v>
       </c>
-      <c r="W8" s="3">
-        <v>0</v>
-      </c>
       <c r="X8" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="3">
         <v>100</v>
       </c>
-      <c r="Y8" s="3">
-        <v>0</v>
-      </c>
       <c r="Z8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AA8" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB8" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="3">
-        <v>0</v>
+      <c r="D9" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E9" s="3">
         <v>0</v>
@@ -866,68 +873,71 @@
       <c r="G9" s="3">
         <v>0</v>
       </c>
-      <c r="H9" s="3" t="s">
-        <v>4</v>
+      <c r="H9" s="3">
+        <v>0</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J9" s="3">
+      <c r="J9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K9" s="3">
         <v>-100</v>
       </c>
-      <c r="K9" s="3">
-        <v>0</v>
-      </c>
       <c r="L9" s="3">
         <v>0</v>
       </c>
-      <c r="M9" s="3" t="s">
+      <c r="M9" s="3">
+        <v>0</v>
+      </c>
+      <c r="N9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N9" s="3">
-        <v>0</v>
-      </c>
-      <c r="O9" s="3" t="s">
+      <c r="O9" s="3">
+        <v>0</v>
+      </c>
+      <c r="P9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>100</v>
       </c>
-      <c r="Q9" s="3">
-        <v>0</v>
-      </c>
       <c r="R9" s="3">
+        <v>0</v>
+      </c>
+      <c r="S9" s="3">
         <v>100</v>
       </c>
-      <c r="S9" s="3" t="s">
+      <c r="T9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T9" s="3">
-        <v>0</v>
-      </c>
       <c r="U9" s="3">
         <v>0</v>
       </c>
       <c r="V9" s="3">
+        <v>0</v>
+      </c>
+      <c r="W9" s="3">
         <v>300</v>
-      </c>
-      <c r="W9" s="3">
-        <v>100</v>
       </c>
       <c r="X9" s="3">
         <v>100</v>
       </c>
       <c r="Y9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z9" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="3">
         <v>300</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -938,73 +948,76 @@
         <v>0</v>
       </c>
       <c r="F10" s="3">
+        <v>0</v>
+      </c>
+      <c r="G10" s="3">
         <v>100</v>
       </c>
-      <c r="G10" s="3">
-        <v>0</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>4</v>
+      <c r="H10" s="3">
+        <v>0</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J10" s="3">
-        <v>100</v>
+      <c r="J10" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K10" s="3">
         <v>100</v>
       </c>
       <c r="L10" s="3">
-        <v>0</v>
-      </c>
-      <c r="M10" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="M10" s="3">
+        <v>0</v>
+      </c>
+      <c r="N10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N10" s="3">
-        <v>0</v>
-      </c>
-      <c r="O10" s="3" t="s">
+      <c r="O10" s="3">
+        <v>0</v>
+      </c>
+      <c r="P10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>-100</v>
       </c>
-      <c r="Q10" s="3">
-        <v>0</v>
-      </c>
       <c r="R10" s="3">
+        <v>0</v>
+      </c>
+      <c r="S10" s="3">
         <v>-100</v>
       </c>
-      <c r="S10" s="3" t="s">
+      <c r="T10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T10" s="3">
-        <v>0</v>
-      </c>
       <c r="U10" s="3">
         <v>0</v>
       </c>
       <c r="V10" s="3">
+        <v>0</v>
+      </c>
+      <c r="W10" s="3">
         <v>-200</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>-100</v>
       </c>
-      <c r="X10" s="3">
-        <v>0</v>
-      </c>
       <c r="Y10" s="3">
         <v>0</v>
       </c>
       <c r="Z10" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA10" s="3">
         <v>-200</v>
       </c>
-      <c r="AA10" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1032,8 +1045,9 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1062,11 +1076,11 @@
         <v>0</v>
       </c>
       <c r="L12" s="3">
+        <v>0</v>
+      </c>
+      <c r="M12" s="3">
         <v>100</v>
       </c>
-      <c r="M12" s="3">
-        <v>0</v>
-      </c>
       <c r="N12" s="3">
         <v>0</v>
       </c>
@@ -1080,13 +1094,13 @@
         <v>0</v>
       </c>
       <c r="R12" s="3">
+        <v>0</v>
+      </c>
+      <c r="S12" s="3">
         <v>100</v>
       </c>
-      <c r="S12" s="3">
-        <v>0</v>
-      </c>
       <c r="T12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U12" s="3">
         <v>100</v>
@@ -1104,13 +1118,16 @@
         <v>100</v>
       </c>
       <c r="Z12" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA12" s="3">
         <v>200</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AB12" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1186,13 +1203,16 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="E14" s="3">
         <v>0</v>
@@ -1201,14 +1221,14 @@
         <v>0</v>
       </c>
       <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>-800</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>200</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
       <c r="J14" s="3">
         <v>0</v>
       </c>
@@ -1216,31 +1236,31 @@
         <v>0</v>
       </c>
       <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
         <v>300</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
       <c r="N14" s="3">
         <v>0</v>
       </c>
       <c r="O14" s="3">
         <v>0</v>
       </c>
-      <c r="P14" s="3" t="s">
-        <v>4</v>
+      <c r="P14" s="3">
+        <v>0</v>
       </c>
       <c r="Q14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
+      <c r="R14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3">
         <v>-1000</v>
-      </c>
-      <c r="T14" s="3" t="s">
-        <v>4</v>
       </c>
       <c r="U14" s="3" t="s">
         <v>4</v>
@@ -1251,8 +1271,8 @@
       <c r="W14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="X14" s="3">
-        <v>0</v>
+      <c r="X14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Y14" s="3">
         <v>0</v>
@@ -1263,8 +1283,11 @@
       <c r="AA14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1340,8 +1363,11 @@
       <c r="AA15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1366,40 +1392,41 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+    </row>
+    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E17" s="3">
         <v>700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>-300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>700</v>
-      </c>
-      <c r="M17" s="3">
-        <v>200</v>
       </c>
       <c r="N17" s="3">
         <v>200</v>
@@ -1408,43 +1435,46 @@
         <v>200</v>
       </c>
       <c r="P17" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="Q17" s="3">
         <v>300</v>
       </c>
       <c r="R17" s="3">
+        <v>300</v>
+      </c>
+      <c r="S17" s="3">
         <v>500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>-800</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>500</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>400</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>800</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>1400</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>600</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>500</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>1200</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1452,31 +1482,31 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
-        <v>-400</v>
+        <v>-700</v>
       </c>
       <c r="F18" s="3">
         <v>-400</v>
       </c>
       <c r="G18" s="3">
+        <v>-400</v>
+      </c>
+      <c r="H18" s="3">
         <v>300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-700</v>
-      </c>
-      <c r="M18" s="3">
-        <v>-200</v>
       </c>
       <c r="N18" s="3">
         <v>-200</v>
@@ -1485,43 +1515,46 @@
         <v>-200</v>
       </c>
       <c r="P18" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="Q18" s="3">
         <v>-300</v>
       </c>
       <c r="R18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="S18" s="3">
         <v>-500</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>800</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-500</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-400</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-700</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-1400</v>
-      </c>
-      <c r="X18" s="3">
-        <v>-500</v>
       </c>
       <c r="Y18" s="3">
         <v>-500</v>
       </c>
       <c r="Z18" s="3">
+        <v>-500</v>
+      </c>
+      <c r="AA18" s="3">
         <v>-1100</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1549,8 +1582,9 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+    </row>
+    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1561,73 +1595,76 @@
         <v>0</v>
       </c>
       <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>400</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
       <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
         <v>400</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>2600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>2000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-5700</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>3200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>1700</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>400</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-2100</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>400</v>
-      </c>
-      <c r="R20" s="3">
-        <v>-1300</v>
       </c>
       <c r="S20" s="3">
         <v>-1300</v>
       </c>
       <c r="T20" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="U20" s="3">
         <v>4200</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>1700</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-6100</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-700</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-200</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>600</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-600</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1635,102 +1672,105 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F21" s="3">
         <v>-400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>2300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-6400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>3000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-2400</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>200</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-1800</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-500</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>3700</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>1300</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-6700</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-2100</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>-700</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>100</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>-1600</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>200</v>
+      </c>
+      <c r="E22" s="3">
         <v>300</v>
-      </c>
-      <c r="E22" s="3">
-        <v>100</v>
       </c>
       <c r="F22" s="3">
         <v>100</v>
       </c>
       <c r="G22" s="3">
+        <v>100</v>
+      </c>
+      <c r="H22" s="3">
         <v>600</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>300</v>
-      </c>
-      <c r="I22" s="3">
-        <v>100</v>
       </c>
       <c r="J22" s="3">
         <v>100</v>
       </c>
       <c r="K22" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="L22" s="3">
         <v>300</v>
@@ -1739,31 +1779,31 @@
         <v>300</v>
       </c>
       <c r="N22" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="O22" s="3">
         <v>400</v>
       </c>
       <c r="P22" s="3">
+        <v>400</v>
+      </c>
+      <c r="Q22" s="3">
         <v>300</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>400</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>1000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>200</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>300</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>200</v>
-      </c>
-      <c r="V22" s="3">
-        <v>300</v>
       </c>
       <c r="W22" s="3">
         <v>300</v>
@@ -1772,93 +1812,99 @@
         <v>300</v>
       </c>
       <c r="Y22" s="3">
+        <v>300</v>
+      </c>
+      <c r="Z22" s="3">
         <v>200</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>300</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E23" s="3">
         <v>-900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-1000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>2200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-6700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>2700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>1100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-2700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-2700</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-700</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>3400</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>1100</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-7200</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-2400</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-1100</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-100</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>-2000</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1934,8 +1980,11 @@
       <c r="AA24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2011,162 +2060,171 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E26" s="3">
         <v>-900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-1000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>2200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-6700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>2700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>1100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-2700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-2700</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-700</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>3400</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>1100</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-7200</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-2400</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-1100</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-100</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>-2000</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E27" s="3">
         <v>-1000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-1100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-1200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>2100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-6800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>2700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>1100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-2700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-2800</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-800</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>3400</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>1000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-7200</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-2400</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-1100</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-200</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>-2100</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2242,8 +2300,11 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2319,8 +2380,11 @@
       <c r="AA29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2396,8 +2460,11 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2473,8 +2540,11 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2485,150 +2555,156 @@
         <v>0</v>
       </c>
       <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>-100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-400</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
       <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
         <v>-400</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-2600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-2000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>5700</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-3200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-1700</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-400</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>2100</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-400</v>
-      </c>
-      <c r="R32" s="3">
-        <v>1300</v>
       </c>
       <c r="S32" s="3">
         <v>1300</v>
       </c>
       <c r="T32" s="3">
+        <v>1300</v>
+      </c>
+      <c r="U32" s="3">
         <v>-4200</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-1700</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>6100</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>700</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>200</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-600</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>600</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E33" s="3">
         <v>-1000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-1100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-1200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>2100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-6800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>2700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>1100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-2700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-2800</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-800</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>3400</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>1000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-7200</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-2400</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-1100</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-200</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-2100</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2704,167 +2780,176 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E35" s="3">
         <v>-1000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-1100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-1200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>2100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-6800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>2700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>1100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-2700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-2800</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-800</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>3400</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>1000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-7200</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-2400</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-1100</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-200</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-2100</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43373</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43190</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43100</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43008</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42916</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42825</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42735</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2892,8 +2977,9 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+    </row>
+    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2921,47 +3007,48 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+    </row>
+    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E41" s="3">
         <v>400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>800</v>
       </c>
-      <c r="M41" s="3">
-        <v>0</v>
-      </c>
       <c r="N41" s="3">
+        <v>0</v>
+      </c>
+      <c r="O41" s="3">
         <v>900</v>
       </c>
-      <c r="O41" s="3">
-        <v>0</v>
-      </c>
       <c r="P41" s="3">
         <v>0</v>
       </c>
@@ -2972,23 +3059,23 @@
         <v>0</v>
       </c>
       <c r="S41" s="3">
+        <v>0</v>
+      </c>
+      <c r="T41" s="3">
         <v>100</v>
       </c>
-      <c r="T41" s="3">
-        <v>0</v>
-      </c>
       <c r="U41" s="3">
+        <v>0</v>
+      </c>
+      <c r="V41" s="3">
         <v>100</v>
       </c>
-      <c r="V41" s="3">
-        <v>0</v>
-      </c>
       <c r="W41" s="3">
+        <v>0</v>
+      </c>
+      <c r="X41" s="3">
         <v>100</v>
       </c>
-      <c r="X41" s="3">
-        <v>0</v>
-      </c>
       <c r="Y41" s="3">
         <v>0</v>
       </c>
@@ -2998,8 +3085,11 @@
       <c r="AA41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3075,8 +3165,11 @@
       <c r="AA42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3108,11 +3201,11 @@
         <v>0</v>
       </c>
       <c r="M43" s="3">
+        <v>0</v>
+      </c>
+      <c r="N43" s="3">
         <v>100</v>
       </c>
-      <c r="N43" s="3">
-        <v>0</v>
-      </c>
       <c r="O43" s="3">
         <v>0</v>
       </c>
@@ -3150,10 +3243,13 @@
         <v>0</v>
       </c>
       <c r="AA43" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB43" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3179,7 +3275,7 @@
         <v>600</v>
       </c>
       <c r="K44" s="3">
-        <v>100</v>
+        <v>600</v>
       </c>
       <c r="L44" s="3">
         <v>100</v>
@@ -3188,7 +3284,7 @@
         <v>100</v>
       </c>
       <c r="N44" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O44" s="3">
         <v>0</v>
@@ -3197,13 +3293,13 @@
         <v>0</v>
       </c>
       <c r="Q44" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R44" s="3">
         <v>100</v>
       </c>
       <c r="S44" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="T44" s="3">
         <v>300</v>
@@ -3212,13 +3308,13 @@
         <v>300</v>
       </c>
       <c r="V44" s="3">
+        <v>300</v>
+      </c>
+      <c r="W44" s="3">
         <v>200</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>600</v>
-      </c>
-      <c r="X44" s="3">
-        <v>800</v>
       </c>
       <c r="Y44" s="3">
         <v>800</v>
@@ -3227,164 +3323,173 @@
         <v>800</v>
       </c>
       <c r="AA44" s="3">
+        <v>800</v>
+      </c>
+      <c r="AB44" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>200</v>
+      </c>
+      <c r="E45" s="3">
         <v>100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>500</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>400</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>200</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>100</v>
       </c>
-      <c r="I45" s="3">
-        <v>0</v>
-      </c>
       <c r="J45" s="3">
+        <v>0</v>
+      </c>
+      <c r="K45" s="3">
         <v>100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>600</v>
       </c>
-      <c r="L45" s="3">
-        <v>0</v>
-      </c>
       <c r="M45" s="3">
         <v>0</v>
       </c>
       <c r="N45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O45" s="3">
         <v>100</v>
       </c>
       <c r="P45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q45" s="3">
         <v>0</v>
       </c>
       <c r="R45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S45" s="3">
         <v>100</v>
       </c>
       <c r="T45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V45" s="3">
         <v>100</v>
       </c>
       <c r="W45" s="3">
+        <v>100</v>
+      </c>
+      <c r="X45" s="3">
         <v>200</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>400</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>200</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>300</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E46" s="3">
         <v>1100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>100</v>
-      </c>
-      <c r="Q46" s="3">
-        <v>200</v>
       </c>
       <c r="R46" s="3">
         <v>200</v>
       </c>
       <c r="S46" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="T46" s="3">
         <v>400</v>
       </c>
       <c r="U46" s="3">
+        <v>400</v>
+      </c>
+      <c r="V46" s="3">
         <v>500</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>300</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>800</v>
-      </c>
-      <c r="X46" s="3">
-        <v>1100</v>
       </c>
       <c r="Y46" s="3">
         <v>1100</v>
       </c>
       <c r="Z46" s="3">
+        <v>1100</v>
+      </c>
+      <c r="AA46" s="3">
         <v>1000</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3460,8 +3565,11 @@
       <c r="AA47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3484,10 +3592,10 @@
         <v>400</v>
       </c>
       <c r="J48" s="3">
+        <v>400</v>
+      </c>
+      <c r="K48" s="3">
         <v>500</v>
-      </c>
-      <c r="K48" s="3">
-        <v>100</v>
       </c>
       <c r="L48" s="3">
         <v>100</v>
@@ -3499,7 +3607,7 @@
         <v>100</v>
       </c>
       <c r="O48" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="P48" s="3">
         <v>200</v>
@@ -3508,7 +3616,7 @@
         <v>200</v>
       </c>
       <c r="R48" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="S48" s="3">
         <v>0</v>
@@ -3523,7 +3631,7 @@
         <v>0</v>
       </c>
       <c r="W48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X48" s="3">
         <v>100</v>
@@ -3535,10 +3643,13 @@
         <v>100</v>
       </c>
       <c r="AA48" s="3">
+        <v>100</v>
+      </c>
+      <c r="AB48" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3614,8 +3725,11 @@
       <c r="AA49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3691,8 +3805,11 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3768,8 +3885,11 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3828,13 +3948,13 @@
         <v>0</v>
       </c>
       <c r="V52" s="3">
+        <v>0</v>
+      </c>
+      <c r="W52" s="3">
         <v>100</v>
       </c>
-      <c r="W52" s="3">
-        <v>0</v>
-      </c>
       <c r="X52" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="Y52" s="3">
         <v>300</v>
@@ -3843,10 +3963,13 @@
         <v>300</v>
       </c>
       <c r="AA52" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+        <v>300</v>
+      </c>
+      <c r="AB52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3922,73 +4045,76 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>3900</v>
+      </c>
+      <c r="E54" s="3">
         <v>1500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>2200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>2000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>2100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>2400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1200</v>
-      </c>
-      <c r="O54" s="3">
-        <v>300</v>
       </c>
       <c r="P54" s="3">
         <v>300</v>
       </c>
       <c r="Q54" s="3">
+        <v>300</v>
+      </c>
+      <c r="R54" s="3">
         <v>400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>200</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>500</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>400</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>500</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>400</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>900</v>
-      </c>
-      <c r="X54" s="3">
-        <v>1500</v>
       </c>
       <c r="Y54" s="3">
         <v>1500</v>
@@ -3997,10 +4123,13 @@
         <v>1500</v>
       </c>
       <c r="AA54" s="3">
+        <v>1500</v>
+      </c>
+      <c r="AB54" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4028,8 +4157,9 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+    </row>
+    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4057,49 +4187,50 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+    </row>
+    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E57" s="3">
         <v>2500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>2600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>2400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>2300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>2500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>2600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>2500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2900</v>
-      </c>
-      <c r="M57" s="3">
-        <v>3000</v>
       </c>
       <c r="N57" s="3">
         <v>3000</v>
       </c>
       <c r="O57" s="3">
+        <v>3000</v>
+      </c>
+      <c r="P57" s="3">
         <v>3100</v>
-      </c>
-      <c r="P57" s="3">
-        <v>3000</v>
       </c>
       <c r="Q57" s="3">
         <v>3000</v>
@@ -4123,258 +4254,270 @@
         <v>3000</v>
       </c>
       <c r="X57" s="3">
+        <v>3000</v>
+      </c>
+      <c r="Y57" s="3">
         <v>2900</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>2700</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>2600</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E58" s="3">
         <v>1700</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>1000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>1100</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>1000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>1300</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>1500</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>3300</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>2600</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>2700</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>3100</v>
-      </c>
-      <c r="N58" s="3">
-        <v>5300</v>
       </c>
       <c r="O58" s="3">
         <v>5300</v>
       </c>
       <c r="P58" s="3">
+        <v>5300</v>
+      </c>
+      <c r="Q58" s="3">
         <v>5000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>5100</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>4800</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>4600</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>5100</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>4900</v>
-      </c>
-      <c r="V58" s="3">
-        <v>4600</v>
       </c>
       <c r="W58" s="3">
         <v>4600</v>
       </c>
       <c r="X58" s="3">
+        <v>4600</v>
+      </c>
+      <c r="Y58" s="3">
         <v>4500</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>4200</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>4000</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>3500</v>
       </c>
     </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E59" s="3">
         <v>1800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>2200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>5100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>3100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>3000</v>
-      </c>
-      <c r="L59" s="3">
-        <v>3100</v>
       </c>
       <c r="M59" s="3">
         <v>3100</v>
       </c>
       <c r="N59" s="3">
+        <v>3100</v>
+      </c>
+      <c r="O59" s="3">
         <v>4100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>3200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>3700</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>3600</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>3200</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>3100</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>4500</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>4400</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>4200</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>3800</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>3400</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>2800</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>2700</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>5100</v>
+      </c>
+      <c r="E60" s="3">
         <v>6000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>5400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>5700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>5100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>5700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>9200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>9000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>8300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>8600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>9200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>12400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>11600</v>
-      </c>
-      <c r="P60" s="3">
-        <v>11700</v>
       </c>
       <c r="Q60" s="3">
         <v>11700</v>
       </c>
       <c r="R60" s="3">
+        <v>11700</v>
+      </c>
+      <c r="S60" s="3">
         <v>11000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>10700</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>12600</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>12200</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>11800</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>11400</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>10800</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>9700</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>9300</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>8500</v>
       </c>
     </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E61" s="3">
         <v>1000</v>
-      </c>
-      <c r="E61" s="3">
-        <v>1400</v>
       </c>
       <c r="F61" s="3">
         <v>1400</v>
@@ -4383,25 +4526,25 @@
         <v>1400</v>
       </c>
       <c r="H61" s="3">
+        <v>1400</v>
+      </c>
+      <c r="I61" s="3">
         <v>1300</v>
-      </c>
-      <c r="I61" s="3">
-        <v>600</v>
       </c>
       <c r="J61" s="3">
         <v>600</v>
       </c>
       <c r="K61" s="3">
+        <v>600</v>
+      </c>
+      <c r="L61" s="3">
         <v>1300</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1200</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>700</v>
-      </c>
-      <c r="N61" s="3">
-        <v>600</v>
       </c>
       <c r="O61" s="3">
         <v>600</v>
@@ -4410,17 +4553,17 @@
         <v>600</v>
       </c>
       <c r="Q61" s="3">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="R61" s="3">
         <v>300</v>
       </c>
       <c r="S61" s="3">
+        <v>300</v>
+      </c>
+      <c r="T61" s="3">
         <v>600</v>
       </c>
-      <c r="T61" s="3">
-        <v>0</v>
-      </c>
       <c r="U61" s="3">
         <v>0</v>
       </c>
@@ -4442,8 +4585,11 @@
       <c r="AA61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4454,7 +4600,7 @@
         <v>300</v>
       </c>
       <c r="F62" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="G62" s="3">
         <v>400</v>
@@ -4463,64 +4609,67 @@
         <v>400</v>
       </c>
       <c r="I62" s="3">
+        <v>400</v>
+      </c>
+      <c r="J62" s="3">
         <v>500</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>2600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>5600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>7600</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1800</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>5100</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>6200</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>6600</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>4400</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>4700</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>3400</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>2100</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>6300</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>8000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>1800</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>1100</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>800</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>1400</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4596,8 +4745,11 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4673,8 +4825,11 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4750,85 +4905,91 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>6500</v>
+      </c>
+      <c r="E66" s="3">
         <v>7300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>7200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>7500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>6800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>7400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>10300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>12200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>15100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>17400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>11700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>18100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>18400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>18800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>16400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>16100</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>14700</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>14600</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>18500</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>19800</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>13300</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>11900</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>10500</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>10800</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>9400</v>
       </c>
     </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4856,8 +5017,9 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+    </row>
+    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4933,8 +5095,11 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5010,19 +5175,22 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E70" s="3">
         <v>5200</v>
       </c>
-      <c r="E70" s="3">
+      <c r="F70" s="3">
         <v>6100</v>
-      </c>
-      <c r="F70" s="3">
-        <v>6900</v>
       </c>
       <c r="G70" s="3">
         <v>6900</v>
@@ -5031,22 +5199,22 @@
         <v>6900</v>
       </c>
       <c r="I70" s="3">
+        <v>6900</v>
+      </c>
+      <c r="J70" s="3">
         <v>3900</v>
       </c>
-      <c r="J70" s="3">
+      <c r="K70" s="3">
         <v>2700</v>
       </c>
-      <c r="K70" s="3">
+      <c r="L70" s="3">
         <v>2600</v>
       </c>
-      <c r="L70" s="3">
+      <c r="M70" s="3">
         <v>1900</v>
       </c>
-      <c r="M70" s="3">
+      <c r="N70" s="3">
         <v>1100</v>
-      </c>
-      <c r="N70" s="3">
-        <v>800</v>
       </c>
       <c r="O70" s="3">
         <v>800</v>
@@ -5067,28 +5235,31 @@
         <v>800</v>
       </c>
       <c r="U70" s="3">
+        <v>800</v>
+      </c>
+      <c r="V70" s="3">
         <v>1000</v>
-      </c>
-      <c r="V70" s="3">
-        <v>1100</v>
       </c>
       <c r="W70" s="3">
         <v>1100</v>
       </c>
       <c r="X70" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="Y70" s="3">
         <v>1200</v>
       </c>
       <c r="Z70" s="3">
+        <v>1200</v>
+      </c>
+      <c r="AA70" s="3">
         <v>1300</v>
       </c>
-      <c r="AA70" s="3">
+      <c r="AB70" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5164,85 +5335,91 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-145500</v>
+      </c>
+      <c r="E72" s="3">
         <v>-144400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-143400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-142400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-141900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-141800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-140600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-140000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-142100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-143600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-136800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-139600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-140600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-140500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-137900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-137600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-134900</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-134100</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-137500</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-138500</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-131300</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-128900</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-127800</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-127600</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>-125500</v>
       </c>
     </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5318,8 +5495,11 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5395,8 +5575,11 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5472,85 +5655,91 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-5800</v>
+      </c>
+      <c r="E76" s="3">
         <v>-11000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-11100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-12300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-12000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-12200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-11900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-13600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-16400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-18400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-12400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-17700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-18800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-19400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-16800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-16600</v>
-      </c>
-      <c r="S76" s="3">
-        <v>-15000</v>
       </c>
       <c r="T76" s="3">
         <v>-15000</v>
       </c>
       <c r="U76" s="3">
+        <v>-15000</v>
+      </c>
+      <c r="V76" s="3">
         <v>-18900</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>-20500</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>-13500</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>-11500</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>-10300</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>-10600</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>-8700</v>
       </c>
     </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5626,167 +5815,176 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43373</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43190</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43100</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43008</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42916</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42825</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42735</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E81" s="3">
         <v>-1000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-1100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-1200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>2100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-6800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>2700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>1100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-2700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-2800</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-800</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>3400</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>1000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-7200</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-2400</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-1100</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-200</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-2100</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5814,8 +6012,9 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+    </row>
+    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5874,11 +6073,11 @@
         <v>0</v>
       </c>
       <c r="V83" s="3">
+        <v>0</v>
+      </c>
+      <c r="W83" s="3">
         <v>100</v>
       </c>
-      <c r="W83" s="3">
-        <v>0</v>
-      </c>
       <c r="X83" s="3">
         <v>0</v>
       </c>
@@ -5886,13 +6085,16 @@
         <v>0</v>
       </c>
       <c r="Z83" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA83" s="3">
         <v>100</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5968,8 +6170,11 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6045,8 +6250,11 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6122,8 +6330,11 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6199,8 +6410,11 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6276,43 +6490,46 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E89" s="3">
         <v>-300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-1300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-500</v>
-      </c>
-      <c r="N89" s="3">
-        <v>-200</v>
       </c>
       <c r="O89" s="3">
         <v>-200</v>
@@ -6324,37 +6541,40 @@
         <v>-200</v>
       </c>
       <c r="R89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="S89" s="3">
         <v>-300</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-400</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-200</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-400</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-700</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-200</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>100</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>-400</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>-200</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6382,8 +6602,9 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+    </row>
+    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6411,8 +6632,8 @@
       <c r="K91" s="3">
         <v>0</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>4</v>
+      <c r="L91" s="3">
+        <v>0</v>
       </c>
       <c r="M91" s="3" t="s">
         <v>4</v>
@@ -6423,8 +6644,8 @@
       <c r="O91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P91" s="3">
-        <v>0</v>
+      <c r="P91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q91" s="3">
         <v>0</v>
@@ -6459,8 +6680,11 @@
       <c r="AA91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6536,8 +6760,11 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6613,8 +6840,11 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -6642,8 +6872,8 @@
       <c r="K94" s="3">
         <v>0</v>
       </c>
-      <c r="L94" s="3" t="s">
-        <v>4</v>
+      <c r="L94" s="3">
+        <v>0</v>
       </c>
       <c r="M94" s="3" t="s">
         <v>4</v>
@@ -6654,8 +6884,8 @@
       <c r="O94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P94" s="3">
-        <v>0</v>
+      <c r="P94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q94" s="3">
         <v>0</v>
@@ -6690,8 +6920,11 @@
       <c r="AA94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6719,8 +6952,9 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+    </row>
+    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6796,8 +7030,11 @@
       <c r="AA96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6873,8 +7110,11 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6950,8 +7190,11 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7027,46 +7270,49 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E100" s="3">
         <v>100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>1000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>800</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>1200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>1100</v>
-      </c>
-      <c r="O100" s="3">
-        <v>200</v>
       </c>
       <c r="P100" s="3">
         <v>200</v>
@@ -7078,34 +7324,37 @@
         <v>200</v>
       </c>
       <c r="S100" s="3">
+        <v>200</v>
+      </c>
+      <c r="T100" s="3">
         <v>400</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>200</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>500</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>600</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>300</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-100</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>400</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>200</v>
       </c>
-      <c r="AA100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7181,47 +7430,50 @@
       <c r="AA101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E102" s="3">
         <v>-300</v>
-      </c>
-      <c r="E102" s="3">
-        <v>100</v>
       </c>
       <c r="F102" s="3">
         <v>100</v>
       </c>
       <c r="G102" s="3">
+        <v>100</v>
+      </c>
+      <c r="H102" s="3">
         <v>-400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>1100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>900</v>
       </c>
-      <c r="O102" s="3">
-        <v>0</v>
-      </c>
       <c r="P102" s="3">
         <v>0</v>
       </c>
@@ -7229,26 +7481,26 @@
         <v>0</v>
       </c>
       <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
         <v>-100</v>
       </c>
-      <c r="S102" s="3">
-        <v>0</v>
-      </c>
       <c r="T102" s="3">
         <v>0</v>
       </c>
       <c r="U102" s="3">
+        <v>0</v>
+      </c>
+      <c r="V102" s="3">
         <v>100</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-100</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>100</v>
       </c>
-      <c r="X102" s="3">
-        <v>0</v>
-      </c>
       <c r="Y102" s="3">
         <v>0</v>
       </c>
@@ -7256,6 +7508,9 @@
         <v>0</v>
       </c>
       <c r="AA102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/GTHP_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GTHP_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="92">
   <si>
     <t>GTHP</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AB102"/>
+  <dimension ref="A5:AC102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,119 +665,122 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43738</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43646</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43555</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43465</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43373</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43281</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43190</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43100</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43008</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42916</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42825</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42735</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -791,11 +794,11 @@
         <v>0</v>
       </c>
       <c r="G8" s="3">
+        <v>0</v>
+      </c>
+      <c r="H8" s="3">
         <v>100</v>
       </c>
-      <c r="H8" s="3">
-        <v>0</v>
-      </c>
       <c r="I8" s="3">
         <v>0</v>
       </c>
@@ -806,11 +809,11 @@
         <v>0</v>
       </c>
       <c r="L8" s="3">
+        <v>0</v>
+      </c>
+      <c r="M8" s="3">
         <v>100</v>
       </c>
-      <c r="M8" s="3">
-        <v>0</v>
-      </c>
       <c r="N8" s="3">
         <v>0</v>
       </c>
@@ -839,34 +842,37 @@
         <v>0</v>
       </c>
       <c r="W8" s="3">
+        <v>0</v>
+      </c>
+      <c r="X8" s="3">
         <v>100</v>
       </c>
-      <c r="X8" s="3">
-        <v>0</v>
-      </c>
       <c r="Y8" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="3">
         <v>100</v>
       </c>
-      <c r="Z8" s="3">
-        <v>0</v>
-      </c>
       <c r="AA8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AB8" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC8" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="3">
+        <v>100</v>
+      </c>
+      <c r="E9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E9" s="3">
-        <v>0</v>
-      </c>
       <c r="F9" s="3">
         <v>0</v>
       </c>
@@ -876,148 +882,154 @@
       <c r="H9" s="3">
         <v>0</v>
       </c>
-      <c r="I9" s="3" t="s">
-        <v>4</v>
+      <c r="I9" s="3">
+        <v>0</v>
       </c>
       <c r="J9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K9" s="3">
+      <c r="K9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L9" s="3">
         <v>-100</v>
       </c>
-      <c r="L9" s="3">
-        <v>0</v>
-      </c>
       <c r="M9" s="3">
         <v>0</v>
       </c>
-      <c r="N9" s="3" t="s">
+      <c r="N9" s="3">
+        <v>0</v>
+      </c>
+      <c r="O9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O9" s="3">
-        <v>0</v>
-      </c>
-      <c r="P9" s="3" t="s">
+      <c r="P9" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>100</v>
       </c>
-      <c r="R9" s="3">
-        <v>0</v>
-      </c>
       <c r="S9" s="3">
+        <v>0</v>
+      </c>
+      <c r="T9" s="3">
         <v>100</v>
       </c>
-      <c r="T9" s="3" t="s">
+      <c r="U9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U9" s="3">
-        <v>0</v>
-      </c>
       <c r="V9" s="3">
         <v>0</v>
       </c>
       <c r="W9" s="3">
+        <v>0</v>
+      </c>
+      <c r="X9" s="3">
         <v>300</v>
-      </c>
-      <c r="X9" s="3">
-        <v>100</v>
       </c>
       <c r="Y9" s="3">
         <v>100</v>
       </c>
       <c r="Z9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA9" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB9" s="3">
         <v>300</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E10" s="3">
-        <v>0</v>
+      <c r="E10" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F10" s="3">
         <v>0</v>
       </c>
       <c r="G10" s="3">
+        <v>0</v>
+      </c>
+      <c r="H10" s="3">
         <v>100</v>
       </c>
-      <c r="H10" s="3">
-        <v>0</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>4</v>
+      <c r="I10" s="3">
+        <v>0</v>
       </c>
       <c r="J10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K10" s="3">
-        <v>100</v>
+      <c r="K10" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L10" s="3">
         <v>100</v>
       </c>
       <c r="M10" s="3">
-        <v>0</v>
-      </c>
-      <c r="N10" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="N10" s="3">
+        <v>0</v>
+      </c>
+      <c r="O10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O10" s="3">
-        <v>0</v>
-      </c>
-      <c r="P10" s="3" t="s">
+      <c r="P10" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>-100</v>
       </c>
-      <c r="R10" s="3">
-        <v>0</v>
-      </c>
       <c r="S10" s="3">
+        <v>0</v>
+      </c>
+      <c r="T10" s="3">
         <v>-100</v>
       </c>
-      <c r="T10" s="3" t="s">
+      <c r="U10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U10" s="3">
-        <v>0</v>
-      </c>
       <c r="V10" s="3">
         <v>0</v>
       </c>
       <c r="W10" s="3">
+        <v>0</v>
+      </c>
+      <c r="X10" s="3">
         <v>-200</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>-100</v>
       </c>
-      <c r="Y10" s="3">
-        <v>0</v>
-      </c>
       <c r="Z10" s="3">
         <v>0</v>
       </c>
       <c r="AA10" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB10" s="3">
         <v>-200</v>
       </c>
-      <c r="AB10" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1046,8 +1058,9 @@
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC11" s="3"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1079,11 +1092,11 @@
         <v>0</v>
       </c>
       <c r="M12" s="3">
+        <v>0</v>
+      </c>
+      <c r="N12" s="3">
         <v>100</v>
       </c>
-      <c r="N12" s="3">
-        <v>0</v>
-      </c>
       <c r="O12" s="3">
         <v>0</v>
       </c>
@@ -1097,13 +1110,13 @@
         <v>0</v>
       </c>
       <c r="S12" s="3">
+        <v>0</v>
+      </c>
+      <c r="T12" s="3">
         <v>100</v>
       </c>
-      <c r="T12" s="3">
-        <v>0</v>
-      </c>
       <c r="U12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V12" s="3">
         <v>100</v>
@@ -1121,13 +1134,16 @@
         <v>100</v>
       </c>
       <c r="AA12" s="3">
+        <v>100</v>
+      </c>
+      <c r="AB12" s="3">
         <v>200</v>
       </c>
-      <c r="AB12" s="3">
+      <c r="AC12" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1206,17 +1222,20 @@
       <c r="AB13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>800</v>
+      </c>
+      <c r="E14" s="3">
         <v>-300</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
       <c r="F14" s="3">
         <v>0</v>
       </c>
@@ -1224,14 +1243,14 @@
         <v>0</v>
       </c>
       <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
         <v>-800</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>200</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
       <c r="K14" s="3">
         <v>0</v>
       </c>
@@ -1239,31 +1258,31 @@
         <v>0</v>
       </c>
       <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
         <v>300</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
       <c r="O14" s="3">
         <v>0</v>
       </c>
       <c r="P14" s="3">
         <v>0</v>
       </c>
-      <c r="Q14" s="3" t="s">
-        <v>4</v>
+      <c r="Q14" s="3">
+        <v>0</v>
       </c>
       <c r="R14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
+      <c r="S14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T14" s="3">
+        <v>0</v>
+      </c>
+      <c r="U14" s="3">
         <v>-1000</v>
-      </c>
-      <c r="U14" s="3" t="s">
-        <v>4</v>
       </c>
       <c r="V14" s="3" t="s">
         <v>4</v>
@@ -1274,8 +1293,8 @@
       <c r="X14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Y14" s="3">
-        <v>0</v>
+      <c r="Y14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Z14" s="3">
         <v>0</v>
@@ -1286,8 +1305,11 @@
       <c r="AB14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1366,8 +1388,11 @@
       <c r="AB15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1393,43 +1418,44 @@
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
-    </row>
-    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC16" s="3"/>
+    </row>
+    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E17" s="3">
         <v>1000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>-300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>700</v>
-      </c>
-      <c r="N17" s="3">
-        <v>200</v>
       </c>
       <c r="O17" s="3">
         <v>200</v>
@@ -1438,43 +1464,46 @@
         <v>200</v>
       </c>
       <c r="Q17" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="R17" s="3">
         <v>300</v>
       </c>
       <c r="S17" s="3">
+        <v>300</v>
+      </c>
+      <c r="T17" s="3">
         <v>500</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>-800</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>500</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>400</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>800</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>1400</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>600</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>500</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>1200</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1482,34 +1511,34 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="F18" s="3">
         <v>-700</v>
-      </c>
-      <c r="F18" s="3">
-        <v>-400</v>
       </c>
       <c r="G18" s="3">
         <v>-400</v>
       </c>
       <c r="H18" s="3">
+        <v>-400</v>
+      </c>
+      <c r="I18" s="3">
         <v>300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-700</v>
-      </c>
-      <c r="N18" s="3">
-        <v>-200</v>
       </c>
       <c r="O18" s="3">
         <v>-200</v>
@@ -1518,43 +1547,46 @@
         <v>-200</v>
       </c>
       <c r="Q18" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="R18" s="3">
         <v>-300</v>
       </c>
       <c r="S18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="T18" s="3">
         <v>-500</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>800</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-500</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-400</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-700</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-1400</v>
-      </c>
-      <c r="Y18" s="3">
-        <v>-500</v>
       </c>
       <c r="Z18" s="3">
         <v>-500</v>
       </c>
       <c r="AA18" s="3">
+        <v>-500</v>
+      </c>
+      <c r="AB18" s="3">
         <v>-1100</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1583,8 +1615,9 @@
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
-    </row>
-    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC19" s="3"/>
+    </row>
+    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1598,73 +1631,76 @@
         <v>0</v>
       </c>
       <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
         <v>100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>400</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
       <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>2600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>2000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-5700</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>3200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>1700</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>400</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-2100</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>400</v>
-      </c>
-      <c r="S20" s="3">
-        <v>-1300</v>
       </c>
       <c r="T20" s="3">
         <v>-1300</v>
       </c>
       <c r="U20" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="V20" s="3">
         <v>4200</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>1700</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-6100</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-700</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-200</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>600</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>-600</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1672,108 +1708,111 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>-900</v>
+      </c>
+      <c r="F21" s="3">
         <v>-700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>2300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-6400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>3000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>1500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-2400</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>200</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-1800</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-500</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>3700</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>1300</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-6700</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>-2100</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>-700</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>100</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>-1600</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>100</v>
+      </c>
+      <c r="E22" s="3">
         <v>200</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>300</v>
-      </c>
-      <c r="F22" s="3">
-        <v>100</v>
       </c>
       <c r="G22" s="3">
         <v>100</v>
       </c>
       <c r="H22" s="3">
+        <v>100</v>
+      </c>
+      <c r="I22" s="3">
         <v>600</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>300</v>
-      </c>
-      <c r="J22" s="3">
-        <v>100</v>
       </c>
       <c r="K22" s="3">
         <v>100</v>
       </c>
       <c r="L22" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="M22" s="3">
         <v>300</v>
@@ -1782,31 +1821,31 @@
         <v>300</v>
       </c>
       <c r="O22" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="P22" s="3">
         <v>400</v>
       </c>
       <c r="Q22" s="3">
+        <v>400</v>
+      </c>
+      <c r="R22" s="3">
         <v>300</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>400</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>1000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>200</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>300</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>200</v>
-      </c>
-      <c r="W22" s="3">
-        <v>300</v>
       </c>
       <c r="X22" s="3">
         <v>300</v>
@@ -1815,96 +1854,102 @@
         <v>300</v>
       </c>
       <c r="Z22" s="3">
+        <v>300</v>
+      </c>
+      <c r="AA22" s="3">
         <v>200</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>300</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AC22" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="E23" s="3">
         <v>-1100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-1000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>2200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-6700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>2700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>1100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-2700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-200</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-2700</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-700</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>3400</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>1100</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-7200</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-2400</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-1100</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>-100</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>-2000</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1983,8 +2028,11 @@
       <c r="AB24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2063,168 +2111,177 @@
       <c r="AB25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="E26" s="3">
         <v>-1100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-1000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>2200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-6700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>2700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>1100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-2700</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-2700</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-700</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>3400</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>1100</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-7200</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-2400</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-1100</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>-100</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>-2000</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="E27" s="3">
         <v>-1100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-1000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-1100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-1200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>2100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-6800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>2700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>1100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-2700</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-2800</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-800</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>3400</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>1000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-7200</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-2400</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-1100</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>-200</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>-2100</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2303,8 +2360,11 @@
       <c r="AB28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2383,8 +2443,11 @@
       <c r="AB29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2463,8 +2526,11 @@
       <c r="AB30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2543,8 +2609,11 @@
       <c r="AB31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2558,153 +2627,159 @@
         <v>0</v>
       </c>
       <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
         <v>-100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-400</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
       <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>-400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-2600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-2000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>5700</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-3200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-1700</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-400</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>2100</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-400</v>
-      </c>
-      <c r="S32" s="3">
-        <v>1300</v>
       </c>
       <c r="T32" s="3">
         <v>1300</v>
       </c>
       <c r="U32" s="3">
+        <v>1300</v>
+      </c>
+      <c r="V32" s="3">
         <v>-4200</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-1700</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>6100</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>700</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>200</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-600</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>600</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="E33" s="3">
         <v>-1100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-1000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-1100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-1200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>2100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-6800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>2700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>1100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-2700</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-2800</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-800</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>3400</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>1000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-7200</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-2400</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-1100</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-200</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>-2100</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2783,173 +2858,182 @@
       <c r="AB34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="E35" s="3">
         <v>-1100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-1000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-1100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-1200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>2100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-6800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>2700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>1100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-2700</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-2800</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-800</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>3400</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>1000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-7200</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-2400</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-1100</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-200</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>-2100</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43738</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43646</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43555</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43465</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43373</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43281</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43190</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43100</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43008</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42916</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42825</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42735</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2978,8 +3062,9 @@
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
-    </row>
-    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC39" s="3"/>
+    </row>
+    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3008,50 +3093,51 @@
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
-    </row>
-    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC40" s="3"/>
+    </row>
+    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E41" s="3">
         <v>2700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>800</v>
       </c>
-      <c r="N41" s="3">
-        <v>0</v>
-      </c>
       <c r="O41" s="3">
+        <v>0</v>
+      </c>
+      <c r="P41" s="3">
         <v>900</v>
       </c>
-      <c r="P41" s="3">
-        <v>0</v>
-      </c>
       <c r="Q41" s="3">
         <v>0</v>
       </c>
@@ -3062,23 +3148,23 @@
         <v>0</v>
       </c>
       <c r="T41" s="3">
+        <v>0</v>
+      </c>
+      <c r="U41" s="3">
         <v>100</v>
       </c>
-      <c r="U41" s="3">
-        <v>0</v>
-      </c>
       <c r="V41" s="3">
+        <v>0</v>
+      </c>
+      <c r="W41" s="3">
         <v>100</v>
       </c>
-      <c r="W41" s="3">
-        <v>0</v>
-      </c>
       <c r="X41" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y41" s="3">
         <v>100</v>
       </c>
-      <c r="Y41" s="3">
-        <v>0</v>
-      </c>
       <c r="Z41" s="3">
         <v>0</v>
       </c>
@@ -3088,8 +3174,11 @@
       <c r="AB41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3168,8 +3257,11 @@
       <c r="AB42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3204,11 +3296,11 @@
         <v>0</v>
       </c>
       <c r="N43" s="3">
+        <v>0</v>
+      </c>
+      <c r="O43" s="3">
         <v>100</v>
       </c>
-      <c r="O43" s="3">
-        <v>0</v>
-      </c>
       <c r="P43" s="3">
         <v>0</v>
       </c>
@@ -3246,15 +3338,18 @@
         <v>0</v>
       </c>
       <c r="AB43" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC43" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="E44" s="3">
         <v>600</v>
@@ -3278,7 +3373,7 @@
         <v>600</v>
       </c>
       <c r="L44" s="3">
-        <v>100</v>
+        <v>600</v>
       </c>
       <c r="M44" s="3">
         <v>100</v>
@@ -3287,7 +3382,7 @@
         <v>100</v>
       </c>
       <c r="O44" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P44" s="3">
         <v>0</v>
@@ -3296,13 +3391,13 @@
         <v>0</v>
       </c>
       <c r="R44" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S44" s="3">
         <v>100</v>
       </c>
       <c r="T44" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="U44" s="3">
         <v>300</v>
@@ -3311,13 +3406,13 @@
         <v>300</v>
       </c>
       <c r="W44" s="3">
+        <v>300</v>
+      </c>
+      <c r="X44" s="3">
         <v>200</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>600</v>
-      </c>
-      <c r="Y44" s="3">
-        <v>800</v>
       </c>
       <c r="Z44" s="3">
         <v>800</v>
@@ -3326,170 +3421,179 @@
         <v>800</v>
       </c>
       <c r="AB44" s="3">
+        <v>800</v>
+      </c>
+      <c r="AC44" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>100</v>
+      </c>
+      <c r="E45" s="3">
         <v>200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>100</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>500</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>400</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>200</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>100</v>
       </c>
-      <c r="J45" s="3">
-        <v>0</v>
-      </c>
       <c r="K45" s="3">
+        <v>0</v>
+      </c>
+      <c r="L45" s="3">
         <v>100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>600</v>
       </c>
-      <c r="M45" s="3">
-        <v>0</v>
-      </c>
       <c r="N45" s="3">
         <v>0</v>
       </c>
       <c r="O45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P45" s="3">
         <v>100</v>
       </c>
       <c r="Q45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R45" s="3">
         <v>0</v>
       </c>
       <c r="S45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T45" s="3">
         <v>100</v>
       </c>
       <c r="U45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W45" s="3">
         <v>100</v>
       </c>
       <c r="X45" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y45" s="3">
         <v>200</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>400</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>200</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>300</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E46" s="3">
         <v>3500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>100</v>
-      </c>
-      <c r="R46" s="3">
-        <v>200</v>
       </c>
       <c r="S46" s="3">
         <v>200</v>
       </c>
       <c r="T46" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="U46" s="3">
         <v>400</v>
       </c>
       <c r="V46" s="3">
+        <v>400</v>
+      </c>
+      <c r="W46" s="3">
         <v>500</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>300</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>800</v>
-      </c>
-      <c r="Y46" s="3">
-        <v>1100</v>
       </c>
       <c r="Z46" s="3">
         <v>1100</v>
       </c>
       <c r="AA46" s="3">
+        <v>1100</v>
+      </c>
+      <c r="AB46" s="3">
         <v>1000</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3568,13 +3672,16 @@
       <c r="AB47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="E48" s="3">
         <v>400</v>
@@ -3595,10 +3702,10 @@
         <v>400</v>
       </c>
       <c r="K48" s="3">
+        <v>400</v>
+      </c>
+      <c r="L48" s="3">
         <v>500</v>
-      </c>
-      <c r="L48" s="3">
-        <v>100</v>
       </c>
       <c r="M48" s="3">
         <v>100</v>
@@ -3610,7 +3717,7 @@
         <v>100</v>
       </c>
       <c r="P48" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Q48" s="3">
         <v>200</v>
@@ -3619,7 +3726,7 @@
         <v>200</v>
       </c>
       <c r="S48" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="T48" s="3">
         <v>0</v>
@@ -3634,7 +3741,7 @@
         <v>0</v>
       </c>
       <c r="X48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Y48" s="3">
         <v>100</v>
@@ -3646,10 +3753,13 @@
         <v>100</v>
       </c>
       <c r="AB48" s="3">
+        <v>100</v>
+      </c>
+      <c r="AC48" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3728,8 +3838,11 @@
       <c r="AB49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3808,8 +3921,11 @@
       <c r="AB50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3888,8 +4004,11 @@
       <c r="AB51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3951,13 +4070,13 @@
         <v>0</v>
       </c>
       <c r="W52" s="3">
+        <v>0</v>
+      </c>
+      <c r="X52" s="3">
         <v>100</v>
       </c>
-      <c r="X52" s="3">
-        <v>0</v>
-      </c>
       <c r="Y52" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="Z52" s="3">
         <v>300</v>
@@ -3966,10 +4085,13 @@
         <v>300</v>
       </c>
       <c r="AB52" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
+        <v>300</v>
+      </c>
+      <c r="AC52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4048,76 +4170,79 @@
       <c r="AB53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E54" s="3">
         <v>3900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>2200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>2000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>2100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>2400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1200</v>
-      </c>
-      <c r="P54" s="3">
-        <v>300</v>
       </c>
       <c r="Q54" s="3">
         <v>300</v>
       </c>
       <c r="R54" s="3">
+        <v>300</v>
+      </c>
+      <c r="S54" s="3">
         <v>400</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>200</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>500</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>400</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>500</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>400</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>900</v>
-      </c>
-      <c r="Y54" s="3">
-        <v>1500</v>
       </c>
       <c r="Z54" s="3">
         <v>1500</v>
@@ -4126,10 +4251,13 @@
         <v>1500</v>
       </c>
       <c r="AB54" s="3">
+        <v>1500</v>
+      </c>
+      <c r="AC54" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4158,8 +4286,9 @@
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
-    </row>
-    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC55" s="3"/>
+    </row>
+    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4188,52 +4317,53 @@
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
-    </row>
-    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC56" s="3"/>
+    </row>
+    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E57" s="3">
         <v>2300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>2500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>2600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>2400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>2300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>2500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>2600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>2900</v>
-      </c>
-      <c r="N57" s="3">
-        <v>3000</v>
       </c>
       <c r="O57" s="3">
         <v>3000</v>
       </c>
       <c r="P57" s="3">
+        <v>3000</v>
+      </c>
+      <c r="Q57" s="3">
         <v>3100</v>
-      </c>
-      <c r="Q57" s="3">
-        <v>3000</v>
       </c>
       <c r="R57" s="3">
         <v>3000</v>
@@ -4257,259 +4387,271 @@
         <v>3000</v>
       </c>
       <c r="Y57" s="3">
+        <v>3000</v>
+      </c>
+      <c r="Z57" s="3">
         <v>2900</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>2700</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>2600</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>800</v>
+      </c>
+      <c r="E58" s="3">
         <v>1200</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>1700</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>1000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>1100</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>1000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>1300</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>1500</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>3300</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>2600</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>2700</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>3100</v>
-      </c>
-      <c r="O58" s="3">
-        <v>5300</v>
       </c>
       <c r="P58" s="3">
         <v>5300</v>
       </c>
       <c r="Q58" s="3">
+        <v>5300</v>
+      </c>
+      <c r="R58" s="3">
         <v>5000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>5100</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>4800</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>4600</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>5100</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>4900</v>
-      </c>
-      <c r="W58" s="3">
-        <v>4600</v>
       </c>
       <c r="X58" s="3">
         <v>4600</v>
       </c>
       <c r="Y58" s="3">
+        <v>4600</v>
+      </c>
+      <c r="Z58" s="3">
         <v>4500</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>4200</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>4000</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>3500</v>
       </c>
     </row>
-    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E59" s="3">
         <v>1700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>2200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>5100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>3100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>3000</v>
-      </c>
-      <c r="M59" s="3">
-        <v>3100</v>
       </c>
       <c r="N59" s="3">
         <v>3100</v>
       </c>
       <c r="O59" s="3">
+        <v>3100</v>
+      </c>
+      <c r="P59" s="3">
         <v>4100</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>3200</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>3700</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>3600</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>3200</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>3100</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>4500</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>4400</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>4200</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>3800</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>3400</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>2800</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>2700</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>4900</v>
+      </c>
+      <c r="E60" s="3">
         <v>5100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>6000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>5400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>5700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>5100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>5700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>9200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>9000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>8300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>8600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>9200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>12400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>11600</v>
-      </c>
-      <c r="Q60" s="3">
-        <v>11700</v>
       </c>
       <c r="R60" s="3">
         <v>11700</v>
       </c>
       <c r="S60" s="3">
+        <v>11700</v>
+      </c>
+      <c r="T60" s="3">
         <v>11000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>10700</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>12600</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>12200</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>11800</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>11400</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>10800</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>9700</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>9300</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>8500</v>
       </c>
     </row>
-    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4517,10 +4659,10 @@
         <v>1100</v>
       </c>
       <c r="E61" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F61" s="3">
         <v>1000</v>
-      </c>
-      <c r="F61" s="3">
-        <v>1400</v>
       </c>
       <c r="G61" s="3">
         <v>1400</v>
@@ -4529,25 +4671,25 @@
         <v>1400</v>
       </c>
       <c r="I61" s="3">
+        <v>1400</v>
+      </c>
+      <c r="J61" s="3">
         <v>1300</v>
-      </c>
-      <c r="J61" s="3">
-        <v>600</v>
       </c>
       <c r="K61" s="3">
         <v>600</v>
       </c>
       <c r="L61" s="3">
+        <v>600</v>
+      </c>
+      <c r="M61" s="3">
         <v>1300</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1200</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>700</v>
-      </c>
-      <c r="O61" s="3">
-        <v>600</v>
       </c>
       <c r="P61" s="3">
         <v>600</v>
@@ -4556,17 +4698,17 @@
         <v>600</v>
       </c>
       <c r="R61" s="3">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="S61" s="3">
         <v>300</v>
       </c>
       <c r="T61" s="3">
+        <v>300</v>
+      </c>
+      <c r="U61" s="3">
         <v>600</v>
       </c>
-      <c r="U61" s="3">
-        <v>0</v>
-      </c>
       <c r="V61" s="3">
         <v>0</v>
       </c>
@@ -4588,8 +4730,11 @@
       <c r="AB61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4603,7 +4748,7 @@
         <v>300</v>
       </c>
       <c r="G62" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="H62" s="3">
         <v>400</v>
@@ -4612,64 +4757,67 @@
         <v>400</v>
       </c>
       <c r="J62" s="3">
+        <v>400</v>
+      </c>
+      <c r="K62" s="3">
         <v>500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>2600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>5600</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>7600</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1800</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>5100</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>6200</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>6600</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>4400</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>4700</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>3400</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>2100</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>6300</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>8000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>1800</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>1100</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>800</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>1400</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4748,8 +4896,11 @@
       <c r="AB63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4828,8 +4979,11 @@
       <c r="AB64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4908,88 +5062,94 @@
       <c r="AB65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>6200</v>
+      </c>
+      <c r="E66" s="3">
         <v>6500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>7300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>7200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>7500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>6800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>7400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>10300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>12200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>15100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>17400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>11700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>18100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>18400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>18800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>16400</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>16100</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>14700</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>14600</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>18500</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>19800</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>13300</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>11900</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>10500</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>10800</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>9400</v>
       </c>
     </row>
-    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5018,8 +5178,9 @@
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
-    </row>
-    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC67" s="3"/>
+    </row>
+    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5098,8 +5259,11 @@
       <c r="AB68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5178,22 +5342,25 @@
       <c r="AB69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E70" s="3">
         <v>3200</v>
       </c>
-      <c r="E70" s="3">
+      <c r="F70" s="3">
         <v>5200</v>
       </c>
-      <c r="F70" s="3">
+      <c r="G70" s="3">
         <v>6100</v>
-      </c>
-      <c r="G70" s="3">
-        <v>6900</v>
       </c>
       <c r="H70" s="3">
         <v>6900</v>
@@ -5202,22 +5369,22 @@
         <v>6900</v>
       </c>
       <c r="J70" s="3">
+        <v>6900</v>
+      </c>
+      <c r="K70" s="3">
         <v>3900</v>
       </c>
-      <c r="K70" s="3">
+      <c r="L70" s="3">
         <v>2700</v>
       </c>
-      <c r="L70" s="3">
+      <c r="M70" s="3">
         <v>2600</v>
       </c>
-      <c r="M70" s="3">
+      <c r="N70" s="3">
         <v>1900</v>
       </c>
-      <c r="N70" s="3">
+      <c r="O70" s="3">
         <v>1100</v>
-      </c>
-      <c r="O70" s="3">
-        <v>800</v>
       </c>
       <c r="P70" s="3">
         <v>800</v>
@@ -5238,28 +5405,31 @@
         <v>800</v>
       </c>
       <c r="V70" s="3">
+        <v>800</v>
+      </c>
+      <c r="W70" s="3">
         <v>1000</v>
-      </c>
-      <c r="W70" s="3">
-        <v>1100</v>
       </c>
       <c r="X70" s="3">
         <v>1100</v>
       </c>
       <c r="Y70" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="Z70" s="3">
         <v>1200</v>
       </c>
       <c r="AA70" s="3">
+        <v>1200</v>
+      </c>
+      <c r="AB70" s="3">
         <v>1300</v>
       </c>
-      <c r="AB70" s="3">
+      <c r="AC70" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5338,88 +5508,94 @@
       <c r="AB71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-147400</v>
+      </c>
+      <c r="E72" s="3">
         <v>-145500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-144400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-143400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-142400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-141900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-141800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-140600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-140000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-142100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-143600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-136800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-139600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-140600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-140500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-137900</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-137600</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-134900</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-134100</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-137500</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-138500</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-131300</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-128900</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-127800</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>-127600</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>-125500</v>
       </c>
     </row>
-    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5498,8 +5674,11 @@
       <c r="AB73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5578,8 +5757,11 @@
       <c r="AB74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5658,88 +5840,94 @@
       <c r="AB75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-6000</v>
+      </c>
+      <c r="E76" s="3">
         <v>-5800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-11000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-11100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-12300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-12000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-12200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-11900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-13600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-16400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-18400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-12400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-17700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-18800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-19400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-16800</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-16600</v>
-      </c>
-      <c r="T76" s="3">
-        <v>-15000</v>
       </c>
       <c r="U76" s="3">
         <v>-15000</v>
       </c>
       <c r="V76" s="3">
+        <v>-15000</v>
+      </c>
+      <c r="W76" s="3">
         <v>-18900</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>-20500</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>-13500</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>-11500</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>-10300</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>-10600</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>-8700</v>
       </c>
     </row>
-    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5818,173 +6006,182 @@
       <c r="AB77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43738</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43646</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43555</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43465</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43373</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43281</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43190</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43100</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43008</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42916</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42825</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42735</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="E81" s="3">
         <v>-1100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-1000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-1100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-1200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>2100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-6800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>2700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>1100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-2700</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-2800</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-800</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>3400</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>1000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-7200</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-2400</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-1100</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-200</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>-2100</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6013,31 +6210,32 @@
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
-    </row>
-    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC82" s="3"/>
+    </row>
+    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
         <v>0</v>
       </c>
-      <c r="E83" s="3">
-        <v>0</v>
-      </c>
-      <c r="F83" s="3">
-        <v>0</v>
-      </c>
-      <c r="G83" s="3">
-        <v>0</v>
+      <c r="E83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H83" s="3">
         <v>0</v>
       </c>
-      <c r="I83" s="3">
-        <v>0</v>
-      </c>
-      <c r="J83" s="3">
-        <v>0</v>
+      <c r="I83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K83" s="3">
         <v>0</v>
@@ -6076,11 +6274,11 @@
         <v>0</v>
       </c>
       <c r="W83" s="3">
+        <v>0</v>
+      </c>
+      <c r="X83" s="3">
         <v>100</v>
       </c>
-      <c r="X83" s="3">
-        <v>0</v>
-      </c>
       <c r="Y83" s="3">
         <v>0</v>
       </c>
@@ -6088,13 +6286,16 @@
         <v>0</v>
       </c>
       <c r="AA83" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB83" s="3">
         <v>100</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6173,8 +6374,11 @@
       <c r="AB84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6253,8 +6457,11 @@
       <c r="AB85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6333,8 +6540,11 @@
       <c r="AB86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6413,8 +6623,11 @@
       <c r="AB87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6493,46 +6706,49 @@
       <c r="AB88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E89" s="3">
         <v>-600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-1300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-500</v>
-      </c>
-      <c r="O89" s="3">
-        <v>-200</v>
       </c>
       <c r="P89" s="3">
         <v>-200</v>
@@ -6544,37 +6760,40 @@
         <v>-200</v>
       </c>
       <c r="S89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="T89" s="3">
         <v>-300</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-400</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-200</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-400</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-700</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-200</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>100</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>-400</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>-200</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6603,8 +6822,9 @@
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
-    </row>
-    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC90" s="3"/>
+    </row>
+    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6635,8 +6855,8 @@
       <c r="L91" s="3">
         <v>0</v>
       </c>
-      <c r="M91" s="3" t="s">
-        <v>4</v>
+      <c r="M91" s="3">
+        <v>0</v>
       </c>
       <c r="N91" s="3" t="s">
         <v>4</v>
@@ -6647,8 +6867,8 @@
       <c r="P91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q91" s="3">
-        <v>0</v>
+      <c r="Q91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R91" s="3">
         <v>0</v>
@@ -6683,8 +6903,11 @@
       <c r="AB91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6763,8 +6986,11 @@
       <c r="AB92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6843,8 +7069,11 @@
       <c r="AB93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -6875,8 +7104,8 @@
       <c r="L94" s="3">
         <v>0</v>
       </c>
-      <c r="M94" s="3" t="s">
-        <v>4</v>
+      <c r="M94" s="3">
+        <v>0</v>
       </c>
       <c r="N94" s="3" t="s">
         <v>4</v>
@@ -6887,8 +7116,8 @@
       <c r="P94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q94" s="3">
-        <v>0</v>
+      <c r="Q94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R94" s="3">
         <v>0</v>
@@ -6923,8 +7152,11 @@
       <c r="AB94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6953,8 +7185,9 @@
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
-    </row>
-    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC95" s="3"/>
+    </row>
+    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7033,8 +7266,11 @@
       <c r="AB96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7113,8 +7349,11 @@
       <c r="AB97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7193,8 +7432,11 @@
       <c r="AB98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7273,49 +7515,52 @@
       <c r="AB99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
         <v>2900</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>400</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>1000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>1200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>1100</v>
-      </c>
-      <c r="P100" s="3">
-        <v>200</v>
       </c>
       <c r="Q100" s="3">
         <v>200</v>
@@ -7327,34 +7572,37 @@
         <v>200</v>
       </c>
       <c r="T100" s="3">
+        <v>200</v>
+      </c>
+      <c r="U100" s="3">
         <v>400</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>200</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>500</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>600</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>300</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-100</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>400</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>200</v>
       </c>
-      <c r="AB100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7433,50 +7681,53 @@
       <c r="AB101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E102" s="3">
         <v>2300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-300</v>
-      </c>
-      <c r="F102" s="3">
-        <v>100</v>
       </c>
       <c r="G102" s="3">
         <v>100</v>
       </c>
       <c r="H102" s="3">
+        <v>100</v>
+      </c>
+      <c r="I102" s="3">
         <v>-400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>1100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>900</v>
       </c>
-      <c r="P102" s="3">
-        <v>0</v>
-      </c>
       <c r="Q102" s="3">
         <v>0</v>
       </c>
@@ -7484,26 +7735,26 @@
         <v>0</v>
       </c>
       <c r="S102" s="3">
+        <v>0</v>
+      </c>
+      <c r="T102" s="3">
         <v>-100</v>
       </c>
-      <c r="T102" s="3">
-        <v>0</v>
-      </c>
       <c r="U102" s="3">
         <v>0</v>
       </c>
       <c r="V102" s="3">
+        <v>0</v>
+      </c>
+      <c r="W102" s="3">
         <v>100</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-100</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>100</v>
       </c>
-      <c r="Y102" s="3">
-        <v>0</v>
-      </c>
       <c r="Z102" s="3">
         <v>0</v>
       </c>
@@ -7511,6 +7762,9 @@
         <v>0</v>
       </c>
       <c r="AB102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/GTHP_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GTHP_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AC102"/>
+  <dimension ref="A5:AE102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,122 +665,130 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43555</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43465</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43373</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>43281</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>43190</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>43100</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>43008</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AB7" s="2">
         <v>42916</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AC7" s="2">
         <v>42825</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AD7" s="2">
         <v>42735</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AE7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -797,14 +805,14 @@
         <v>0</v>
       </c>
       <c r="H8" s="3">
+        <v>0</v>
+      </c>
+      <c r="I8" s="3">
+        <v>0</v>
+      </c>
+      <c r="J8" s="3">
         <v>100</v>
       </c>
-      <c r="I8" s="3">
-        <v>0</v>
-      </c>
-      <c r="J8" s="3">
-        <v>0</v>
-      </c>
       <c r="K8" s="3">
         <v>0</v>
       </c>
@@ -812,14 +820,14 @@
         <v>0</v>
       </c>
       <c r="M8" s="3">
+        <v>0</v>
+      </c>
+      <c r="N8" s="3">
+        <v>0</v>
+      </c>
+      <c r="O8" s="3">
         <v>100</v>
       </c>
-      <c r="N8" s="3">
-        <v>0</v>
-      </c>
-      <c r="O8" s="3">
-        <v>0</v>
-      </c>
       <c r="P8" s="3">
         <v>0</v>
       </c>
@@ -845,7 +853,7 @@
         <v>0</v>
       </c>
       <c r="X8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Y8" s="3">
         <v>0</v>
@@ -860,48 +868,54 @@
         <v>100</v>
       </c>
       <c r="AC8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD8" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AE8" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>0</v>
+      </c>
+      <c r="E9" s="3">
+        <v>0</v>
+      </c>
+      <c r="F9" s="3">
         <v>100</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="G9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F9" s="3">
-        <v>0</v>
-      </c>
-      <c r="G9" s="3">
-        <v>0</v>
-      </c>
       <c r="H9" s="3">
         <v>0</v>
       </c>
       <c r="I9" s="3">
         <v>0</v>
       </c>
-      <c r="J9" s="3" t="s">
+      <c r="J9" s="3">
+        <v>0</v>
+      </c>
+      <c r="K9" s="3">
+        <v>0</v>
+      </c>
+      <c r="L9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K9" s="3" t="s">
+      <c r="M9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>-100</v>
       </c>
-      <c r="M9" s="3">
-        <v>0</v>
-      </c>
-      <c r="N9" s="3">
-        <v>0</v>
-      </c>
-      <c r="O9" s="3" t="s">
-        <v>4</v>
+      <c r="O9" s="3">
+        <v>0</v>
       </c>
       <c r="P9" s="3">
         <v>0</v>
@@ -910,81 +924,87 @@
         <v>4</v>
       </c>
       <c r="R9" s="3">
-        <v>100</v>
-      </c>
-      <c r="S9" s="3">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="S9" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T9" s="3">
         <v>100</v>
       </c>
-      <c r="U9" s="3" t="s">
+      <c r="U9" s="3">
+        <v>0</v>
+      </c>
+      <c r="V9" s="3">
+        <v>100</v>
+      </c>
+      <c r="W9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V9" s="3">
-        <v>0</v>
-      </c>
-      <c r="W9" s="3">
-        <v>0</v>
-      </c>
       <c r="X9" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="3">
         <v>300</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="AA9" s="3">
         <v>100</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AB9" s="3">
         <v>100</v>
       </c>
-      <c r="AA9" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD9" s="3">
         <v>300</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AE9" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E10" s="3">
+        <v>0</v>
+      </c>
+      <c r="F10" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F10" s="3">
-        <v>0</v>
-      </c>
-      <c r="G10" s="3">
-        <v>0</v>
-      </c>
       <c r="H10" s="3">
+        <v>0</v>
+      </c>
+      <c r="I10" s="3">
+        <v>0</v>
+      </c>
+      <c r="J10" s="3">
         <v>100</v>
       </c>
-      <c r="I10" s="3">
-        <v>0</v>
-      </c>
-      <c r="J10" s="3" t="s">
+      <c r="K10" s="3">
+        <v>0</v>
+      </c>
+      <c r="L10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K10" s="3" t="s">
+      <c r="M10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>100</v>
-      </c>
-      <c r="N10" s="3">
-        <v>0</v>
-      </c>
-      <c r="O10" s="3" t="s">
-        <v>4</v>
       </c>
       <c r="P10" s="3">
         <v>0</v>
@@ -993,43 +1013,49 @@
         <v>4</v>
       </c>
       <c r="R10" s="3">
-        <v>-100</v>
-      </c>
-      <c r="S10" s="3">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="S10" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T10" s="3">
         <v>-100</v>
       </c>
-      <c r="U10" s="3" t="s">
+      <c r="U10" s="3">
+        <v>0</v>
+      </c>
+      <c r="V10" s="3">
+        <v>-100</v>
+      </c>
+      <c r="W10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V10" s="3">
-        <v>0</v>
-      </c>
-      <c r="W10" s="3">
-        <v>0</v>
-      </c>
       <c r="X10" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="3">
         <v>-200</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="AA10" s="3">
         <v>-100</v>
       </c>
-      <c r="Z10" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA10" s="3">
-        <v>0</v>
-      </c>
       <c r="AB10" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC10" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD10" s="3">
         <v>-200</v>
       </c>
-      <c r="AC10" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AE10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1059,13 +1085,15 @@
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD11" s="3"/>
+      <c r="AE11" s="3"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E12" s="3">
         <v>0</v>
@@ -1095,14 +1123,14 @@
         <v>0</v>
       </c>
       <c r="N12" s="3">
+        <v>0</v>
+      </c>
+      <c r="O12" s="3">
+        <v>0</v>
+      </c>
+      <c r="P12" s="3">
         <v>100</v>
       </c>
-      <c r="O12" s="3">
-        <v>0</v>
-      </c>
-      <c r="P12" s="3">
-        <v>0</v>
-      </c>
       <c r="Q12" s="3">
         <v>0</v>
       </c>
@@ -1113,7 +1141,7 @@
         <v>0</v>
       </c>
       <c r="T12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U12" s="3">
         <v>0</v>
@@ -1122,7 +1150,7 @@
         <v>100</v>
       </c>
       <c r="W12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X12" s="3">
         <v>100</v>
@@ -1137,13 +1165,19 @@
         <v>100</v>
       </c>
       <c r="AB12" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="AC12" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD12" s="3">
+        <v>200</v>
+      </c>
+      <c r="AE12" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1225,70 +1259,76 @@
       <c r="AC13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
         <v>800</v>
       </c>
-      <c r="E14" s="3">
+      <c r="G14" s="3">
         <v>-300</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
       <c r="H14" s="3">
         <v>0</v>
       </c>
       <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>-800</v>
       </c>
-      <c r="J14" s="3">
+      <c r="L14" s="3">
         <v>200</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
       <c r="M14" s="3">
         <v>0</v>
       </c>
       <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
         <v>300</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-      <c r="R14" s="3" t="s">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S14" s="3" t="s">
+      <c r="U14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T14" s="3">
-        <v>0</v>
-      </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+      <c r="W14" s="3">
         <v>-1000</v>
-      </c>
-      <c r="V14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W14" s="3" t="s">
-        <v>4</v>
       </c>
       <c r="X14" s="3" t="s">
         <v>4</v>
@@ -1296,11 +1336,11 @@
       <c r="Y14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Z14" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA14" s="3">
-        <v>0</v>
+      <c r="Z14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AB14" s="3">
         <v>0</v>
@@ -1308,8 +1348,14 @@
       <c r="AC14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1391,8 +1437,14 @@
       <c r="AC15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1419,91 +1471,99 @@
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
-    </row>
-    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD16" s="3"/>
+      <c r="AE16" s="3"/>
+    </row>
+    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E17" s="3">
+        <v>800</v>
+      </c>
+      <c r="F17" s="3">
         <v>1800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>1000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>-300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>300</v>
-      </c>
-      <c r="M17" s="3">
-        <v>200</v>
-      </c>
-      <c r="N17" s="3">
-        <v>700</v>
       </c>
       <c r="O17" s="3">
         <v>200</v>
       </c>
       <c r="P17" s="3">
-        <v>200</v>
+        <v>700</v>
       </c>
       <c r="Q17" s="3">
         <v>200</v>
       </c>
       <c r="R17" s="3">
+        <v>200</v>
+      </c>
+      <c r="S17" s="3">
+        <v>200</v>
+      </c>
+      <c r="T17" s="3">
         <v>300</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>300</v>
-      </c>
-      <c r="T17" s="3">
-        <v>500</v>
-      </c>
-      <c r="U17" s="3">
-        <v>-800</v>
       </c>
       <c r="V17" s="3">
         <v>500</v>
       </c>
       <c r="W17" s="3">
+        <v>-800</v>
+      </c>
+      <c r="X17" s="3">
+        <v>500</v>
+      </c>
+      <c r="Y17" s="3">
         <v>400</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Z17" s="3">
         <v>800</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="AA17" s="3">
         <v>1400</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AB17" s="3">
         <v>600</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AC17" s="3">
         <v>500</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AD17" s="3">
         <v>1200</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AE17" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1511,82 +1571,88 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-800</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="G18" s="3">
         <v>-1000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-700</v>
-      </c>
-      <c r="O18" s="3">
-        <v>-200</v>
-      </c>
-      <c r="P18" s="3">
-        <v>-200</v>
       </c>
       <c r="Q18" s="3">
         <v>-200</v>
       </c>
       <c r="R18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="S18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="T18" s="3">
         <v>-300</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>-300</v>
-      </c>
-      <c r="T18" s="3">
-        <v>-500</v>
-      </c>
-      <c r="U18" s="3">
-        <v>800</v>
       </c>
       <c r="V18" s="3">
         <v>-500</v>
       </c>
       <c r="W18" s="3">
+        <v>800</v>
+      </c>
+      <c r="X18" s="3">
+        <v>-500</v>
+      </c>
+      <c r="Y18" s="3">
         <v>-400</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Z18" s="3">
         <v>-700</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="AA18" s="3">
         <v>-1400</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AB18" s="3">
         <v>-500</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AC18" s="3">
         <v>-500</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AD18" s="3">
         <v>-1100</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AE18" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1616,8 +1682,10 @@
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
-    </row>
-    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD19" s="3"/>
+      <c r="AE19" s="3"/>
+    </row>
+    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1634,73 +1702,79 @@
         <v>0</v>
       </c>
       <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
         <v>100</v>
-      </c>
-      <c r="I20" s="3">
-        <v>400</v>
-      </c>
-      <c r="J20" s="3">
-        <v>0</v>
       </c>
       <c r="K20" s="3">
         <v>400</v>
       </c>
       <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
+        <v>400</v>
+      </c>
+      <c r="N20" s="3">
         <v>2600</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>2000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>-5700</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>3200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>1700</v>
-      </c>
-      <c r="Q20" s="3">
-        <v>400</v>
-      </c>
-      <c r="R20" s="3">
-        <v>-2100</v>
       </c>
       <c r="S20" s="3">
         <v>400</v>
       </c>
       <c r="T20" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="U20" s="3">
+        <v>400</v>
+      </c>
+      <c r="V20" s="3">
         <v>-1300</v>
       </c>
-      <c r="U20" s="3">
+      <c r="W20" s="3">
         <v>-1300</v>
       </c>
-      <c r="V20" s="3">
+      <c r="X20" s="3">
         <v>4200</v>
       </c>
-      <c r="W20" s="3">
+      <c r="Y20" s="3">
         <v>1700</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Z20" s="3">
         <v>-6100</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="AA20" s="3">
         <v>-700</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AB20" s="3">
         <v>-200</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AC20" s="3">
         <v>600</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AD20" s="3">
         <v>-600</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AE20" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1708,82 +1782,88 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>-800</v>
+      </c>
+      <c r="F21" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="G21" s="3">
         <v>-900</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>2300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>1900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>-6400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>3000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>1500</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>300</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>-2400</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>200</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>-1800</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>-500</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>3700</v>
       </c>
-      <c r="W21" s="3">
+      <c r="Y21" s="3">
         <v>1300</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Z21" s="3">
         <v>-6700</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="AA21" s="3">
         <v>-2100</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AB21" s="3">
         <v>-700</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AC21" s="3">
         <v>100</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AD21" s="3">
         <v>-1600</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AE21" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1791,58 +1871,58 @@
         <v>100</v>
       </c>
       <c r="E22" s="3">
+        <v>100</v>
+      </c>
+      <c r="F22" s="3">
+        <v>100</v>
+      </c>
+      <c r="G22" s="3">
         <v>200</v>
       </c>
-      <c r="F22" s="3">
+      <c r="H22" s="3">
         <v>300</v>
       </c>
-      <c r="G22" s="3">
+      <c r="I22" s="3">
         <v>100</v>
       </c>
-      <c r="H22" s="3">
+      <c r="J22" s="3">
         <v>100</v>
       </c>
-      <c r="I22" s="3">
+      <c r="K22" s="3">
         <v>600</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>300</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>100</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>100</v>
-      </c>
-      <c r="M22" s="3">
-        <v>300</v>
-      </c>
-      <c r="N22" s="3">
-        <v>300</v>
       </c>
       <c r="O22" s="3">
         <v>300</v>
       </c>
       <c r="P22" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q22" s="3">
+        <v>300</v>
+      </c>
+      <c r="R22" s="3">
         <v>400</v>
-      </c>
-      <c r="Q22" s="3">
-        <v>400</v>
-      </c>
-      <c r="R22" s="3">
-        <v>300</v>
       </c>
       <c r="S22" s="3">
         <v>400</v>
       </c>
       <c r="T22" s="3">
+        <v>300</v>
+      </c>
+      <c r="U22" s="3">
+        <v>400</v>
+      </c>
+      <c r="V22" s="3">
         <v>1000</v>
-      </c>
-      <c r="U22" s="3">
-        <v>200</v>
-      </c>
-      <c r="V22" s="3">
-        <v>300</v>
       </c>
       <c r="W22" s="3">
         <v>200</v>
@@ -1851,13 +1931,13 @@
         <v>300</v>
       </c>
       <c r="Y22" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="Z22" s="3">
         <v>300</v>
       </c>
       <c r="AA22" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="AB22" s="3">
         <v>300</v>
@@ -1865,91 +1945,103 @@
       <c r="AC22" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD22" s="3">
+        <v>300</v>
+      </c>
+      <c r="AE22" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-900</v>
+      </c>
+      <c r="F23" s="3">
         <v>-1800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-1100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-1000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>2200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>1600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-6700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>2700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>1100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-100</v>
-      </c>
-      <c r="R23" s="3">
-        <v>-2700</v>
-      </c>
-      <c r="S23" s="3">
-        <v>-200</v>
       </c>
       <c r="T23" s="3">
         <v>-2700</v>
       </c>
       <c r="U23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="V23" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="W23" s="3">
         <v>-700</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>3400</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>1100</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Z23" s="3">
         <v>-7200</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="AA23" s="3">
         <v>-2400</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AB23" s="3">
         <v>-1100</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AC23" s="3">
         <v>-100</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AD23" s="3">
         <v>-2000</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AE23" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -2031,8 +2123,14 @@
       <c r="AC24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2114,174 +2212,192 @@
       <c r="AC25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-900</v>
+      </c>
+      <c r="F26" s="3">
         <v>-1800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-1100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-1000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>2200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>1600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-6700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>2700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>1100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-100</v>
-      </c>
-      <c r="R26" s="3">
-        <v>-2700</v>
-      </c>
-      <c r="S26" s="3">
-        <v>-200</v>
       </c>
       <c r="T26" s="3">
         <v>-2700</v>
       </c>
       <c r="U26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="V26" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="W26" s="3">
         <v>-700</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>3400</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Y26" s="3">
         <v>1100</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Z26" s="3">
         <v>-7200</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="AA26" s="3">
         <v>-2400</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AB26" s="3">
         <v>-1100</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AC26" s="3">
         <v>-100</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AD26" s="3">
         <v>-2000</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AE26" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="F27" s="3">
         <v>-1900</v>
-      </c>
-      <c r="E27" s="3">
-        <v>-1100</v>
-      </c>
-      <c r="F27" s="3">
-        <v>-1000</v>
       </c>
       <c r="G27" s="3">
         <v>-1100</v>
       </c>
       <c r="H27" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="I27" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="J27" s="3">
         <v>-500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-1200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>2100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>1500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-6800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>2700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>1100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>-2700</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>-200</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>-2800</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>-800</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>3400</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
         <v>1000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Z27" s="3">
         <v>-7200</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="AA27" s="3">
         <v>-2400</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AB27" s="3">
         <v>-1100</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AC27" s="3">
         <v>-200</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AD27" s="3">
         <v>-2100</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AE27" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2363,8 +2479,14 @@
       <c r="AC28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2446,8 +2568,14 @@
       <c r="AC29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2529,8 +2657,14 @@
       <c r="AC30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2612,8 +2746,14 @@
       <c r="AC31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2630,156 +2770,168 @@
         <v>0</v>
       </c>
       <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
         <v>-100</v>
-      </c>
-      <c r="I32" s="3">
-        <v>-400</v>
-      </c>
-      <c r="J32" s="3">
-        <v>0</v>
       </c>
       <c r="K32" s="3">
         <v>-400</v>
       </c>
       <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
+        <v>-400</v>
+      </c>
+      <c r="N32" s="3">
         <v>-2600</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-2000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>5700</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>-3200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>-1700</v>
-      </c>
-      <c r="Q32" s="3">
-        <v>-400</v>
-      </c>
-      <c r="R32" s="3">
-        <v>2100</v>
       </c>
       <c r="S32" s="3">
         <v>-400</v>
       </c>
       <c r="T32" s="3">
+        <v>2100</v>
+      </c>
+      <c r="U32" s="3">
+        <v>-400</v>
+      </c>
+      <c r="V32" s="3">
         <v>1300</v>
       </c>
-      <c r="U32" s="3">
+      <c r="W32" s="3">
         <v>1300</v>
       </c>
-      <c r="V32" s="3">
+      <c r="X32" s="3">
         <v>-4200</v>
       </c>
-      <c r="W32" s="3">
+      <c r="Y32" s="3">
         <v>-1700</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Z32" s="3">
         <v>6100</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="AA32" s="3">
         <v>700</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AB32" s="3">
         <v>200</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AC32" s="3">
         <v>-600</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AD32" s="3">
         <v>600</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AE32" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="F33" s="3">
         <v>-1900</v>
-      </c>
-      <c r="E33" s="3">
-        <v>-1100</v>
-      </c>
-      <c r="F33" s="3">
-        <v>-1000</v>
       </c>
       <c r="G33" s="3">
         <v>-1100</v>
       </c>
       <c r="H33" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="I33" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="J33" s="3">
         <v>-500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-1200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>2100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>1500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-6800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>2700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>1100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>-2700</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>-200</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>-2800</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>-800</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>3400</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Y33" s="3">
         <v>1000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Z33" s="3">
         <v>-7200</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="AA33" s="3">
         <v>-2400</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AB33" s="3">
         <v>-1100</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AC33" s="3">
         <v>-200</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AD33" s="3">
         <v>-2100</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AE33" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2861,179 +3013,197 @@
       <c r="AC34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="F35" s="3">
         <v>-1900</v>
-      </c>
-      <c r="E35" s="3">
-        <v>-1100</v>
-      </c>
-      <c r="F35" s="3">
-        <v>-1000</v>
       </c>
       <c r="G35" s="3">
         <v>-1100</v>
       </c>
       <c r="H35" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="I35" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="J35" s="3">
         <v>-500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-1200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>2100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>1500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-6800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>2700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>1100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>-2700</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>-200</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>-2800</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>-800</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>3400</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
         <v>1000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Z35" s="3">
         <v>-7200</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="AA35" s="3">
         <v>-2400</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AB35" s="3">
         <v>-1100</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AC35" s="3">
         <v>-200</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AD35" s="3">
         <v>-2100</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AE35" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43555</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43465</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43373</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>43281</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>43190</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>43100</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>43008</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AB38" s="2">
         <v>42916</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AC38" s="2">
         <v>42825</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AD38" s="2">
         <v>42735</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AE38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3063,8 +3233,10 @@
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
-    </row>
-    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD39" s="3"/>
+      <c r="AE39" s="3"/>
+    </row>
+    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3094,56 +3266,58 @@
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
-    </row>
-    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD40" s="3"/>
+      <c r="AE40" s="3"/>
+    </row>
+    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E41" s="3">
+        <v>1800</v>
+      </c>
+      <c r="F41" s="3">
         <v>2300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>2700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>1200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>800</v>
       </c>
-      <c r="O41" s="3">
-        <v>0</v>
-      </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
+        <v>0</v>
+      </c>
+      <c r="R41" s="3">
         <v>900</v>
       </c>
-      <c r="Q41" s="3">
-        <v>0</v>
-      </c>
-      <c r="R41" s="3">
-        <v>0</v>
-      </c>
       <c r="S41" s="3">
         <v>0</v>
       </c>
@@ -3151,7 +3325,7 @@
         <v>0</v>
       </c>
       <c r="U41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V41" s="3">
         <v>0</v>
@@ -3169,7 +3343,7 @@
         <v>0</v>
       </c>
       <c r="AA41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB41" s="3">
         <v>0</v>
@@ -3177,8 +3351,14 @@
       <c r="AC41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD41" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3260,8 +3440,14 @@
       <c r="AC42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3299,14 +3485,14 @@
         <v>0</v>
       </c>
       <c r="O43" s="3">
+        <v>0</v>
+      </c>
+      <c r="P43" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q43" s="3">
         <v>100</v>
       </c>
-      <c r="P43" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q43" s="3">
-        <v>0</v>
-      </c>
       <c r="R43" s="3">
         <v>0</v>
       </c>
@@ -3341,21 +3527,27 @@
         <v>0</v>
       </c>
       <c r="AC43" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD43" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE43" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="E44" s="3">
         <v>600</v>
       </c>
       <c r="F44" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="G44" s="3">
         <v>600</v>
@@ -3376,58 +3568,64 @@
         <v>600</v>
       </c>
       <c r="M44" s="3">
-        <v>100</v>
+        <v>600</v>
       </c>
       <c r="N44" s="3">
-        <v>100</v>
+        <v>600</v>
       </c>
       <c r="O44" s="3">
         <v>100</v>
       </c>
       <c r="P44" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q44" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R44" s="3">
         <v>0</v>
       </c>
       <c r="S44" s="3">
+        <v>0</v>
+      </c>
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+      <c r="U44" s="3">
         <v>100</v>
       </c>
-      <c r="T44" s="3">
+      <c r="V44" s="3">
         <v>100</v>
-      </c>
-      <c r="U44" s="3">
-        <v>300</v>
-      </c>
-      <c r="V44" s="3">
-        <v>300</v>
       </c>
       <c r="W44" s="3">
         <v>300</v>
       </c>
       <c r="X44" s="3">
+        <v>300</v>
+      </c>
+      <c r="Y44" s="3">
+        <v>300</v>
+      </c>
+      <c r="Z44" s="3">
         <v>200</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="AA44" s="3">
         <v>600</v>
-      </c>
-      <c r="Z44" s="3">
-        <v>800</v>
-      </c>
-      <c r="AA44" s="3">
-        <v>800</v>
       </c>
       <c r="AB44" s="3">
         <v>800</v>
       </c>
       <c r="AC44" s="3">
+        <v>800</v>
+      </c>
+      <c r="AD44" s="3">
+        <v>800</v>
+      </c>
+      <c r="AE44" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3435,165 +3633,177 @@
         <v>100</v>
       </c>
       <c r="E45" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F45" s="3">
         <v>100</v>
       </c>
       <c r="G45" s="3">
+        <v>200</v>
+      </c>
+      <c r="H45" s="3">
+        <v>100</v>
+      </c>
+      <c r="I45" s="3">
         <v>500</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>400</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>200</v>
-      </c>
-      <c r="J45" s="3">
-        <v>100</v>
-      </c>
-      <c r="K45" s="3">
-        <v>0</v>
       </c>
       <c r="L45" s="3">
         <v>100</v>
       </c>
       <c r="M45" s="3">
+        <v>0</v>
+      </c>
+      <c r="N45" s="3">
+        <v>100</v>
+      </c>
+      <c r="O45" s="3">
         <v>600</v>
       </c>
-      <c r="N45" s="3">
-        <v>0</v>
-      </c>
-      <c r="O45" s="3">
-        <v>0</v>
-      </c>
       <c r="P45" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="3">
+        <v>0</v>
+      </c>
+      <c r="R45" s="3">
         <v>100</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>100</v>
       </c>
-      <c r="R45" s="3">
-        <v>0</v>
-      </c>
-      <c r="S45" s="3">
-        <v>0</v>
-      </c>
       <c r="T45" s="3">
+        <v>0</v>
+      </c>
+      <c r="U45" s="3">
+        <v>0</v>
+      </c>
+      <c r="V45" s="3">
         <v>100</v>
-      </c>
-      <c r="U45" s="3">
-        <v>100</v>
-      </c>
-      <c r="V45" s="3">
-        <v>0</v>
       </c>
       <c r="W45" s="3">
         <v>100</v>
       </c>
       <c r="X45" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y45" s="3">
         <v>100</v>
       </c>
-      <c r="Y45" s="3">
-        <v>200</v>
-      </c>
       <c r="Z45" s="3">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="AA45" s="3">
         <v>200</v>
       </c>
       <c r="AB45" s="3">
+        <v>400</v>
+      </c>
+      <c r="AC45" s="3">
+        <v>200</v>
+      </c>
+      <c r="AD45" s="3">
         <v>300</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AE45" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E46" s="3">
+        <v>2600</v>
+      </c>
+      <c r="F46" s="3">
         <v>3000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>3500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>1100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>1800</v>
-      </c>
-      <c r="H46" s="3">
-        <v>1600</v>
-      </c>
-      <c r="I46" s="3">
-        <v>1300</v>
       </c>
       <c r="J46" s="3">
         <v>1600</v>
       </c>
       <c r="K46" s="3">
+        <v>1300</v>
+      </c>
+      <c r="L46" s="3">
+        <v>1600</v>
+      </c>
+      <c r="M46" s="3">
         <v>1900</v>
-      </c>
-      <c r="L46" s="3">
-        <v>900</v>
-      </c>
-      <c r="M46" s="3">
-        <v>1200</v>
       </c>
       <c r="N46" s="3">
         <v>900</v>
       </c>
       <c r="O46" s="3">
-        <v>200</v>
+        <v>1200</v>
       </c>
       <c r="P46" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="Q46" s="3">
         <v>200</v>
       </c>
       <c r="R46" s="3">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="S46" s="3">
         <v>200</v>
       </c>
       <c r="T46" s="3">
+        <v>100</v>
+      </c>
+      <c r="U46" s="3">
         <v>200</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
+        <v>200</v>
+      </c>
+      <c r="W46" s="3">
         <v>400</v>
       </c>
-      <c r="V46" s="3">
+      <c r="X46" s="3">
         <v>400</v>
       </c>
-      <c r="W46" s="3">
+      <c r="Y46" s="3">
         <v>500</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Z46" s="3">
         <v>300</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="AA46" s="3">
         <v>800</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AB46" s="3">
         <v>1100</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AC46" s="3">
         <v>1100</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AD46" s="3">
         <v>1000</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AE46" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3675,8 +3885,14 @@
       <c r="AC47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3684,10 +3900,10 @@
         <v>300</v>
       </c>
       <c r="E48" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="F48" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="G48" s="3">
         <v>400</v>
@@ -3705,13 +3921,13 @@
         <v>400</v>
       </c>
       <c r="L48" s="3">
+        <v>400</v>
+      </c>
+      <c r="M48" s="3">
+        <v>400</v>
+      </c>
+      <c r="N48" s="3">
         <v>500</v>
-      </c>
-      <c r="M48" s="3">
-        <v>100</v>
-      </c>
-      <c r="N48" s="3">
-        <v>100</v>
       </c>
       <c r="O48" s="3">
         <v>100</v>
@@ -3720,19 +3936,19 @@
         <v>100</v>
       </c>
       <c r="Q48" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="R48" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="S48" s="3">
         <v>200</v>
       </c>
       <c r="T48" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="U48" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="V48" s="3">
         <v>0</v>
@@ -3744,10 +3960,10 @@
         <v>0</v>
       </c>
       <c r="Y48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Z48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AA48" s="3">
         <v>100</v>
@@ -3756,10 +3972,16 @@
         <v>100</v>
       </c>
       <c r="AC48" s="3">
+        <v>100</v>
+      </c>
+      <c r="AD48" s="3">
+        <v>100</v>
+      </c>
+      <c r="AE48" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3841,8 +4063,14 @@
       <c r="AC49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD49" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3924,8 +4152,14 @@
       <c r="AC50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4007,8 +4241,14 @@
       <c r="AC51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -4073,25 +4313,31 @@
         <v>0</v>
       </c>
       <c r="X52" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y52" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z52" s="3">
         <v>100</v>
       </c>
-      <c r="Y52" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z52" s="3">
-        <v>300</v>
-      </c>
       <c r="AA52" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="AB52" s="3">
         <v>300</v>
       </c>
       <c r="AC52" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
+        <v>300</v>
+      </c>
+      <c r="AD52" s="3">
+        <v>300</v>
+      </c>
+      <c r="AE52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4173,67 +4419,73 @@
       <c r="AC53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E54" s="3">
+        <v>2900</v>
+      </c>
+      <c r="F54" s="3">
         <v>3400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>3900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>1500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>2200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>2000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>1700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>2100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>2400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>1400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>1300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>1200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>300</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>400</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>200</v>
-      </c>
-      <c r="U54" s="3">
-        <v>500</v>
-      </c>
-      <c r="V54" s="3">
-        <v>400</v>
       </c>
       <c r="W54" s="3">
         <v>500</v>
@@ -4242,22 +4494,28 @@
         <v>400</v>
       </c>
       <c r="Y54" s="3">
+        <v>500</v>
+      </c>
+      <c r="Z54" s="3">
+        <v>400</v>
+      </c>
+      <c r="AA54" s="3">
         <v>900</v>
-      </c>
-      <c r="Z54" s="3">
-        <v>1500</v>
-      </c>
-      <c r="AA54" s="3">
-        <v>1500</v>
       </c>
       <c r="AB54" s="3">
         <v>1500</v>
       </c>
       <c r="AC54" s="3">
+        <v>1500</v>
+      </c>
+      <c r="AD54" s="3">
+        <v>1500</v>
+      </c>
+      <c r="AE54" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4287,8 +4545,10 @@
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
-    </row>
-    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD55" s="3"/>
+      <c r="AE55" s="3"/>
+    </row>
+    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4318,8 +4578,10 @@
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
-    </row>
-    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD56" s="3"/>
+      <c r="AE56" s="3"/>
+    </row>
+    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -4327,49 +4589,49 @@
         <v>2200</v>
       </c>
       <c r="E57" s="3">
+        <v>2200</v>
+      </c>
+      <c r="F57" s="3">
+        <v>2200</v>
+      </c>
+      <c r="G57" s="3">
         <v>2300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>2500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>2600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>2400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>2300</v>
-      </c>
-      <c r="J57" s="3">
-        <v>2500</v>
-      </c>
-      <c r="K57" s="3">
-        <v>2600</v>
       </c>
       <c r="L57" s="3">
         <v>2500</v>
       </c>
       <c r="M57" s="3">
+        <v>2600</v>
+      </c>
+      <c r="N57" s="3">
+        <v>2500</v>
+      </c>
+      <c r="O57" s="3">
         <v>2700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>2900</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>3000</v>
-      </c>
-      <c r="P57" s="3">
-        <v>3000</v>
-      </c>
-      <c r="Q57" s="3">
-        <v>3100</v>
       </c>
       <c r="R57" s="3">
         <v>3000</v>
       </c>
       <c r="S57" s="3">
-        <v>3000</v>
+        <v>3100</v>
       </c>
       <c r="T57" s="3">
         <v>3000</v>
@@ -4390,185 +4652,203 @@
         <v>3000</v>
       </c>
       <c r="Z57" s="3">
+        <v>3000</v>
+      </c>
+      <c r="AA57" s="3">
+        <v>3000</v>
+      </c>
+      <c r="AB57" s="3">
         <v>2900</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AC57" s="3">
         <v>2700</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AD57" s="3">
         <v>2600</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AE57" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E58" s="3">
+        <v>300</v>
+      </c>
+      <c r="F58" s="3">
         <v>800</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>1200</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>1700</v>
-      </c>
-      <c r="G58" s="3">
-        <v>1000</v>
-      </c>
-      <c r="H58" s="3">
-        <v>1100</v>
       </c>
       <c r="I58" s="3">
         <v>1000</v>
       </c>
       <c r="J58" s="3">
+        <v>1100</v>
+      </c>
+      <c r="K58" s="3">
+        <v>1000</v>
+      </c>
+      <c r="L58" s="3">
         <v>1300</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>1500</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>3300</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>2600</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>2700</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>3100</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>5300</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>5300</v>
       </c>
-      <c r="R58" s="3">
+      <c r="T58" s="3">
         <v>5000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="U58" s="3">
         <v>5100</v>
       </c>
-      <c r="T58" s="3">
+      <c r="V58" s="3">
         <v>4800</v>
       </c>
-      <c r="U58" s="3">
+      <c r="W58" s="3">
         <v>4600</v>
       </c>
-      <c r="V58" s="3">
+      <c r="X58" s="3">
         <v>5100</v>
       </c>
-      <c r="W58" s="3">
+      <c r="Y58" s="3">
         <v>4900</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Z58" s="3">
         <v>4600</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="AA58" s="3">
         <v>4600</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AB58" s="3">
         <v>4500</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AC58" s="3">
         <v>4200</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AD58" s="3">
         <v>4000</v>
       </c>
-      <c r="AC58" s="3">
+      <c r="AE58" s="3">
         <v>3500</v>
       </c>
     </row>
-    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1800</v>
+        <v>1500</v>
       </c>
       <c r="E59" s="3">
-        <v>1700</v>
+        <v>1500</v>
       </c>
       <c r="F59" s="3">
         <v>1800</v>
       </c>
       <c r="G59" s="3">
+        <v>1700</v>
+      </c>
+      <c r="H59" s="3">
+        <v>1800</v>
+      </c>
+      <c r="I59" s="3">
         <v>1900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>2200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>1700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>1900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>5100</v>
-      </c>
-      <c r="L59" s="3">
-        <v>3100</v>
-      </c>
-      <c r="M59" s="3">
-        <v>3000</v>
       </c>
       <c r="N59" s="3">
         <v>3100</v>
       </c>
       <c r="O59" s="3">
+        <v>3000</v>
+      </c>
+      <c r="P59" s="3">
         <v>3100</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
+        <v>3100</v>
+      </c>
+      <c r="R59" s="3">
         <v>4100</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>3200</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>3700</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>3600</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>3200</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>3100</v>
       </c>
-      <c r="V59" s="3">
+      <c r="X59" s="3">
         <v>4500</v>
       </c>
-      <c r="W59" s="3">
+      <c r="Y59" s="3">
         <v>4400</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Z59" s="3">
         <v>4200</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="AA59" s="3">
         <v>3800</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AB59" s="3">
         <v>3400</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AC59" s="3">
         <v>2800</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AD59" s="3">
         <v>2700</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AE59" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4576,145 +4856,151 @@
         <v>4900</v>
       </c>
       <c r="E60" s="3">
+        <v>4000</v>
+      </c>
+      <c r="F60" s="3">
+        <v>4900</v>
+      </c>
+      <c r="G60" s="3">
         <v>5100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>6000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>5400</v>
-      </c>
-      <c r="H60" s="3">
-        <v>5700</v>
-      </c>
-      <c r="I60" s="3">
-        <v>5100</v>
       </c>
       <c r="J60" s="3">
         <v>5700</v>
       </c>
       <c r="K60" s="3">
+        <v>5100</v>
+      </c>
+      <c r="L60" s="3">
+        <v>5700</v>
+      </c>
+      <c r="M60" s="3">
         <v>9200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>9000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>8300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>8600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>9200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>12400</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>11600</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>11700</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>11700</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>11000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>10700</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>12600</v>
       </c>
-      <c r="W60" s="3">
+      <c r="Y60" s="3">
         <v>12200</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Z60" s="3">
         <v>11800</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="AA60" s="3">
         <v>11400</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AB60" s="3">
         <v>10800</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AC60" s="3">
         <v>9700</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AD60" s="3">
         <v>9300</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AE60" s="3">
         <v>8500</v>
       </c>
     </row>
-    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>500</v>
+      </c>
+      <c r="E61" s="3">
+        <v>1500</v>
+      </c>
+      <c r="F61" s="3">
         <v>1100</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>1100</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>1000</v>
-      </c>
-      <c r="G61" s="3">
-        <v>1400</v>
-      </c>
-      <c r="H61" s="3">
-        <v>1400</v>
       </c>
       <c r="I61" s="3">
         <v>1400</v>
       </c>
       <c r="J61" s="3">
+        <v>1400</v>
+      </c>
+      <c r="K61" s="3">
+        <v>1400</v>
+      </c>
+      <c r="L61" s="3">
         <v>1300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>600</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>1300</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>1200</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>700</v>
-      </c>
-      <c r="P61" s="3">
-        <v>600</v>
-      </c>
-      <c r="Q61" s="3">
-        <v>600</v>
       </c>
       <c r="R61" s="3">
         <v>600</v>
       </c>
       <c r="S61" s="3">
+        <v>600</v>
+      </c>
+      <c r="T61" s="3">
+        <v>600</v>
+      </c>
+      <c r="U61" s="3">
         <v>300</v>
       </c>
-      <c r="T61" s="3">
+      <c r="V61" s="3">
         <v>300</v>
       </c>
-      <c r="U61" s="3">
+      <c r="W61" s="3">
         <v>600</v>
       </c>
-      <c r="V61" s="3">
-        <v>0</v>
-      </c>
-      <c r="W61" s="3">
-        <v>0</v>
-      </c>
       <c r="X61" s="3">
         <v>0</v>
       </c>
@@ -4733,16 +5019,22 @@
       <c r="AC61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E62" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="F62" s="3">
         <v>300</v>
@@ -4751,73 +5043,79 @@
         <v>300</v>
       </c>
       <c r="H62" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="I62" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="J62" s="3">
         <v>400</v>
       </c>
       <c r="K62" s="3">
+        <v>400</v>
+      </c>
+      <c r="L62" s="3">
+        <v>400</v>
+      </c>
+      <c r="M62" s="3">
         <v>500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>2600</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>5600</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>7600</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>1800</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>5100</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>6200</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>6600</v>
       </c>
-      <c r="S62" s="3">
+      <c r="U62" s="3">
         <v>4400</v>
       </c>
-      <c r="T62" s="3">
+      <c r="V62" s="3">
         <v>4700</v>
       </c>
-      <c r="U62" s="3">
+      <c r="W62" s="3">
         <v>3400</v>
       </c>
-      <c r="V62" s="3">
+      <c r="X62" s="3">
         <v>2100</v>
       </c>
-      <c r="W62" s="3">
+      <c r="Y62" s="3">
         <v>6300</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Z62" s="3">
         <v>8000</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="AA62" s="3">
         <v>1800</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AB62" s="3">
         <v>1100</v>
-      </c>
-      <c r="AA62" s="3">
-        <v>800</v>
-      </c>
-      <c r="AB62" s="3">
-        <v>1400</v>
       </c>
       <c r="AC62" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD62" s="3">
+        <v>1400</v>
+      </c>
+      <c r="AE62" s="3">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4899,8 +5197,14 @@
       <c r="AC63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4982,8 +5286,14 @@
       <c r="AC64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5065,91 +5375,103 @@
       <c r="AC65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>5700</v>
+      </c>
+      <c r="E66" s="3">
+        <v>5700</v>
+      </c>
+      <c r="F66" s="3">
         <v>6200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>6500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>7300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>7200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>7500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>6800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>7400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>10300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>12200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>15100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>17400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>11700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>18100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>18400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>18800</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>16400</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>16100</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>14700</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>14600</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>18500</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Z66" s="3">
         <v>19800</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="AA66" s="3">
         <v>13300</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AB66" s="3">
         <v>11900</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AC66" s="3">
         <v>10500</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AD66" s="3">
         <v>10800</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AE66" s="3">
         <v>9400</v>
       </c>
     </row>
-    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5179,8 +5501,10 @@
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
-    </row>
-    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD67" s="3"/>
+      <c r="AE67" s="3"/>
+    </row>
+    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5262,8 +5586,14 @@
       <c r="AC68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5345,52 +5675,58 @@
       <c r="AC69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E70" s="3">
+        <v>3000</v>
+      </c>
+      <c r="F70" s="3">
         <v>3100</v>
       </c>
-      <c r="E70" s="3">
+      <c r="G70" s="3">
         <v>3200</v>
       </c>
-      <c r="F70" s="3">
+      <c r="H70" s="3">
         <v>5200</v>
       </c>
-      <c r="G70" s="3">
+      <c r="I70" s="3">
         <v>6100</v>
-      </c>
-      <c r="H70" s="3">
-        <v>6900</v>
-      </c>
-      <c r="I70" s="3">
-        <v>6900</v>
       </c>
       <c r="J70" s="3">
         <v>6900</v>
       </c>
       <c r="K70" s="3">
+        <v>6900</v>
+      </c>
+      <c r="L70" s="3">
+        <v>6900</v>
+      </c>
+      <c r="M70" s="3">
         <v>3900</v>
       </c>
-      <c r="L70" s="3">
+      <c r="N70" s="3">
         <v>2700</v>
       </c>
-      <c r="M70" s="3">
+      <c r="O70" s="3">
         <v>2600</v>
       </c>
-      <c r="N70" s="3">
+      <c r="P70" s="3">
         <v>1900</v>
       </c>
-      <c r="O70" s="3">
+      <c r="Q70" s="3">
         <v>1100</v>
-      </c>
-      <c r="P70" s="3">
-        <v>800</v>
-      </c>
-      <c r="Q70" s="3">
-        <v>800</v>
       </c>
       <c r="R70" s="3">
         <v>800</v>
@@ -5408,28 +5744,34 @@
         <v>800</v>
       </c>
       <c r="W70" s="3">
+        <v>800</v>
+      </c>
+      <c r="X70" s="3">
+        <v>800</v>
+      </c>
+      <c r="Y70" s="3">
         <v>1000</v>
       </c>
-      <c r="X70" s="3">
+      <c r="Z70" s="3">
         <v>1100</v>
       </c>
-      <c r="Y70" s="3">
+      <c r="AA70" s="3">
         <v>1100</v>
       </c>
-      <c r="Z70" s="3">
+      <c r="AB70" s="3">
         <v>1200</v>
       </c>
-      <c r="AA70" s="3">
+      <c r="AC70" s="3">
         <v>1200</v>
       </c>
-      <c r="AB70" s="3">
+      <c r="AD70" s="3">
         <v>1300</v>
       </c>
-      <c r="AC70" s="3">
+      <c r="AE70" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5511,91 +5853,103 @@
       <c r="AC71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-149900</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-148300</v>
+      </c>
+      <c r="F72" s="3">
         <v>-147400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-145500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-144400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-143400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-142400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-141900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-141800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-140600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-140000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-142100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-143600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-136800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-139600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-140600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-140500</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-137900</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>-137600</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>-134900</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>-134100</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>-137500</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Z72" s="3">
         <v>-138500</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="AA72" s="3">
         <v>-131300</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AB72" s="3">
         <v>-128900</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AC72" s="3">
         <v>-127800</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AD72" s="3">
         <v>-127600</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AE72" s="3">
         <v>-125500</v>
       </c>
     </row>
-    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5677,8 +6031,14 @@
       <c r="AC73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5760,8 +6120,14 @@
       <c r="AC74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5843,91 +6209,103 @@
       <c r="AC75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-6300</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-5900</v>
+      </c>
+      <c r="F76" s="3">
         <v>-6000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>-5800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>-11000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>-11100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>-12300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>-12000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>-12200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>-11900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>-13600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>-16400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>-18400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>-12400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>-17700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>-18800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>-19400</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>-16800</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>-16600</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>-15000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>-15000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>-18900</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Z76" s="3">
         <v>-20500</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="AA76" s="3">
         <v>-13500</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AB76" s="3">
         <v>-11500</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AC76" s="3">
         <v>-10300</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AD76" s="3">
         <v>-10600</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AE76" s="3">
         <v>-8700</v>
       </c>
     </row>
-    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6009,179 +6387,197 @@
       <c r="AC77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43555</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43465</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43373</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>43281</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>43190</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>43100</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>43008</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AB80" s="2">
         <v>42916</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AC80" s="2">
         <v>42825</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AD80" s="2">
         <v>42735</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AE80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="F81" s="3">
         <v>-1900</v>
-      </c>
-      <c r="E81" s="3">
-        <v>-1100</v>
-      </c>
-      <c r="F81" s="3">
-        <v>-1000</v>
       </c>
       <c r="G81" s="3">
         <v>-1100</v>
       </c>
       <c r="H81" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="I81" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="J81" s="3">
         <v>-500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-1200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>2100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>1500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-6800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>2700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>1100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>-2700</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>-200</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>-2800</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>-800</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>3400</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Y81" s="3">
         <v>1000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Z81" s="3">
         <v>-7200</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="AA81" s="3">
         <v>-2400</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AB81" s="3">
         <v>-1100</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AC81" s="3">
         <v>-200</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AD81" s="3">
         <v>-2100</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AE81" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6211,37 +6607,39 @@
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
-    </row>
-    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD82" s="3"/>
+      <c r="AE82" s="3"/>
+    </row>
+    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
         <v>0</v>
       </c>
-      <c r="E83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F83" s="3" t="s">
-        <v>4</v>
+      <c r="E83" s="3">
+        <v>0</v>
+      </c>
+      <c r="F83" s="3">
+        <v>0</v>
       </c>
       <c r="G83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H83" s="3">
-        <v>0</v>
+      <c r="H83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J83" s="3" t="s">
+      <c r="J83" s="3">
+        <v>0</v>
+      </c>
+      <c r="K83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K83" s="3">
-        <v>0</v>
-      </c>
-      <c r="L83" s="3">
-        <v>0</v>
+      <c r="L83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M83" s="3">
         <v>0</v>
@@ -6277,25 +6675,31 @@
         <v>0</v>
       </c>
       <c r="X83" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y83" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z83" s="3">
         <v>100</v>
       </c>
-      <c r="Y83" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z83" s="3">
-        <v>0</v>
-      </c>
       <c r="AA83" s="3">
         <v>0</v>
       </c>
       <c r="AB83" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC83" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD83" s="3">
         <v>100</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AE83" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6377,8 +6781,14 @@
       <c r="AC84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6460,8 +6870,14 @@
       <c r="AC85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6543,8 +6959,14 @@
       <c r="AC86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6626,8 +7048,14 @@
       <c r="AC87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6709,52 +7137,58 @@
       <c r="AC88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="E89" s="3">
-        <v>-600</v>
+        <v>-500</v>
       </c>
       <c r="F89" s="3">
         <v>-300</v>
       </c>
       <c r="G89" s="3">
+        <v>-600</v>
+      </c>
+      <c r="H89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="I89" s="3">
         <v>-200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-1300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>-500</v>
-      </c>
-      <c r="P89" s="3">
-        <v>-200</v>
-      </c>
-      <c r="Q89" s="3">
-        <v>-200</v>
       </c>
       <c r="R89" s="3">
         <v>-200</v>
@@ -6763,37 +7197,43 @@
         <v>-200</v>
       </c>
       <c r="T89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="U89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="V89" s="3">
         <v>-300</v>
-      </c>
-      <c r="U89" s="3">
-        <v>-400</v>
-      </c>
-      <c r="V89" s="3">
-        <v>-200</v>
       </c>
       <c r="W89" s="3">
         <v>-400</v>
       </c>
       <c r="X89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Y89" s="3">
+        <v>-400</v>
+      </c>
+      <c r="Z89" s="3">
         <v>-700</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="AA89" s="3">
         <v>-200</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AB89" s="3">
         <v>100</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AC89" s="3">
         <v>-400</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AD89" s="3">
         <v>-200</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AE89" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6823,8 +7263,10 @@
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
-    </row>
-    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD90" s="3"/>
+      <c r="AE90" s="3"/>
+    </row>
+    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6858,11 +7300,11 @@
       <c r="M91" s="3">
         <v>0</v>
       </c>
-      <c r="N91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O91" s="3" t="s">
-        <v>4</v>
+      <c r="N91" s="3">
+        <v>0</v>
+      </c>
+      <c r="O91" s="3">
+        <v>0</v>
       </c>
       <c r="P91" s="3" t="s">
         <v>4</v>
@@ -6870,11 +7312,11 @@
       <c r="Q91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R91" s="3">
-        <v>0</v>
-      </c>
-      <c r="S91" s="3">
-        <v>0</v>
+      <c r="R91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T91" s="3">
         <v>0</v>
@@ -6906,8 +7348,14 @@
       <c r="AC91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6989,8 +7437,14 @@
       <c r="AC92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7072,8 +7526,14 @@
       <c r="AC93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -7107,11 +7567,11 @@
       <c r="M94" s="3">
         <v>0</v>
       </c>
-      <c r="N94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O94" s="3" t="s">
-        <v>4</v>
+      <c r="N94" s="3">
+        <v>0</v>
+      </c>
+      <c r="O94" s="3">
+        <v>0</v>
       </c>
       <c r="P94" s="3" t="s">
         <v>4</v>
@@ -7119,11 +7579,11 @@
       <c r="Q94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R94" s="3">
-        <v>0</v>
-      </c>
-      <c r="S94" s="3">
-        <v>0</v>
+      <c r="R94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T94" s="3">
         <v>0</v>
@@ -7155,8 +7615,14 @@
       <c r="AC94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7186,8 +7652,10 @@
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
-    </row>
-    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD95" s="3"/>
+      <c r="AE95" s="3"/>
+    </row>
+    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7269,8 +7737,14 @@
       <c r="AC96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7352,8 +7826,14 @@
       <c r="AC97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7435,8 +7915,14 @@
       <c r="AC98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7518,8 +8004,14 @@
       <c r="AC99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -7527,46 +8019,46 @@
         <v>0</v>
       </c>
       <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>2900</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>-100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>1000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>1200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>-300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>1100</v>
-      </c>
-      <c r="Q100" s="3">
-        <v>200</v>
-      </c>
-      <c r="R100" s="3">
-        <v>200</v>
       </c>
       <c r="S100" s="3">
         <v>200</v>
@@ -7575,34 +8067,40 @@
         <v>200</v>
       </c>
       <c r="U100" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="V100" s="3">
         <v>200</v>
       </c>
       <c r="W100" s="3">
+        <v>400</v>
+      </c>
+      <c r="X100" s="3">
+        <v>200</v>
+      </c>
+      <c r="Y100" s="3">
         <v>500</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Z100" s="3">
         <v>600</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="AA100" s="3">
         <v>300</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AB100" s="3">
         <v>-100</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AC100" s="3">
         <v>400</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AD100" s="3">
         <v>200</v>
       </c>
-      <c r="AC100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AE100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7684,87 +8182,99 @@
       <c r="AC101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F102" s="3">
         <v>-400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>2300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>1100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>700</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-900</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>900</v>
       </c>
-      <c r="Q102" s="3">
-        <v>0</v>
-      </c>
-      <c r="R102" s="3">
-        <v>0</v>
-      </c>
       <c r="S102" s="3">
         <v>0</v>
       </c>
       <c r="T102" s="3">
+        <v>0</v>
+      </c>
+      <c r="U102" s="3">
+        <v>0</v>
+      </c>
+      <c r="V102" s="3">
         <v>-100</v>
       </c>
-      <c r="U102" s="3">
-        <v>0</v>
-      </c>
-      <c r="V102" s="3">
-        <v>0</v>
-      </c>
       <c r="W102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Y102" s="3">
         <v>100</v>
       </c>
       <c r="Z102" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="AA102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB102" s="3">
         <v>0</v>
       </c>
       <c r="AC102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/GTHP_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GTHP_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="92">
   <si>
     <t>GTHP</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AE102"/>
+  <dimension ref="A5:AF102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,130 +665,134 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="32" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45107</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44742</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44651</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44469</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44377</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44286</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44196</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44104</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>44012</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43921</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43830</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43738</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43646</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43555</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43465</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43373</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43281</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43190</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43100</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>43008</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42916</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42825</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42735</v>
       </c>
-      <c r="AE7" s="2">
+      <c r="AF7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -811,11 +815,11 @@
         <v>0</v>
       </c>
       <c r="J8" s="3">
+        <v>0</v>
+      </c>
+      <c r="K8" s="3">
         <v>100</v>
       </c>
-      <c r="K8" s="3">
-        <v>0</v>
-      </c>
       <c r="L8" s="3">
         <v>0</v>
       </c>
@@ -826,11 +830,11 @@
         <v>0</v>
       </c>
       <c r="O8" s="3">
+        <v>0</v>
+      </c>
+      <c r="P8" s="3">
         <v>100</v>
       </c>
-      <c r="P8" s="3">
-        <v>0</v>
-      </c>
       <c r="Q8" s="3">
         <v>0</v>
       </c>
@@ -859,25 +863,28 @@
         <v>0</v>
       </c>
       <c r="Z8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="3">
         <v>100</v>
       </c>
-      <c r="AA8" s="3">
-        <v>0</v>
-      </c>
       <c r="AB8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC8" s="3">
         <v>100</v>
       </c>
-      <c r="AC8" s="3">
-        <v>0</v>
-      </c>
       <c r="AD8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF8" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -888,14 +895,14 @@
         <v>0</v>
       </c>
       <c r="F9" s="3">
+        <v>0</v>
+      </c>
+      <c r="G9" s="3">
         <v>100</v>
       </c>
-      <c r="G9" s="3" t="s">
+      <c r="H9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H9" s="3">
-        <v>0</v>
-      </c>
       <c r="I9" s="3">
         <v>0</v>
       </c>
@@ -905,68 +912,71 @@
       <c r="K9" s="3">
         <v>0</v>
       </c>
-      <c r="L9" s="3" t="s">
-        <v>4</v>
+      <c r="L9" s="3">
+        <v>0</v>
       </c>
       <c r="M9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N9" s="3">
+      <c r="N9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O9" s="3">
         <v>-100</v>
       </c>
-      <c r="O9" s="3">
-        <v>0</v>
-      </c>
       <c r="P9" s="3">
         <v>0</v>
       </c>
-      <c r="Q9" s="3" t="s">
+      <c r="Q9" s="3">
+        <v>0</v>
+      </c>
+      <c r="R9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R9" s="3">
-        <v>0</v>
-      </c>
-      <c r="S9" s="3" t="s">
+      <c r="S9" s="3">
+        <v>0</v>
+      </c>
+      <c r="T9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>100</v>
       </c>
-      <c r="U9" s="3">
-        <v>0</v>
-      </c>
       <c r="V9" s="3">
+        <v>0</v>
+      </c>
+      <c r="W9" s="3">
         <v>100</v>
       </c>
-      <c r="W9" s="3" t="s">
+      <c r="X9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="X9" s="3">
-        <v>0</v>
-      </c>
       <c r="Y9" s="3">
         <v>0</v>
       </c>
       <c r="Z9" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="3">
         <v>300</v>
-      </c>
-      <c r="AA9" s="3">
-        <v>100</v>
       </c>
       <c r="AB9" s="3">
         <v>100</v>
       </c>
       <c r="AC9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AD9" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE9" s="3">
         <v>300</v>
       </c>
-      <c r="AE9" s="3">
+      <c r="AF9" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -977,85 +987,88 @@
         <v>0</v>
       </c>
       <c r="F10" s="3">
+        <v>0</v>
+      </c>
+      <c r="G10" s="3">
         <v>-100</v>
       </c>
-      <c r="G10" s="3" t="s">
+      <c r="H10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H10" s="3">
-        <v>0</v>
-      </c>
       <c r="I10" s="3">
         <v>0</v>
       </c>
       <c r="J10" s="3">
+        <v>0</v>
+      </c>
+      <c r="K10" s="3">
         <v>100</v>
       </c>
-      <c r="K10" s="3">
-        <v>0</v>
-      </c>
-      <c r="L10" s="3" t="s">
-        <v>4</v>
+      <c r="L10" s="3">
+        <v>0</v>
       </c>
       <c r="M10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N10" s="3">
-        <v>100</v>
+      <c r="N10" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O10" s="3">
         <v>100</v>
       </c>
       <c r="P10" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q10" s="3">
+        <v>0</v>
+      </c>
+      <c r="R10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R10" s="3">
-        <v>0</v>
-      </c>
-      <c r="S10" s="3" t="s">
+      <c r="S10" s="3">
+        <v>0</v>
+      </c>
+      <c r="T10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>-100</v>
       </c>
-      <c r="U10" s="3">
-        <v>0</v>
-      </c>
       <c r="V10" s="3">
+        <v>0</v>
+      </c>
+      <c r="W10" s="3">
         <v>-100</v>
       </c>
-      <c r="W10" s="3" t="s">
+      <c r="X10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="X10" s="3">
-        <v>0</v>
-      </c>
       <c r="Y10" s="3">
         <v>0</v>
       </c>
       <c r="Z10" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA10" s="3">
         <v>-200</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>-100</v>
       </c>
-      <c r="AB10" s="3">
-        <v>0</v>
-      </c>
       <c r="AC10" s="3">
         <v>0</v>
       </c>
       <c r="AD10" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE10" s="3">
         <v>-200</v>
       </c>
-      <c r="AE10" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1087,8 +1100,9 @@
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
       <c r="AE11" s="3"/>
-    </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF11" s="3"/>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1096,7 +1110,7 @@
         <v>100</v>
       </c>
       <c r="E12" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F12" s="3">
         <v>0</v>
@@ -1129,11 +1143,11 @@
         <v>0</v>
       </c>
       <c r="P12" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="3">
         <v>100</v>
       </c>
-      <c r="Q12" s="3">
-        <v>0</v>
-      </c>
       <c r="R12" s="3">
         <v>0</v>
       </c>
@@ -1147,13 +1161,13 @@
         <v>0</v>
       </c>
       <c r="V12" s="3">
+        <v>0</v>
+      </c>
+      <c r="W12" s="3">
         <v>100</v>
       </c>
-      <c r="W12" s="3">
-        <v>0</v>
-      </c>
       <c r="X12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Y12" s="3">
         <v>100</v>
@@ -1171,13 +1185,16 @@
         <v>100</v>
       </c>
       <c r="AD12" s="3">
+        <v>100</v>
+      </c>
+      <c r="AE12" s="3">
         <v>200</v>
       </c>
-      <c r="AE12" s="3">
+      <c r="AF12" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1265,8 +1282,11 @@
       <c r="AE13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1277,14 +1297,14 @@
         <v>0</v>
       </c>
       <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>800</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>-300</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
       <c r="I14" s="3">
         <v>0</v>
       </c>
@@ -1292,14 +1312,14 @@
         <v>0</v>
       </c>
       <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
         <v>-800</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>200</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
       <c r="N14" s="3">
         <v>0</v>
       </c>
@@ -1307,31 +1327,31 @@
         <v>0</v>
       </c>
       <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
         <v>300</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
       <c r="R14" s="3">
         <v>0</v>
       </c>
       <c r="S14" s="3">
         <v>0</v>
       </c>
-      <c r="T14" s="3" t="s">
-        <v>4</v>
+      <c r="T14" s="3">
+        <v>0</v>
       </c>
       <c r="U14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V14" s="3">
-        <v>0</v>
+      <c r="V14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W14" s="3">
+        <v>0</v>
+      </c>
+      <c r="X14" s="3">
         <v>-1000</v>
-      </c>
-      <c r="X14" s="3" t="s">
-        <v>4</v>
       </c>
       <c r="Y14" s="3" t="s">
         <v>4</v>
@@ -1342,8 +1362,8 @@
       <c r="AA14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AB14" s="3">
-        <v>0</v>
+      <c r="AB14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AC14" s="3">
         <v>0</v>
@@ -1354,8 +1374,11 @@
       <c r="AE14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1443,8 +1466,11 @@
       <c r="AE15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1473,52 +1499,53 @@
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
       <c r="AE16" s="3"/>
-    </row>
-    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF16" s="3"/>
+    </row>
+    <row r="17" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E17" s="3">
         <v>1500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>-300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>700</v>
-      </c>
-      <c r="Q17" s="3">
-        <v>200</v>
       </c>
       <c r="R17" s="3">
         <v>200</v>
@@ -1527,43 +1554,46 @@
         <v>200</v>
       </c>
       <c r="T17" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="U17" s="3">
         <v>300</v>
       </c>
       <c r="V17" s="3">
+        <v>300</v>
+      </c>
+      <c r="W17" s="3">
         <v>500</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>-800</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>500</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>400</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>800</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>1400</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>600</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>500</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>1200</v>
       </c>
-      <c r="AE17" s="3">
+      <c r="AF17" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1571,43 +1601,43 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="F18" s="3">
         <v>-800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-1800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-1000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-700</v>
-      </c>
-      <c r="I18" s="3">
-        <v>-400</v>
       </c>
       <c r="J18" s="3">
         <v>-400</v>
       </c>
       <c r="K18" s="3">
+        <v>-400</v>
+      </c>
+      <c r="L18" s="3">
         <v>300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-700</v>
-      </c>
-      <c r="Q18" s="3">
-        <v>-200</v>
       </c>
       <c r="R18" s="3">
         <v>-200</v>
@@ -1616,43 +1646,46 @@
         <v>-200</v>
       </c>
       <c r="T18" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="U18" s="3">
         <v>-300</v>
       </c>
       <c r="V18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="W18" s="3">
         <v>-500</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>800</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-500</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>-400</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>-700</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>-1400</v>
-      </c>
-      <c r="AB18" s="3">
-        <v>-500</v>
       </c>
       <c r="AC18" s="3">
         <v>-500</v>
       </c>
       <c r="AD18" s="3">
+        <v>-500</v>
+      </c>
+      <c r="AE18" s="3">
         <v>-1100</v>
       </c>
-      <c r="AE18" s="3">
+      <c r="AF18" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1684,8 +1717,9 @@
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
       <c r="AE19" s="3"/>
-    </row>
-    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF19" s="3"/>
+    </row>
+    <row r="20" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1708,73 +1742,76 @@
         <v>0</v>
       </c>
       <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>400</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
       <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
         <v>400</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>2600</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>2000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-5700</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>3200</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>1700</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>400</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-2100</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>400</v>
-      </c>
-      <c r="V20" s="3">
-        <v>-1300</v>
       </c>
       <c r="W20" s="3">
         <v>-1300</v>
       </c>
       <c r="X20" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="Y20" s="3">
         <v>4200</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>1700</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-6100</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>-700</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>-200</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>600</v>
       </c>
-      <c r="AD20" s="3">
+      <c r="AE20" s="3">
         <v>-600</v>
       </c>
-      <c r="AE20" s="3">
+      <c r="AF20" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1782,88 +1819,91 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="F21" s="3">
         <v>-800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-1700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-900</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>2300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>1900</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-6400</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>3000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>1500</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>300</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-2400</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>200</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-1800</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-500</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>3700</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>1300</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>-6700</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>-2100</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>-700</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>100</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AE21" s="3">
         <v>-1600</v>
       </c>
-      <c r="AE21" s="3">
+      <c r="AF21" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1877,31 +1917,31 @@
         <v>100</v>
       </c>
       <c r="G22" s="3">
+        <v>100</v>
+      </c>
+      <c r="H22" s="3">
         <v>200</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>300</v>
-      </c>
-      <c r="I22" s="3">
-        <v>100</v>
       </c>
       <c r="J22" s="3">
         <v>100</v>
       </c>
       <c r="K22" s="3">
+        <v>100</v>
+      </c>
+      <c r="L22" s="3">
         <v>600</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>300</v>
-      </c>
-      <c r="M22" s="3">
-        <v>100</v>
       </c>
       <c r="N22" s="3">
         <v>100</v>
       </c>
       <c r="O22" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="P22" s="3">
         <v>300</v>
@@ -1910,31 +1950,31 @@
         <v>300</v>
       </c>
       <c r="R22" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="S22" s="3">
         <v>400</v>
       </c>
       <c r="T22" s="3">
+        <v>400</v>
+      </c>
+      <c r="U22" s="3">
         <v>300</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>400</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>1000</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>200</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>300</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>200</v>
-      </c>
-      <c r="Z22" s="3">
-        <v>300</v>
       </c>
       <c r="AA22" s="3">
         <v>300</v>
@@ -1943,105 +1983,111 @@
         <v>300</v>
       </c>
       <c r="AC22" s="3">
+        <v>300</v>
+      </c>
+      <c r="AD22" s="3">
         <v>200</v>
       </c>
-      <c r="AD22" s="3">
+      <c r="AE22" s="3">
         <v>300</v>
       </c>
-      <c r="AE22" s="3">
+      <c r="AF22" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E23" s="3">
         <v>-1600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-1800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-1100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-1000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>2200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>1600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-6700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>2700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>1100</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-100</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-2700</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-200</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-2700</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-700</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>3400</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>1100</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>-7200</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>-2400</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>-1100</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>-100</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>-2000</v>
       </c>
-      <c r="AE23" s="3">
+      <c r="AF23" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -2129,8 +2175,11 @@
       <c r="AE24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2218,186 +2267,195 @@
       <c r="AE25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E26" s="3">
         <v>-1600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-1800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-1100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-1000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>2200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>1600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-6700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>2700</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>1100</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-100</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-2700</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-200</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-2700</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-700</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>3400</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>1100</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>-7200</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>-2400</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>-1100</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>-100</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AE26" s="3">
         <v>-2000</v>
       </c>
-      <c r="AE26" s="3">
+      <c r="AF26" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E27" s="3">
         <v>-1600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-1000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-1900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-1100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-1000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-1100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-1200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>2100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>1500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-6800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>2700</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>1100</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-100</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-2700</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-200</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-2800</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-800</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>3400</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>1000</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>-7200</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>-2400</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>-1100</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>-200</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AE27" s="3">
         <v>-2100</v>
       </c>
-      <c r="AE27" s="3">
+      <c r="AF27" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2485,8 +2543,11 @@
       <c r="AE28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2574,8 +2635,11 @@
       <c r="AE29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2663,8 +2727,11 @@
       <c r="AE30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2752,8 +2819,11 @@
       <c r="AE31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2776,162 +2846,168 @@
         <v>0</v>
       </c>
       <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>-100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-400</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
       <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
         <v>-400</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-2600</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-2000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>5700</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-3200</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-1700</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-400</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>2100</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-400</v>
-      </c>
-      <c r="V32" s="3">
-        <v>1300</v>
       </c>
       <c r="W32" s="3">
         <v>1300</v>
       </c>
       <c r="X32" s="3">
+        <v>1300</v>
+      </c>
+      <c r="Y32" s="3">
         <v>-4200</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-1700</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>6100</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>700</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>200</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>-600</v>
       </c>
-      <c r="AD32" s="3">
+      <c r="AE32" s="3">
         <v>600</v>
       </c>
-      <c r="AE32" s="3">
+      <c r="AF32" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E33" s="3">
         <v>-1600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-1000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-1900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-1100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-1000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-1100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-1200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>2100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>1500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-6800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>2700</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>1100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-100</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-2700</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-200</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-2800</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-800</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>3400</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>1000</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-7200</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>-2400</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>-1100</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>-200</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="3">
         <v>-2100</v>
       </c>
-      <c r="AE33" s="3">
+      <c r="AF33" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -3019,191 +3095,200 @@
       <c r="AE34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E35" s="3">
         <v>-1600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-1000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-1900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-1100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-1000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-1100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-1200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>2100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>1500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-6800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>2700</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>1100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-100</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-2700</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-200</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-2800</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-800</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>3400</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>1000</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-7200</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>-2400</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>-1100</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>-200</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>-2100</v>
       </c>
-      <c r="AE35" s="3">
+      <c r="AF35" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45107</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44742</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44651</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44469</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44377</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44286</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44196</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44104</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>44012</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43921</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43830</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43738</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43646</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43555</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43465</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43373</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43281</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43190</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43100</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>43008</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42916</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42825</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42735</v>
       </c>
-      <c r="AE38" s="2">
+      <c r="AF38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3235,8 +3320,9 @@
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
       <c r="AE39" s="3"/>
-    </row>
-    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF39" s="3"/>
+    </row>
+    <row r="40" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3268,59 +3354,60 @@
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
       <c r="AE40" s="3"/>
-    </row>
-    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF40" s="3"/>
+    </row>
+    <row r="41" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>700</v>
+      </c>
+      <c r="E41" s="3">
         <v>1400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>2300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>2700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>800</v>
       </c>
-      <c r="Q41" s="3">
-        <v>0</v>
-      </c>
       <c r="R41" s="3">
+        <v>0</v>
+      </c>
+      <c r="S41" s="3">
         <v>900</v>
       </c>
-      <c r="S41" s="3">
-        <v>0</v>
-      </c>
       <c r="T41" s="3">
         <v>0</v>
       </c>
@@ -3331,23 +3418,23 @@
         <v>0</v>
       </c>
       <c r="W41" s="3">
+        <v>0</v>
+      </c>
+      <c r="X41" s="3">
         <v>100</v>
       </c>
-      <c r="X41" s="3">
-        <v>0</v>
-      </c>
       <c r="Y41" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z41" s="3">
         <v>100</v>
       </c>
-      <c r="Z41" s="3">
-        <v>0</v>
-      </c>
       <c r="AA41" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB41" s="3">
         <v>100</v>
       </c>
-      <c r="AB41" s="3">
-        <v>0</v>
-      </c>
       <c r="AC41" s="3">
         <v>0</v>
       </c>
@@ -3357,8 +3444,11 @@
       <c r="AE41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3446,8 +3536,11 @@
       <c r="AE42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3491,11 +3584,11 @@
         <v>0</v>
       </c>
       <c r="Q43" s="3">
+        <v>0</v>
+      </c>
+      <c r="R43" s="3">
         <v>100</v>
       </c>
-      <c r="R43" s="3">
-        <v>0</v>
-      </c>
       <c r="S43" s="3">
         <v>0</v>
       </c>
@@ -3533,10 +3626,13 @@
         <v>0</v>
       </c>
       <c r="AE43" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF43" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3547,10 +3643,10 @@
         <v>600</v>
       </c>
       <c r="F44" s="3">
+        <v>600</v>
+      </c>
+      <c r="G44" s="3">
         <v>500</v>
-      </c>
-      <c r="G44" s="3">
-        <v>600</v>
       </c>
       <c r="H44" s="3">
         <v>600</v>
@@ -3574,7 +3670,7 @@
         <v>600</v>
       </c>
       <c r="O44" s="3">
-        <v>100</v>
+        <v>600</v>
       </c>
       <c r="P44" s="3">
         <v>100</v>
@@ -3583,7 +3679,7 @@
         <v>100</v>
       </c>
       <c r="R44" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S44" s="3">
         <v>0</v>
@@ -3592,13 +3688,13 @@
         <v>0</v>
       </c>
       <c r="U44" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V44" s="3">
         <v>100</v>
       </c>
       <c r="W44" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="X44" s="3">
         <v>300</v>
@@ -3607,13 +3703,13 @@
         <v>300</v>
       </c>
       <c r="Z44" s="3">
+        <v>300</v>
+      </c>
+      <c r="AA44" s="3">
         <v>200</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>600</v>
-      </c>
-      <c r="AB44" s="3">
-        <v>800</v>
       </c>
       <c r="AC44" s="3">
         <v>800</v>
@@ -3622,15 +3718,18 @@
         <v>800</v>
       </c>
       <c r="AE44" s="3">
+        <v>800</v>
+      </c>
+      <c r="AF44" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E45" s="3">
         <v>100</v>
@@ -3639,171 +3738,177 @@
         <v>100</v>
       </c>
       <c r="G45" s="3">
+        <v>100</v>
+      </c>
+      <c r="H45" s="3">
         <v>200</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>100</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>500</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>100</v>
       </c>
-      <c r="M45" s="3">
-        <v>0</v>
-      </c>
       <c r="N45" s="3">
+        <v>0</v>
+      </c>
+      <c r="O45" s="3">
         <v>100</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>600</v>
       </c>
-      <c r="P45" s="3">
-        <v>0</v>
-      </c>
       <c r="Q45" s="3">
         <v>0</v>
       </c>
       <c r="R45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S45" s="3">
         <v>100</v>
       </c>
       <c r="T45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U45" s="3">
         <v>0</v>
       </c>
       <c r="V45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W45" s="3">
         <v>100</v>
       </c>
       <c r="X45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Z45" s="3">
         <v>100</v>
       </c>
       <c r="AA45" s="3">
+        <v>100</v>
+      </c>
+      <c r="AB45" s="3">
         <v>200</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>400</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>200</v>
       </c>
-      <c r="AD45" s="3">
+      <c r="AE45" s="3">
         <v>300</v>
       </c>
-      <c r="AE45" s="3">
+      <c r="AF45" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E46" s="3">
         <v>2000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>2600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>3000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>3500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>900</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>900</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>200</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>200</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>100</v>
-      </c>
-      <c r="U46" s="3">
-        <v>200</v>
       </c>
       <c r="V46" s="3">
         <v>200</v>
       </c>
       <c r="W46" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="X46" s="3">
         <v>400</v>
       </c>
       <c r="Y46" s="3">
+        <v>400</v>
+      </c>
+      <c r="Z46" s="3">
         <v>500</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>300</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>800</v>
-      </c>
-      <c r="AB46" s="3">
-        <v>1100</v>
       </c>
       <c r="AC46" s="3">
         <v>1100</v>
       </c>
       <c r="AD46" s="3">
+        <v>1100</v>
+      </c>
+      <c r="AE46" s="3">
         <v>1000</v>
       </c>
-      <c r="AE46" s="3">
+      <c r="AF46" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3891,8 +3996,11 @@
       <c r="AE47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3906,7 +4014,7 @@
         <v>300</v>
       </c>
       <c r="G48" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="H48" s="3">
         <v>400</v>
@@ -3927,10 +4035,10 @@
         <v>400</v>
       </c>
       <c r="N48" s="3">
+        <v>400</v>
+      </c>
+      <c r="O48" s="3">
         <v>500</v>
-      </c>
-      <c r="O48" s="3">
-        <v>100</v>
       </c>
       <c r="P48" s="3">
         <v>100</v>
@@ -3942,7 +4050,7 @@
         <v>100</v>
       </c>
       <c r="S48" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="T48" s="3">
         <v>200</v>
@@ -3951,7 +4059,7 @@
         <v>200</v>
       </c>
       <c r="V48" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="W48" s="3">
         <v>0</v>
@@ -3966,7 +4074,7 @@
         <v>0</v>
       </c>
       <c r="AA48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AB48" s="3">
         <v>100</v>
@@ -3978,10 +4086,13 @@
         <v>100</v>
       </c>
       <c r="AE48" s="3">
+        <v>100</v>
+      </c>
+      <c r="AF48" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -4069,8 +4180,11 @@
       <c r="AE49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4158,8 +4272,11 @@
       <c r="AE50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4247,8 +4364,11 @@
       <c r="AE51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -4319,13 +4439,13 @@
         <v>0</v>
       </c>
       <c r="Z52" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA52" s="3">
         <v>100</v>
       </c>
-      <c r="AA52" s="3">
-        <v>0</v>
-      </c>
       <c r="AB52" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="AC52" s="3">
         <v>300</v>
@@ -4334,10 +4454,13 @@
         <v>300</v>
       </c>
       <c r="AE52" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
+        <v>300</v>
+      </c>
+      <c r="AF52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4425,85 +4548,88 @@
       <c r="AE53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E54" s="3">
         <v>2300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>2900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>3400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>3900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>2200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>2000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>2100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>2400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1200</v>
-      </c>
-      <c r="S54" s="3">
-        <v>300</v>
       </c>
       <c r="T54" s="3">
         <v>300</v>
       </c>
       <c r="U54" s="3">
+        <v>300</v>
+      </c>
+      <c r="V54" s="3">
         <v>400</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>200</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>500</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>400</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>500</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>400</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>900</v>
-      </c>
-      <c r="AB54" s="3">
-        <v>1500</v>
       </c>
       <c r="AC54" s="3">
         <v>1500</v>
@@ -4512,10 +4638,13 @@
         <v>1500</v>
       </c>
       <c r="AE54" s="3">
+        <v>1500</v>
+      </c>
+      <c r="AF54" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4547,8 +4676,9 @@
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
       <c r="AE55" s="3"/>
-    </row>
-    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF55" s="3"/>
+    </row>
+    <row r="56" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4580,8 +4710,9 @@
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
       <c r="AE56" s="3"/>
-    </row>
-    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF56" s="3"/>
+    </row>
+    <row r="57" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -4595,46 +4726,46 @@
         <v>2200</v>
       </c>
       <c r="G57" s="3">
+        <v>2200</v>
+      </c>
+      <c r="H57" s="3">
         <v>2300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>2500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>2600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>2400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>2600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>2500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>2700</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>2900</v>
-      </c>
-      <c r="Q57" s="3">
-        <v>3000</v>
       </c>
       <c r="R57" s="3">
         <v>3000</v>
       </c>
       <c r="S57" s="3">
+        <v>3000</v>
+      </c>
+      <c r="T57" s="3">
         <v>3100</v>
-      </c>
-      <c r="T57" s="3">
-        <v>3000</v>
       </c>
       <c r="U57" s="3">
         <v>3000</v>
@@ -4658,19 +4789,22 @@
         <v>3000</v>
       </c>
       <c r="AB57" s="3">
+        <v>3000</v>
+      </c>
+      <c r="AC57" s="3">
         <v>2900</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>2700</v>
       </c>
-      <c r="AD57" s="3">
+      <c r="AE57" s="3">
         <v>2600</v>
       </c>
-      <c r="AE57" s="3">
+      <c r="AF57" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4678,266 +4812,275 @@
         <v>1300</v>
       </c>
       <c r="E58" s="3">
+        <v>1300</v>
+      </c>
+      <c r="F58" s="3">
         <v>300</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>800</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>1200</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>1700</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>1000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>1100</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>1300</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>1500</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>3300</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>2600</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>2700</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>3100</v>
-      </c>
-      <c r="R58" s="3">
-        <v>5300</v>
       </c>
       <c r="S58" s="3">
         <v>5300</v>
       </c>
       <c r="T58" s="3">
+        <v>5300</v>
+      </c>
+      <c r="U58" s="3">
         <v>5000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>5100</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>4800</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>4600</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>5100</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>4900</v>
-      </c>
-      <c r="Z58" s="3">
-        <v>4600</v>
       </c>
       <c r="AA58" s="3">
         <v>4600</v>
       </c>
       <c r="AB58" s="3">
+        <v>4600</v>
+      </c>
+      <c r="AC58" s="3">
         <v>4500</v>
       </c>
-      <c r="AC58" s="3">
+      <c r="AD58" s="3">
         <v>4200</v>
       </c>
-      <c r="AD58" s="3">
+      <c r="AE58" s="3">
         <v>4000</v>
       </c>
-      <c r="AE58" s="3">
+      <c r="AF58" s="3">
         <v>3500</v>
       </c>
     </row>
-    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1500</v>
+        <v>1300</v>
       </c>
       <c r="E59" s="3">
         <v>1500</v>
       </c>
       <c r="F59" s="3">
+        <v>1500</v>
+      </c>
+      <c r="G59" s="3">
         <v>1800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>2200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>5100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>3100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>3000</v>
-      </c>
-      <c r="P59" s="3">
-        <v>3100</v>
       </c>
       <c r="Q59" s="3">
         <v>3100</v>
       </c>
       <c r="R59" s="3">
+        <v>3100</v>
+      </c>
+      <c r="S59" s="3">
         <v>4100</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>3200</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>3700</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>3600</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>3200</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>3100</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>4500</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>4400</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>4200</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>3800</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>3400</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>2800</v>
       </c>
-      <c r="AD59" s="3">
+      <c r="AE59" s="3">
         <v>2700</v>
       </c>
-      <c r="AE59" s="3">
+      <c r="AF59" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>4800</v>
+      </c>
+      <c r="E60" s="3">
         <v>4900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>4000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>4900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>5100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>6000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>5400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>5700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>5100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>5700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>9200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>9000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>8300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>8600</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>9200</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>12400</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>11600</v>
-      </c>
-      <c r="T60" s="3">
-        <v>11700</v>
       </c>
       <c r="U60" s="3">
         <v>11700</v>
       </c>
       <c r="V60" s="3">
+        <v>11700</v>
+      </c>
+      <c r="W60" s="3">
         <v>11000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>10700</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>12600</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>12200</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>11800</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>11400</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>10800</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>9700</v>
       </c>
-      <c r="AD60" s="3">
+      <c r="AE60" s="3">
         <v>9300</v>
       </c>
-      <c r="AE60" s="3">
+      <c r="AF60" s="3">
         <v>8500</v>
       </c>
     </row>
-    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4945,19 +5088,19 @@
         <v>500</v>
       </c>
       <c r="E61" s="3">
+        <v>500</v>
+      </c>
+      <c r="F61" s="3">
         <v>1500</v>
-      </c>
-      <c r="F61" s="3">
-        <v>1100</v>
       </c>
       <c r="G61" s="3">
         <v>1100</v>
       </c>
       <c r="H61" s="3">
+        <v>1100</v>
+      </c>
+      <c r="I61" s="3">
         <v>1000</v>
-      </c>
-      <c r="I61" s="3">
-        <v>1400</v>
       </c>
       <c r="J61" s="3">
         <v>1400</v>
@@ -4966,25 +5109,25 @@
         <v>1400</v>
       </c>
       <c r="L61" s="3">
+        <v>1400</v>
+      </c>
+      <c r="M61" s="3">
         <v>1300</v>
-      </c>
-      <c r="M61" s="3">
-        <v>600</v>
       </c>
       <c r="N61" s="3">
         <v>600</v>
       </c>
       <c r="O61" s="3">
+        <v>600</v>
+      </c>
+      <c r="P61" s="3">
         <v>1300</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>1200</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>700</v>
-      </c>
-      <c r="R61" s="3">
-        <v>600</v>
       </c>
       <c r="S61" s="3">
         <v>600</v>
@@ -4993,17 +5136,17 @@
         <v>600</v>
       </c>
       <c r="U61" s="3">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="V61" s="3">
         <v>300</v>
       </c>
       <c r="W61" s="3">
+        <v>300</v>
+      </c>
+      <c r="X61" s="3">
         <v>600</v>
       </c>
-      <c r="X61" s="3">
-        <v>0</v>
-      </c>
       <c r="Y61" s="3">
         <v>0</v>
       </c>
@@ -5025,8 +5168,11 @@
       <c r="AE61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -5037,7 +5183,7 @@
         <v>200</v>
       </c>
       <c r="F62" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="G62" s="3">
         <v>300</v>
@@ -5049,7 +5195,7 @@
         <v>300</v>
       </c>
       <c r="J62" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K62" s="3">
         <v>400</v>
@@ -5058,64 +5204,67 @@
         <v>400</v>
       </c>
       <c r="M62" s="3">
+        <v>400</v>
+      </c>
+      <c r="N62" s="3">
         <v>500</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>2600</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>5600</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>7600</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>1800</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>5100</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>6200</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>6600</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>4400</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>4700</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>3400</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>2100</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>6300</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>8000</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>1800</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>1100</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>800</v>
       </c>
-      <c r="AD62" s="3">
+      <c r="AE62" s="3">
         <v>1400</v>
       </c>
-      <c r="AE62" s="3">
+      <c r="AF62" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5203,8 +5352,11 @@
       <c r="AE63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5292,8 +5444,11 @@
       <c r="AE64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5381,97 +5536,103 @@
       <c r="AE65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>5700</v>
+        <v>5500</v>
       </c>
       <c r="E66" s="3">
         <v>5700</v>
       </c>
       <c r="F66" s="3">
+        <v>5700</v>
+      </c>
+      <c r="G66" s="3">
         <v>6200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>6500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>7300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>7200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>7500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>6800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>7400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>10300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>12200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>15100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>17400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>11700</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>18100</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>18400</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>18800</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>16400</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>16100</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>14700</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>14600</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>18500</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>19800</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>13300</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>11900</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>10500</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AE66" s="3">
         <v>10800</v>
       </c>
-      <c r="AE66" s="3">
+      <c r="AF66" s="3">
         <v>9400</v>
       </c>
     </row>
-    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5503,8 +5664,9 @@
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
       <c r="AE67" s="3"/>
-    </row>
-    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF67" s="3"/>
+    </row>
+    <row r="68" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5592,8 +5754,11 @@
       <c r="AE68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5681,31 +5846,34 @@
       <c r="AE69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="E70" s="3">
         <v>3000</v>
       </c>
       <c r="F70" s="3">
+        <v>3000</v>
+      </c>
+      <c r="G70" s="3">
         <v>3100</v>
       </c>
-      <c r="G70" s="3">
+      <c r="H70" s="3">
         <v>3200</v>
       </c>
-      <c r="H70" s="3">
+      <c r="I70" s="3">
         <v>5200</v>
       </c>
-      <c r="I70" s="3">
+      <c r="J70" s="3">
         <v>6100</v>
-      </c>
-      <c r="J70" s="3">
-        <v>6900</v>
       </c>
       <c r="K70" s="3">
         <v>6900</v>
@@ -5714,22 +5882,22 @@
         <v>6900</v>
       </c>
       <c r="M70" s="3">
+        <v>6900</v>
+      </c>
+      <c r="N70" s="3">
         <v>3900</v>
       </c>
-      <c r="N70" s="3">
+      <c r="O70" s="3">
         <v>2700</v>
       </c>
-      <c r="O70" s="3">
+      <c r="P70" s="3">
         <v>2600</v>
       </c>
-      <c r="P70" s="3">
+      <c r="Q70" s="3">
         <v>1900</v>
       </c>
-      <c r="Q70" s="3">
+      <c r="R70" s="3">
         <v>1100</v>
-      </c>
-      <c r="R70" s="3">
-        <v>800</v>
       </c>
       <c r="S70" s="3">
         <v>800</v>
@@ -5750,28 +5918,31 @@
         <v>800</v>
       </c>
       <c r="Y70" s="3">
+        <v>800</v>
+      </c>
+      <c r="Z70" s="3">
         <v>1000</v>
-      </c>
-      <c r="Z70" s="3">
-        <v>1100</v>
       </c>
       <c r="AA70" s="3">
         <v>1100</v>
       </c>
       <c r="AB70" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="AC70" s="3">
         <v>1200</v>
       </c>
       <c r="AD70" s="3">
+        <v>1200</v>
+      </c>
+      <c r="AE70" s="3">
         <v>1300</v>
       </c>
-      <c r="AE70" s="3">
+      <c r="AF70" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5859,97 +6030,103 @@
       <c r="AE71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D72" s="3">
+      <c r="D72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E72" s="3">
         <v>-149900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-148300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-147400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-145500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-144400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-143400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-142400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-141900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-141800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-140600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-140000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-142100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-143600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-136800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-139600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-140600</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-140500</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-137900</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-137600</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-134900</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-134100</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-137500</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-138500</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>-131300</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>-128900</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>-127800</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>-127600</v>
       </c>
-      <c r="AE72" s="3">
+      <c r="AF72" s="3">
         <v>-125500</v>
       </c>
     </row>
-    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -6037,8 +6214,11 @@
       <c r="AE73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -6126,8 +6306,11 @@
       <c r="AE74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6215,97 +6398,103 @@
       <c r="AE75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D76" s="3">
+      <c r="D76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E76" s="3">
         <v>-6300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-5900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-6000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-5800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-11000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-11100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-12300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-12000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-12200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-11900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-13600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-16400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-18400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-12400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-17700</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-18800</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-19400</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>-16800</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>-16600</v>
-      </c>
-      <c r="W76" s="3">
-        <v>-15000</v>
       </c>
       <c r="X76" s="3">
         <v>-15000</v>
       </c>
       <c r="Y76" s="3">
+        <v>-15000</v>
+      </c>
+      <c r="Z76" s="3">
         <v>-18900</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>-20500</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>-13500</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>-11500</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>-10300</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>-10600</v>
       </c>
-      <c r="AE76" s="3">
+      <c r="AF76" s="3">
         <v>-8700</v>
       </c>
     </row>
-    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6393,191 +6582,200 @@
       <c r="AE77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45107</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44742</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44651</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44469</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44377</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44286</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44196</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44104</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>44012</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43921</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43830</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43738</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43646</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43555</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43465</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43373</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43281</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43190</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43100</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>43008</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42916</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42825</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42735</v>
       </c>
-      <c r="AE80" s="2">
+      <c r="AF80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
+      <c r="D81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E81" s="3">
         <v>-1600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-1000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-1900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-1100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-1000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-1100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-1200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>2100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>1500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-6800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>2700</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>1100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-100</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-2700</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-200</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-2800</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-800</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>3400</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>1000</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-7200</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>-2400</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>-1100</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>-200</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AE81" s="3">
         <v>-2100</v>
       </c>
-      <c r="AE81" s="3">
+      <c r="AF81" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6609,8 +6807,9 @@
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
       <c r="AE82" s="3"/>
-    </row>
-    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF82" s="3"/>
+    </row>
+    <row r="83" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6623,8 +6822,8 @@
       <c r="F83" s="3">
         <v>0</v>
       </c>
-      <c r="G83" s="3" t="s">
-        <v>4</v>
+      <c r="G83" s="3">
+        <v>0</v>
       </c>
       <c r="H83" s="3" t="s">
         <v>4</v>
@@ -6632,17 +6831,17 @@
       <c r="I83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J83" s="3">
-        <v>0</v>
-      </c>
-      <c r="K83" s="3" t="s">
+      <c r="J83" s="3" t="s">
         <v>4</v>
+      </c>
+      <c r="K83" s="3">
+        <v>0</v>
       </c>
       <c r="L83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M83" s="3">
-        <v>0</v>
+      <c r="M83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N83" s="3">
         <v>0</v>
@@ -6681,11 +6880,11 @@
         <v>0</v>
       </c>
       <c r="Z83" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA83" s="3">
         <v>100</v>
       </c>
-      <c r="AA83" s="3">
-        <v>0</v>
-      </c>
       <c r="AB83" s="3">
         <v>0</v>
       </c>
@@ -6693,13 +6892,16 @@
         <v>0</v>
       </c>
       <c r="AD83" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE83" s="3">
         <v>100</v>
       </c>
-      <c r="AE83" s="3">
+      <c r="AF83" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6787,8 +6989,11 @@
       <c r="AE84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6876,8 +7081,11 @@
       <c r="AE85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6965,8 +7173,11 @@
       <c r="AE86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -7054,8 +7265,11 @@
       <c r="AE87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -7143,55 +7357,58 @@
       <c r="AE88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E89" s="3">
         <v>-400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-1300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-500</v>
-      </c>
-      <c r="R89" s="3">
-        <v>-200</v>
       </c>
       <c r="S89" s="3">
         <v>-200</v>
@@ -7203,37 +7420,40 @@
         <v>-200</v>
       </c>
       <c r="V89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="W89" s="3">
         <v>-300</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-400</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-200</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>-400</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>-700</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>-200</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>100</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>-400</v>
       </c>
-      <c r="AD89" s="3">
+      <c r="AE89" s="3">
         <v>-200</v>
       </c>
-      <c r="AE89" s="3">
+      <c r="AF89" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7265,8 +7485,9 @@
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
       <c r="AE90" s="3"/>
-    </row>
-    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF90" s="3"/>
+    </row>
+    <row r="91" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -7306,8 +7527,8 @@
       <c r="O91" s="3">
         <v>0</v>
       </c>
-      <c r="P91" s="3" t="s">
-        <v>4</v>
+      <c r="P91" s="3">
+        <v>0</v>
       </c>
       <c r="Q91" s="3" t="s">
         <v>4</v>
@@ -7318,8 +7539,8 @@
       <c r="S91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T91" s="3">
-        <v>0</v>
+      <c r="T91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U91" s="3">
         <v>0</v>
@@ -7354,8 +7575,11 @@
       <c r="AE91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7443,8 +7667,11 @@
       <c r="AE92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7532,13 +7759,16 @@
       <c r="AE93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3">
-        <v>0</v>
+      <c r="D94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E94" s="3">
         <v>0</v>
@@ -7573,8 +7803,8 @@
       <c r="O94" s="3">
         <v>0</v>
       </c>
-      <c r="P94" s="3" t="s">
-        <v>4</v>
+      <c r="P94" s="3">
+        <v>0</v>
       </c>
       <c r="Q94" s="3" t="s">
         <v>4</v>
@@ -7585,8 +7815,8 @@
       <c r="S94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T94" s="3">
-        <v>0</v>
+      <c r="T94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U94" s="3">
         <v>0</v>
@@ -7621,8 +7851,11 @@
       <c r="AE94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7654,8 +7887,9 @@
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
       <c r="AE95" s="3"/>
-    </row>
-    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF95" s="3"/>
+    </row>
+    <row r="96" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7743,8 +7977,11 @@
       <c r="AE96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7832,8 +8069,11 @@
       <c r="AE97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7921,8 +8161,11 @@
       <c r="AE98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -8010,13 +8253,16 @@
       <c r="AE99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="E100" s="3">
         <v>0</v>
@@ -8025,43 +8271,43 @@
         <v>0</v>
       </c>
       <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>2900</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>1000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>800</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>400</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>1200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-300</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>1100</v>
-      </c>
-      <c r="S100" s="3">
-        <v>200</v>
       </c>
       <c r="T100" s="3">
         <v>200</v>
@@ -8073,34 +8319,37 @@
         <v>200</v>
       </c>
       <c r="W100" s="3">
+        <v>200</v>
+      </c>
+      <c r="X100" s="3">
         <v>400</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>200</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>500</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>600</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>300</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-100</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>400</v>
       </c>
-      <c r="AD100" s="3">
+      <c r="AE100" s="3">
         <v>200</v>
       </c>
-      <c r="AE100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -8188,59 +8437,62 @@
       <c r="AE101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-500</v>
+        <v>-600</v>
       </c>
       <c r="E102" s="3">
         <v>-500</v>
       </c>
       <c r="F102" s="3">
+        <v>-500</v>
+      </c>
+      <c r="G102" s="3">
         <v>-400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>2300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-300</v>
-      </c>
-      <c r="I102" s="3">
-        <v>100</v>
       </c>
       <c r="J102" s="3">
         <v>100</v>
       </c>
       <c r="K102" s="3">
+        <v>100</v>
+      </c>
+      <c r="L102" s="3">
         <v>-400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>1100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>700</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-900</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>900</v>
       </c>
-      <c r="S102" s="3">
-        <v>0</v>
-      </c>
       <c r="T102" s="3">
         <v>0</v>
       </c>
@@ -8248,26 +8500,26 @@
         <v>0</v>
       </c>
       <c r="V102" s="3">
+        <v>0</v>
+      </c>
+      <c r="W102" s="3">
         <v>-100</v>
       </c>
-      <c r="W102" s="3">
-        <v>0</v>
-      </c>
       <c r="X102" s="3">
         <v>0</v>
       </c>
       <c r="Y102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z102" s="3">
         <v>100</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-100</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>100</v>
       </c>
-      <c r="AB102" s="3">
-        <v>0</v>
-      </c>
       <c r="AC102" s="3">
         <v>0</v>
       </c>
@@ -8275,6 +8527,9 @@
         <v>0</v>
       </c>
       <c r="AE102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF102" s="3">
         <v>0</v>
       </c>
     </row>
